--- a/Analyst/models/excel/Data_Listing-Caswell.xlsx
+++ b/Analyst/models/excel/Data_Listing-Caswell.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="19200" windowHeight="11670"/>
+    <workbookView xWindow="3760" yWindow="920" windowWidth="31840" windowHeight="25520"/>
   </bookViews>
   <sheets>
     <sheet name="WCR - Data Listing" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WCR - Data Listing'!$A$5:$U$57</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">'WCR - Data Listing'!$L$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1485,46 +1490,46 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1535,7 +1540,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1544,13 +1549,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1559,14 +1564,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,19 +1589,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1605,100 +1610,100 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1707,7 +1712,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1718,7 +1723,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2247,37 +2252,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="17">
       <c r="A1" s="61" t="s">
         <v>408</v>
       </c>
@@ -2289,7 +2294,7 @@
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="63" t="s">
         <v>406</v>
       </c>
@@ -2301,7 +2306,7 @@
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="63" t="s">
         <v>407</v>
       </c>
@@ -2313,7 +2318,7 @@
       <c r="G3" s="63"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="60" t="s">
         <v>127</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="50">
         <v>5655</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="50">
         <v>5656</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="50">
         <v>5670</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="50">
         <v>514633</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="50">
         <v>5864</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="50">
         <v>448299</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="50">
         <v>8906</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="50">
         <v>8907</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="50">
         <v>568316</v>
       </c>
@@ -2977,7 +2982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="50">
         <v>537629</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="50">
         <v>438111</v>
       </c>
@@ -3105,7 +3110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="50">
         <v>439995</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="50">
         <v>9423</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="50">
         <v>448287</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="50">
         <v>9501</v>
       </c>
@@ -3365,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="50">
         <v>9517</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="50">
         <v>358247</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="50">
         <v>513301</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="50">
         <v>9728</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="50">
         <v>9729</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="50">
         <v>9730</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="50">
         <v>9731</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="50">
         <v>466374</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="50">
         <v>544853</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="50">
         <v>513305</v>
       </c>
@@ -4015,7 +4020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="50">
         <v>568065</v>
       </c>
@@ -4078,7 +4083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="50">
         <v>568066</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="50">
         <v>429712</v>
       </c>
@@ -4206,7 +4211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="50">
         <v>571036</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="50">
         <v>10908</v>
       </c>
@@ -4334,7 +4339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="50">
         <v>453515</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="50">
         <v>438134</v>
       </c>
@@ -4464,7 +4469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="51">
         <v>573251</v>
       </c>
@@ -4526,7 +4531,7 @@
       </c>
       <c r="V38" s="57"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="50">
         <v>12064</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="50">
         <v>40132</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="50">
         <v>39534</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="50">
         <v>454012</v>
       </c>
@@ -4786,7 +4791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="50">
         <v>512560</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="50">
         <v>12432</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="50">
         <v>525821</v>
       </c>
@@ -4981,7 +4986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="50">
         <v>13002</v>
       </c>
@@ -5046,7 +5051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="50">
         <v>13194</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="50">
         <v>13195</v>
       </c>
@@ -5176,7 +5181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" s="50">
         <v>466460</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" s="50">
         <v>467483</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21">
       <c r="A51" s="50">
         <v>466508</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="A52" s="50">
         <v>571593</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21">
       <c r="A53" s="50">
         <v>440005</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" s="50">
         <v>447634</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" s="50">
         <v>447660</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" s="50">
         <v>16568</v>
       </c>
@@ -5694,7 +5699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" s="50">
         <v>568184</v>
       </c>
@@ -5767,7 +5772,12 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5779,1287 +5789,1287 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" style="18" customWidth="1"/>
-    <col min="15" max="251" width="9.140625" style="20"/>
-    <col min="252" max="252" width="1.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="36.33203125" style="18" customWidth="1"/>
+    <col min="15" max="251" width="8.83203125" style="20"/>
+    <col min="252" max="252" width="1.5" style="20" customWidth="1"/>
     <col min="253" max="253" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="21.42578125" style="20" customWidth="1"/>
-    <col min="256" max="256" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="21.28515625" style="20" customWidth="1"/>
-    <col min="258" max="258" width="26.7109375" style="20" customWidth="1"/>
-    <col min="259" max="259" width="11.42578125" style="20" customWidth="1"/>
-    <col min="260" max="260" width="26.5703125" style="20" customWidth="1"/>
-    <col min="261" max="261" width="10.5703125" style="20" customWidth="1"/>
-    <col min="262" max="262" width="13.42578125" style="20" customWidth="1"/>
-    <col min="263" max="263" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.5703125" style="20" customWidth="1"/>
-    <col min="265" max="265" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="36.28515625" style="20" customWidth="1"/>
-    <col min="270" max="270" width="11.7109375" style="20" customWidth="1"/>
-    <col min="271" max="507" width="9.140625" style="20"/>
-    <col min="508" max="508" width="1.42578125" style="20" customWidth="1"/>
+    <col min="254" max="254" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="21.5" style="20" customWidth="1"/>
+    <col min="256" max="256" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="21.33203125" style="20" customWidth="1"/>
+    <col min="258" max="258" width="26.6640625" style="20" customWidth="1"/>
+    <col min="259" max="259" width="11.5" style="20" customWidth="1"/>
+    <col min="260" max="260" width="26.5" style="20" customWidth="1"/>
+    <col min="261" max="261" width="10.5" style="20" customWidth="1"/>
+    <col min="262" max="262" width="13.5" style="20" customWidth="1"/>
+    <col min="263" max="263" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.5" style="20" customWidth="1"/>
+    <col min="265" max="265" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="36.33203125" style="20" customWidth="1"/>
+    <col min="270" max="270" width="11.6640625" style="20" customWidth="1"/>
+    <col min="271" max="507" width="8.83203125" style="20"/>
+    <col min="508" max="508" width="1.5" style="20" customWidth="1"/>
     <col min="509" max="509" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="21.42578125" style="20" customWidth="1"/>
-    <col min="512" max="512" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="21.28515625" style="20" customWidth="1"/>
-    <col min="514" max="514" width="26.7109375" style="20" customWidth="1"/>
-    <col min="515" max="515" width="11.42578125" style="20" customWidth="1"/>
-    <col min="516" max="516" width="26.5703125" style="20" customWidth="1"/>
-    <col min="517" max="517" width="10.5703125" style="20" customWidth="1"/>
-    <col min="518" max="518" width="13.42578125" style="20" customWidth="1"/>
-    <col min="519" max="519" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="9.5703125" style="20" customWidth="1"/>
-    <col min="521" max="521" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="36.28515625" style="20" customWidth="1"/>
-    <col min="526" max="526" width="11.7109375" style="20" customWidth="1"/>
-    <col min="527" max="763" width="9.140625" style="20"/>
-    <col min="764" max="764" width="1.42578125" style="20" customWidth="1"/>
+    <col min="510" max="510" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="21.5" style="20" customWidth="1"/>
+    <col min="512" max="512" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="21.33203125" style="20" customWidth="1"/>
+    <col min="514" max="514" width="26.6640625" style="20" customWidth="1"/>
+    <col min="515" max="515" width="11.5" style="20" customWidth="1"/>
+    <col min="516" max="516" width="26.5" style="20" customWidth="1"/>
+    <col min="517" max="517" width="10.5" style="20" customWidth="1"/>
+    <col min="518" max="518" width="13.5" style="20" customWidth="1"/>
+    <col min="519" max="519" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="9.5" style="20" customWidth="1"/>
+    <col min="521" max="521" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="36.33203125" style="20" customWidth="1"/>
+    <col min="526" max="526" width="11.6640625" style="20" customWidth="1"/>
+    <col min="527" max="763" width="8.83203125" style="20"/>
+    <col min="764" max="764" width="1.5" style="20" customWidth="1"/>
     <col min="765" max="765" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="766" max="766" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="767" max="767" width="21.42578125" style="20" customWidth="1"/>
-    <col min="768" max="768" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="21.28515625" style="20" customWidth="1"/>
-    <col min="770" max="770" width="26.7109375" style="20" customWidth="1"/>
-    <col min="771" max="771" width="11.42578125" style="20" customWidth="1"/>
-    <col min="772" max="772" width="26.5703125" style="20" customWidth="1"/>
-    <col min="773" max="773" width="10.5703125" style="20" customWidth="1"/>
-    <col min="774" max="774" width="13.42578125" style="20" customWidth="1"/>
-    <col min="775" max="775" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="9.5703125" style="20" customWidth="1"/>
-    <col min="777" max="777" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="36.28515625" style="20" customWidth="1"/>
-    <col min="782" max="782" width="11.7109375" style="20" customWidth="1"/>
-    <col min="783" max="1019" width="9.140625" style="20"/>
-    <col min="1020" max="1020" width="1.42578125" style="20" customWidth="1"/>
+    <col min="766" max="766" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="21.5" style="20" customWidth="1"/>
+    <col min="768" max="768" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="21.33203125" style="20" customWidth="1"/>
+    <col min="770" max="770" width="26.6640625" style="20" customWidth="1"/>
+    <col min="771" max="771" width="11.5" style="20" customWidth="1"/>
+    <col min="772" max="772" width="26.5" style="20" customWidth="1"/>
+    <col min="773" max="773" width="10.5" style="20" customWidth="1"/>
+    <col min="774" max="774" width="13.5" style="20" customWidth="1"/>
+    <col min="775" max="775" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="9.5" style="20" customWidth="1"/>
+    <col min="777" max="777" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="36.33203125" style="20" customWidth="1"/>
+    <col min="782" max="782" width="11.6640625" style="20" customWidth="1"/>
+    <col min="783" max="1019" width="8.83203125" style="20"/>
+    <col min="1020" max="1020" width="1.5" style="20" customWidth="1"/>
     <col min="1021" max="1021" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1022" max="1022" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1023" width="21.42578125" style="20" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="21.28515625" style="20" customWidth="1"/>
-    <col min="1026" max="1026" width="26.7109375" style="20" customWidth="1"/>
-    <col min="1027" max="1027" width="11.42578125" style="20" customWidth="1"/>
-    <col min="1028" max="1028" width="26.5703125" style="20" customWidth="1"/>
-    <col min="1029" max="1029" width="10.5703125" style="20" customWidth="1"/>
-    <col min="1030" max="1030" width="13.42578125" style="20" customWidth="1"/>
-    <col min="1031" max="1031" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.5703125" style="20" customWidth="1"/>
-    <col min="1033" max="1033" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="36.28515625" style="20" customWidth="1"/>
-    <col min="1038" max="1038" width="11.7109375" style="20" customWidth="1"/>
-    <col min="1039" max="1275" width="9.140625" style="20"/>
-    <col min="1276" max="1276" width="1.42578125" style="20" customWidth="1"/>
+    <col min="1022" max="1022" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="21.5" style="20" customWidth="1"/>
+    <col min="1024" max="1024" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="21.33203125" style="20" customWidth="1"/>
+    <col min="1026" max="1026" width="26.6640625" style="20" customWidth="1"/>
+    <col min="1027" max="1027" width="11.5" style="20" customWidth="1"/>
+    <col min="1028" max="1028" width="26.5" style="20" customWidth="1"/>
+    <col min="1029" max="1029" width="10.5" style="20" customWidth="1"/>
+    <col min="1030" max="1030" width="13.5" style="20" customWidth="1"/>
+    <col min="1031" max="1031" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.5" style="20" customWidth="1"/>
+    <col min="1033" max="1033" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="36.33203125" style="20" customWidth="1"/>
+    <col min="1038" max="1038" width="11.6640625" style="20" customWidth="1"/>
+    <col min="1039" max="1275" width="8.83203125" style="20"/>
+    <col min="1276" max="1276" width="1.5" style="20" customWidth="1"/>
     <col min="1277" max="1277" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1278" max="1278" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1279" max="1279" width="21.42578125" style="20" customWidth="1"/>
-    <col min="1280" max="1280" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="21.28515625" style="20" customWidth="1"/>
-    <col min="1282" max="1282" width="26.7109375" style="20" customWidth="1"/>
-    <col min="1283" max="1283" width="11.42578125" style="20" customWidth="1"/>
-    <col min="1284" max="1284" width="26.5703125" style="20" customWidth="1"/>
-    <col min="1285" max="1285" width="10.5703125" style="20" customWidth="1"/>
-    <col min="1286" max="1286" width="13.42578125" style="20" customWidth="1"/>
-    <col min="1287" max="1287" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.5703125" style="20" customWidth="1"/>
-    <col min="1289" max="1289" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="36.28515625" style="20" customWidth="1"/>
-    <col min="1294" max="1294" width="11.7109375" style="20" customWidth="1"/>
-    <col min="1295" max="1531" width="9.140625" style="20"/>
-    <col min="1532" max="1532" width="1.42578125" style="20" customWidth="1"/>
+    <col min="1278" max="1278" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="21.5" style="20" customWidth="1"/>
+    <col min="1280" max="1280" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="21.33203125" style="20" customWidth="1"/>
+    <col min="1282" max="1282" width="26.6640625" style="20" customWidth="1"/>
+    <col min="1283" max="1283" width="11.5" style="20" customWidth="1"/>
+    <col min="1284" max="1284" width="26.5" style="20" customWidth="1"/>
+    <col min="1285" max="1285" width="10.5" style="20" customWidth="1"/>
+    <col min="1286" max="1286" width="13.5" style="20" customWidth="1"/>
+    <col min="1287" max="1287" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.5" style="20" customWidth="1"/>
+    <col min="1289" max="1289" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="36.33203125" style="20" customWidth="1"/>
+    <col min="1294" max="1294" width="11.6640625" style="20" customWidth="1"/>
+    <col min="1295" max="1531" width="8.83203125" style="20"/>
+    <col min="1532" max="1532" width="1.5" style="20" customWidth="1"/>
     <col min="1533" max="1533" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1534" max="1534" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1535" max="1535" width="21.42578125" style="20" customWidth="1"/>
-    <col min="1536" max="1536" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="21.28515625" style="20" customWidth="1"/>
-    <col min="1538" max="1538" width="26.7109375" style="20" customWidth="1"/>
-    <col min="1539" max="1539" width="11.42578125" style="20" customWidth="1"/>
-    <col min="1540" max="1540" width="26.5703125" style="20" customWidth="1"/>
-    <col min="1541" max="1541" width="10.5703125" style="20" customWidth="1"/>
-    <col min="1542" max="1542" width="13.42578125" style="20" customWidth="1"/>
-    <col min="1543" max="1543" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.5703125" style="20" customWidth="1"/>
-    <col min="1545" max="1545" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="36.28515625" style="20" customWidth="1"/>
-    <col min="1550" max="1550" width="11.7109375" style="20" customWidth="1"/>
-    <col min="1551" max="1787" width="9.140625" style="20"/>
-    <col min="1788" max="1788" width="1.42578125" style="20" customWidth="1"/>
+    <col min="1534" max="1534" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="21.5" style="20" customWidth="1"/>
+    <col min="1536" max="1536" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="21.33203125" style="20" customWidth="1"/>
+    <col min="1538" max="1538" width="26.6640625" style="20" customWidth="1"/>
+    <col min="1539" max="1539" width="11.5" style="20" customWidth="1"/>
+    <col min="1540" max="1540" width="26.5" style="20" customWidth="1"/>
+    <col min="1541" max="1541" width="10.5" style="20" customWidth="1"/>
+    <col min="1542" max="1542" width="13.5" style="20" customWidth="1"/>
+    <col min="1543" max="1543" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.5" style="20" customWidth="1"/>
+    <col min="1545" max="1545" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="36.33203125" style="20" customWidth="1"/>
+    <col min="1550" max="1550" width="11.6640625" style="20" customWidth="1"/>
+    <col min="1551" max="1787" width="8.83203125" style="20"/>
+    <col min="1788" max="1788" width="1.5" style="20" customWidth="1"/>
     <col min="1789" max="1789" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1790" max="1790" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1791" max="1791" width="21.42578125" style="20" customWidth="1"/>
-    <col min="1792" max="1792" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="21.28515625" style="20" customWidth="1"/>
-    <col min="1794" max="1794" width="26.7109375" style="20" customWidth="1"/>
-    <col min="1795" max="1795" width="11.42578125" style="20" customWidth="1"/>
-    <col min="1796" max="1796" width="26.5703125" style="20" customWidth="1"/>
-    <col min="1797" max="1797" width="10.5703125" style="20" customWidth="1"/>
-    <col min="1798" max="1798" width="13.42578125" style="20" customWidth="1"/>
-    <col min="1799" max="1799" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.5703125" style="20" customWidth="1"/>
-    <col min="1801" max="1801" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="36.28515625" style="20" customWidth="1"/>
-    <col min="1806" max="1806" width="11.7109375" style="20" customWidth="1"/>
-    <col min="1807" max="2043" width="9.140625" style="20"/>
-    <col min="2044" max="2044" width="1.42578125" style="20" customWidth="1"/>
+    <col min="1790" max="1790" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="21.5" style="20" customWidth="1"/>
+    <col min="1792" max="1792" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="21.33203125" style="20" customWidth="1"/>
+    <col min="1794" max="1794" width="26.6640625" style="20" customWidth="1"/>
+    <col min="1795" max="1795" width="11.5" style="20" customWidth="1"/>
+    <col min="1796" max="1796" width="26.5" style="20" customWidth="1"/>
+    <col min="1797" max="1797" width="10.5" style="20" customWidth="1"/>
+    <col min="1798" max="1798" width="13.5" style="20" customWidth="1"/>
+    <col min="1799" max="1799" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.5" style="20" customWidth="1"/>
+    <col min="1801" max="1801" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="36.33203125" style="20" customWidth="1"/>
+    <col min="1806" max="1806" width="11.6640625" style="20" customWidth="1"/>
+    <col min="1807" max="2043" width="8.83203125" style="20"/>
+    <col min="2044" max="2044" width="1.5" style="20" customWidth="1"/>
     <col min="2045" max="2045" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2046" max="2046" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2047" max="2047" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2048" max="2048" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="21.28515625" style="20" customWidth="1"/>
-    <col min="2050" max="2050" width="26.7109375" style="20" customWidth="1"/>
-    <col min="2051" max="2051" width="11.42578125" style="20" customWidth="1"/>
-    <col min="2052" max="2052" width="26.5703125" style="20" customWidth="1"/>
-    <col min="2053" max="2053" width="10.5703125" style="20" customWidth="1"/>
-    <col min="2054" max="2054" width="13.42578125" style="20" customWidth="1"/>
-    <col min="2055" max="2055" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.5703125" style="20" customWidth="1"/>
-    <col min="2057" max="2057" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="36.28515625" style="20" customWidth="1"/>
-    <col min="2062" max="2062" width="11.7109375" style="20" customWidth="1"/>
-    <col min="2063" max="2299" width="9.140625" style="20"/>
-    <col min="2300" max="2300" width="1.42578125" style="20" customWidth="1"/>
+    <col min="2046" max="2046" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="21.5" style="20" customWidth="1"/>
+    <col min="2048" max="2048" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="21.33203125" style="20" customWidth="1"/>
+    <col min="2050" max="2050" width="26.6640625" style="20" customWidth="1"/>
+    <col min="2051" max="2051" width="11.5" style="20" customWidth="1"/>
+    <col min="2052" max="2052" width="26.5" style="20" customWidth="1"/>
+    <col min="2053" max="2053" width="10.5" style="20" customWidth="1"/>
+    <col min="2054" max="2054" width="13.5" style="20" customWidth="1"/>
+    <col min="2055" max="2055" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.5" style="20" customWidth="1"/>
+    <col min="2057" max="2057" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="36.33203125" style="20" customWidth="1"/>
+    <col min="2062" max="2062" width="11.6640625" style="20" customWidth="1"/>
+    <col min="2063" max="2299" width="8.83203125" style="20"/>
+    <col min="2300" max="2300" width="1.5" style="20" customWidth="1"/>
     <col min="2301" max="2301" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2302" max="2302" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2303" max="2303" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2304" max="2304" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="21.28515625" style="20" customWidth="1"/>
-    <col min="2306" max="2306" width="26.7109375" style="20" customWidth="1"/>
-    <col min="2307" max="2307" width="11.42578125" style="20" customWidth="1"/>
-    <col min="2308" max="2308" width="26.5703125" style="20" customWidth="1"/>
-    <col min="2309" max="2309" width="10.5703125" style="20" customWidth="1"/>
-    <col min="2310" max="2310" width="13.42578125" style="20" customWidth="1"/>
-    <col min="2311" max="2311" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.5703125" style="20" customWidth="1"/>
-    <col min="2313" max="2313" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="36.28515625" style="20" customWidth="1"/>
-    <col min="2318" max="2318" width="11.7109375" style="20" customWidth="1"/>
-    <col min="2319" max="2555" width="9.140625" style="20"/>
-    <col min="2556" max="2556" width="1.42578125" style="20" customWidth="1"/>
+    <col min="2302" max="2302" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="21.5" style="20" customWidth="1"/>
+    <col min="2304" max="2304" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="21.33203125" style="20" customWidth="1"/>
+    <col min="2306" max="2306" width="26.6640625" style="20" customWidth="1"/>
+    <col min="2307" max="2307" width="11.5" style="20" customWidth="1"/>
+    <col min="2308" max="2308" width="26.5" style="20" customWidth="1"/>
+    <col min="2309" max="2309" width="10.5" style="20" customWidth="1"/>
+    <col min="2310" max="2310" width="13.5" style="20" customWidth="1"/>
+    <col min="2311" max="2311" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.5" style="20" customWidth="1"/>
+    <col min="2313" max="2313" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="36.33203125" style="20" customWidth="1"/>
+    <col min="2318" max="2318" width="11.6640625" style="20" customWidth="1"/>
+    <col min="2319" max="2555" width="8.83203125" style="20"/>
+    <col min="2556" max="2556" width="1.5" style="20" customWidth="1"/>
     <col min="2557" max="2557" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2558" max="2558" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2559" max="2559" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2560" max="2560" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="21.28515625" style="20" customWidth="1"/>
-    <col min="2562" max="2562" width="26.7109375" style="20" customWidth="1"/>
-    <col min="2563" max="2563" width="11.42578125" style="20" customWidth="1"/>
-    <col min="2564" max="2564" width="26.5703125" style="20" customWidth="1"/>
-    <col min="2565" max="2565" width="10.5703125" style="20" customWidth="1"/>
-    <col min="2566" max="2566" width="13.42578125" style="20" customWidth="1"/>
-    <col min="2567" max="2567" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.5703125" style="20" customWidth="1"/>
-    <col min="2569" max="2569" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="36.28515625" style="20" customWidth="1"/>
-    <col min="2574" max="2574" width="11.7109375" style="20" customWidth="1"/>
-    <col min="2575" max="2811" width="9.140625" style="20"/>
-    <col min="2812" max="2812" width="1.42578125" style="20" customWidth="1"/>
+    <col min="2558" max="2558" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="21.5" style="20" customWidth="1"/>
+    <col min="2560" max="2560" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="21.33203125" style="20" customWidth="1"/>
+    <col min="2562" max="2562" width="26.6640625" style="20" customWidth="1"/>
+    <col min="2563" max="2563" width="11.5" style="20" customWidth="1"/>
+    <col min="2564" max="2564" width="26.5" style="20" customWidth="1"/>
+    <col min="2565" max="2565" width="10.5" style="20" customWidth="1"/>
+    <col min="2566" max="2566" width="13.5" style="20" customWidth="1"/>
+    <col min="2567" max="2567" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.5" style="20" customWidth="1"/>
+    <col min="2569" max="2569" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="36.33203125" style="20" customWidth="1"/>
+    <col min="2574" max="2574" width="11.6640625" style="20" customWidth="1"/>
+    <col min="2575" max="2811" width="8.83203125" style="20"/>
+    <col min="2812" max="2812" width="1.5" style="20" customWidth="1"/>
     <col min="2813" max="2813" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2814" max="2814" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2815" max="2815" width="21.42578125" style="20" customWidth="1"/>
-    <col min="2816" max="2816" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="21.28515625" style="20" customWidth="1"/>
-    <col min="2818" max="2818" width="26.7109375" style="20" customWidth="1"/>
-    <col min="2819" max="2819" width="11.42578125" style="20" customWidth="1"/>
-    <col min="2820" max="2820" width="26.5703125" style="20" customWidth="1"/>
-    <col min="2821" max="2821" width="10.5703125" style="20" customWidth="1"/>
-    <col min="2822" max="2822" width="13.42578125" style="20" customWidth="1"/>
-    <col min="2823" max="2823" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.5703125" style="20" customWidth="1"/>
-    <col min="2825" max="2825" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="36.28515625" style="20" customWidth="1"/>
-    <col min="2830" max="2830" width="11.7109375" style="20" customWidth="1"/>
-    <col min="2831" max="3067" width="9.140625" style="20"/>
-    <col min="3068" max="3068" width="1.42578125" style="20" customWidth="1"/>
+    <col min="2814" max="2814" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="21.5" style="20" customWidth="1"/>
+    <col min="2816" max="2816" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="21.33203125" style="20" customWidth="1"/>
+    <col min="2818" max="2818" width="26.6640625" style="20" customWidth="1"/>
+    <col min="2819" max="2819" width="11.5" style="20" customWidth="1"/>
+    <col min="2820" max="2820" width="26.5" style="20" customWidth="1"/>
+    <col min="2821" max="2821" width="10.5" style="20" customWidth="1"/>
+    <col min="2822" max="2822" width="13.5" style="20" customWidth="1"/>
+    <col min="2823" max="2823" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.5" style="20" customWidth="1"/>
+    <col min="2825" max="2825" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="36.33203125" style="20" customWidth="1"/>
+    <col min="2830" max="2830" width="11.6640625" style="20" customWidth="1"/>
+    <col min="2831" max="3067" width="8.83203125" style="20"/>
+    <col min="3068" max="3068" width="1.5" style="20" customWidth="1"/>
     <col min="3069" max="3069" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3070" max="3070" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3071" max="3071" width="21.42578125" style="20" customWidth="1"/>
-    <col min="3072" max="3072" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="21.28515625" style="20" customWidth="1"/>
-    <col min="3074" max="3074" width="26.7109375" style="20" customWidth="1"/>
-    <col min="3075" max="3075" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3076" max="3076" width="26.5703125" style="20" customWidth="1"/>
-    <col min="3077" max="3077" width="10.5703125" style="20" customWidth="1"/>
-    <col min="3078" max="3078" width="13.42578125" style="20" customWidth="1"/>
-    <col min="3079" max="3079" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.5703125" style="20" customWidth="1"/>
-    <col min="3081" max="3081" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="36.28515625" style="20" customWidth="1"/>
-    <col min="3086" max="3086" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3087" max="3323" width="9.140625" style="20"/>
-    <col min="3324" max="3324" width="1.42578125" style="20" customWidth="1"/>
+    <col min="3070" max="3070" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="21.5" style="20" customWidth="1"/>
+    <col min="3072" max="3072" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="21.33203125" style="20" customWidth="1"/>
+    <col min="3074" max="3074" width="26.6640625" style="20" customWidth="1"/>
+    <col min="3075" max="3075" width="11.5" style="20" customWidth="1"/>
+    <col min="3076" max="3076" width="26.5" style="20" customWidth="1"/>
+    <col min="3077" max="3077" width="10.5" style="20" customWidth="1"/>
+    <col min="3078" max="3078" width="13.5" style="20" customWidth="1"/>
+    <col min="3079" max="3079" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.5" style="20" customWidth="1"/>
+    <col min="3081" max="3081" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="36.33203125" style="20" customWidth="1"/>
+    <col min="3086" max="3086" width="11.6640625" style="20" customWidth="1"/>
+    <col min="3087" max="3323" width="8.83203125" style="20"/>
+    <col min="3324" max="3324" width="1.5" style="20" customWidth="1"/>
     <col min="3325" max="3325" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3326" max="3326" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3327" max="3327" width="21.42578125" style="20" customWidth="1"/>
-    <col min="3328" max="3328" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="21.28515625" style="20" customWidth="1"/>
-    <col min="3330" max="3330" width="26.7109375" style="20" customWidth="1"/>
-    <col min="3331" max="3331" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3332" max="3332" width="26.5703125" style="20" customWidth="1"/>
-    <col min="3333" max="3333" width="10.5703125" style="20" customWidth="1"/>
-    <col min="3334" max="3334" width="13.42578125" style="20" customWidth="1"/>
-    <col min="3335" max="3335" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.5703125" style="20" customWidth="1"/>
-    <col min="3337" max="3337" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="36.28515625" style="20" customWidth="1"/>
-    <col min="3342" max="3342" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3343" max="3579" width="9.140625" style="20"/>
-    <col min="3580" max="3580" width="1.42578125" style="20" customWidth="1"/>
+    <col min="3326" max="3326" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="21.5" style="20" customWidth="1"/>
+    <col min="3328" max="3328" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="21.33203125" style="20" customWidth="1"/>
+    <col min="3330" max="3330" width="26.6640625" style="20" customWidth="1"/>
+    <col min="3331" max="3331" width="11.5" style="20" customWidth="1"/>
+    <col min="3332" max="3332" width="26.5" style="20" customWidth="1"/>
+    <col min="3333" max="3333" width="10.5" style="20" customWidth="1"/>
+    <col min="3334" max="3334" width="13.5" style="20" customWidth="1"/>
+    <col min="3335" max="3335" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.5" style="20" customWidth="1"/>
+    <col min="3337" max="3337" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="36.33203125" style="20" customWidth="1"/>
+    <col min="3342" max="3342" width="11.6640625" style="20" customWidth="1"/>
+    <col min="3343" max="3579" width="8.83203125" style="20"/>
+    <col min="3580" max="3580" width="1.5" style="20" customWidth="1"/>
     <col min="3581" max="3581" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3582" max="3582" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3583" max="3583" width="21.42578125" style="20" customWidth="1"/>
-    <col min="3584" max="3584" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="21.28515625" style="20" customWidth="1"/>
-    <col min="3586" max="3586" width="26.7109375" style="20" customWidth="1"/>
-    <col min="3587" max="3587" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3588" max="3588" width="26.5703125" style="20" customWidth="1"/>
-    <col min="3589" max="3589" width="10.5703125" style="20" customWidth="1"/>
-    <col min="3590" max="3590" width="13.42578125" style="20" customWidth="1"/>
-    <col min="3591" max="3591" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.5703125" style="20" customWidth="1"/>
-    <col min="3593" max="3593" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="36.28515625" style="20" customWidth="1"/>
-    <col min="3598" max="3598" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3599" max="3835" width="9.140625" style="20"/>
-    <col min="3836" max="3836" width="1.42578125" style="20" customWidth="1"/>
+    <col min="3582" max="3582" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="21.5" style="20" customWidth="1"/>
+    <col min="3584" max="3584" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="21.33203125" style="20" customWidth="1"/>
+    <col min="3586" max="3586" width="26.6640625" style="20" customWidth="1"/>
+    <col min="3587" max="3587" width="11.5" style="20" customWidth="1"/>
+    <col min="3588" max="3588" width="26.5" style="20" customWidth="1"/>
+    <col min="3589" max="3589" width="10.5" style="20" customWidth="1"/>
+    <col min="3590" max="3590" width="13.5" style="20" customWidth="1"/>
+    <col min="3591" max="3591" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.5" style="20" customWidth="1"/>
+    <col min="3593" max="3593" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="36.33203125" style="20" customWidth="1"/>
+    <col min="3598" max="3598" width="11.6640625" style="20" customWidth="1"/>
+    <col min="3599" max="3835" width="8.83203125" style="20"/>
+    <col min="3836" max="3836" width="1.5" style="20" customWidth="1"/>
     <col min="3837" max="3837" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3838" max="3838" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3839" max="3839" width="21.42578125" style="20" customWidth="1"/>
-    <col min="3840" max="3840" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="21.28515625" style="20" customWidth="1"/>
-    <col min="3842" max="3842" width="26.7109375" style="20" customWidth="1"/>
-    <col min="3843" max="3843" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3844" max="3844" width="26.5703125" style="20" customWidth="1"/>
-    <col min="3845" max="3845" width="10.5703125" style="20" customWidth="1"/>
-    <col min="3846" max="3846" width="13.42578125" style="20" customWidth="1"/>
-    <col min="3847" max="3847" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.5703125" style="20" customWidth="1"/>
-    <col min="3849" max="3849" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="36.28515625" style="20" customWidth="1"/>
-    <col min="3854" max="3854" width="11.7109375" style="20" customWidth="1"/>
-    <col min="3855" max="4091" width="9.140625" style="20"/>
-    <col min="4092" max="4092" width="1.42578125" style="20" customWidth="1"/>
+    <col min="3838" max="3838" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="21.5" style="20" customWidth="1"/>
+    <col min="3840" max="3840" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="21.33203125" style="20" customWidth="1"/>
+    <col min="3842" max="3842" width="26.6640625" style="20" customWidth="1"/>
+    <col min="3843" max="3843" width="11.5" style="20" customWidth="1"/>
+    <col min="3844" max="3844" width="26.5" style="20" customWidth="1"/>
+    <col min="3845" max="3845" width="10.5" style="20" customWidth="1"/>
+    <col min="3846" max="3846" width="13.5" style="20" customWidth="1"/>
+    <col min="3847" max="3847" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.5" style="20" customWidth="1"/>
+    <col min="3849" max="3849" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="36.33203125" style="20" customWidth="1"/>
+    <col min="3854" max="3854" width="11.6640625" style="20" customWidth="1"/>
+    <col min="3855" max="4091" width="8.83203125" style="20"/>
+    <col min="4092" max="4092" width="1.5" style="20" customWidth="1"/>
     <col min="4093" max="4093" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4094" max="4094" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4095" max="4095" width="21.42578125" style="20" customWidth="1"/>
-    <col min="4096" max="4096" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="21.28515625" style="20" customWidth="1"/>
-    <col min="4098" max="4098" width="26.7109375" style="20" customWidth="1"/>
-    <col min="4099" max="4099" width="11.42578125" style="20" customWidth="1"/>
-    <col min="4100" max="4100" width="26.5703125" style="20" customWidth="1"/>
-    <col min="4101" max="4101" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4102" max="4102" width="13.42578125" style="20" customWidth="1"/>
-    <col min="4103" max="4103" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.5703125" style="20" customWidth="1"/>
-    <col min="4105" max="4105" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="36.28515625" style="20" customWidth="1"/>
-    <col min="4110" max="4110" width="11.7109375" style="20" customWidth="1"/>
-    <col min="4111" max="4347" width="9.140625" style="20"/>
-    <col min="4348" max="4348" width="1.42578125" style="20" customWidth="1"/>
+    <col min="4094" max="4094" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="21.5" style="20" customWidth="1"/>
+    <col min="4096" max="4096" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="21.33203125" style="20" customWidth="1"/>
+    <col min="4098" max="4098" width="26.6640625" style="20" customWidth="1"/>
+    <col min="4099" max="4099" width="11.5" style="20" customWidth="1"/>
+    <col min="4100" max="4100" width="26.5" style="20" customWidth="1"/>
+    <col min="4101" max="4101" width="10.5" style="20" customWidth="1"/>
+    <col min="4102" max="4102" width="13.5" style="20" customWidth="1"/>
+    <col min="4103" max="4103" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.5" style="20" customWidth="1"/>
+    <col min="4105" max="4105" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="36.33203125" style="20" customWidth="1"/>
+    <col min="4110" max="4110" width="11.6640625" style="20" customWidth="1"/>
+    <col min="4111" max="4347" width="8.83203125" style="20"/>
+    <col min="4348" max="4348" width="1.5" style="20" customWidth="1"/>
     <col min="4349" max="4349" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4350" max="4350" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4351" max="4351" width="21.42578125" style="20" customWidth="1"/>
-    <col min="4352" max="4352" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="21.28515625" style="20" customWidth="1"/>
-    <col min="4354" max="4354" width="26.7109375" style="20" customWidth="1"/>
-    <col min="4355" max="4355" width="11.42578125" style="20" customWidth="1"/>
-    <col min="4356" max="4356" width="26.5703125" style="20" customWidth="1"/>
-    <col min="4357" max="4357" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4358" max="4358" width="13.42578125" style="20" customWidth="1"/>
-    <col min="4359" max="4359" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.5703125" style="20" customWidth="1"/>
-    <col min="4361" max="4361" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="36.28515625" style="20" customWidth="1"/>
-    <col min="4366" max="4366" width="11.7109375" style="20" customWidth="1"/>
-    <col min="4367" max="4603" width="9.140625" style="20"/>
-    <col min="4604" max="4604" width="1.42578125" style="20" customWidth="1"/>
+    <col min="4350" max="4350" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="21.5" style="20" customWidth="1"/>
+    <col min="4352" max="4352" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="21.33203125" style="20" customWidth="1"/>
+    <col min="4354" max="4354" width="26.6640625" style="20" customWidth="1"/>
+    <col min="4355" max="4355" width="11.5" style="20" customWidth="1"/>
+    <col min="4356" max="4356" width="26.5" style="20" customWidth="1"/>
+    <col min="4357" max="4357" width="10.5" style="20" customWidth="1"/>
+    <col min="4358" max="4358" width="13.5" style="20" customWidth="1"/>
+    <col min="4359" max="4359" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.5" style="20" customWidth="1"/>
+    <col min="4361" max="4361" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="36.33203125" style="20" customWidth="1"/>
+    <col min="4366" max="4366" width="11.6640625" style="20" customWidth="1"/>
+    <col min="4367" max="4603" width="8.83203125" style="20"/>
+    <col min="4604" max="4604" width="1.5" style="20" customWidth="1"/>
     <col min="4605" max="4605" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4606" max="4606" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4607" max="4607" width="21.42578125" style="20" customWidth="1"/>
-    <col min="4608" max="4608" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="21.28515625" style="20" customWidth="1"/>
-    <col min="4610" max="4610" width="26.7109375" style="20" customWidth="1"/>
-    <col min="4611" max="4611" width="11.42578125" style="20" customWidth="1"/>
-    <col min="4612" max="4612" width="26.5703125" style="20" customWidth="1"/>
-    <col min="4613" max="4613" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4614" max="4614" width="13.42578125" style="20" customWidth="1"/>
-    <col min="4615" max="4615" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.5703125" style="20" customWidth="1"/>
-    <col min="4617" max="4617" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="36.28515625" style="20" customWidth="1"/>
-    <col min="4622" max="4622" width="11.7109375" style="20" customWidth="1"/>
-    <col min="4623" max="4859" width="9.140625" style="20"/>
-    <col min="4860" max="4860" width="1.42578125" style="20" customWidth="1"/>
+    <col min="4606" max="4606" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="21.5" style="20" customWidth="1"/>
+    <col min="4608" max="4608" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="21.33203125" style="20" customWidth="1"/>
+    <col min="4610" max="4610" width="26.6640625" style="20" customWidth="1"/>
+    <col min="4611" max="4611" width="11.5" style="20" customWidth="1"/>
+    <col min="4612" max="4612" width="26.5" style="20" customWidth="1"/>
+    <col min="4613" max="4613" width="10.5" style="20" customWidth="1"/>
+    <col min="4614" max="4614" width="13.5" style="20" customWidth="1"/>
+    <col min="4615" max="4615" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.5" style="20" customWidth="1"/>
+    <col min="4617" max="4617" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="36.33203125" style="20" customWidth="1"/>
+    <col min="4622" max="4622" width="11.6640625" style="20" customWidth="1"/>
+    <col min="4623" max="4859" width="8.83203125" style="20"/>
+    <col min="4860" max="4860" width="1.5" style="20" customWidth="1"/>
     <col min="4861" max="4861" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4862" max="4862" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4863" max="4863" width="21.42578125" style="20" customWidth="1"/>
-    <col min="4864" max="4864" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="21.28515625" style="20" customWidth="1"/>
-    <col min="4866" max="4866" width="26.7109375" style="20" customWidth="1"/>
-    <col min="4867" max="4867" width="11.42578125" style="20" customWidth="1"/>
-    <col min="4868" max="4868" width="26.5703125" style="20" customWidth="1"/>
-    <col min="4869" max="4869" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4870" max="4870" width="13.42578125" style="20" customWidth="1"/>
-    <col min="4871" max="4871" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.5703125" style="20" customWidth="1"/>
-    <col min="4873" max="4873" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="36.28515625" style="20" customWidth="1"/>
-    <col min="4878" max="4878" width="11.7109375" style="20" customWidth="1"/>
-    <col min="4879" max="5115" width="9.140625" style="20"/>
-    <col min="5116" max="5116" width="1.42578125" style="20" customWidth="1"/>
+    <col min="4862" max="4862" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="21.5" style="20" customWidth="1"/>
+    <col min="4864" max="4864" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="21.33203125" style="20" customWidth="1"/>
+    <col min="4866" max="4866" width="26.6640625" style="20" customWidth="1"/>
+    <col min="4867" max="4867" width="11.5" style="20" customWidth="1"/>
+    <col min="4868" max="4868" width="26.5" style="20" customWidth="1"/>
+    <col min="4869" max="4869" width="10.5" style="20" customWidth="1"/>
+    <col min="4870" max="4870" width="13.5" style="20" customWidth="1"/>
+    <col min="4871" max="4871" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.5" style="20" customWidth="1"/>
+    <col min="4873" max="4873" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="36.33203125" style="20" customWidth="1"/>
+    <col min="4878" max="4878" width="11.6640625" style="20" customWidth="1"/>
+    <col min="4879" max="5115" width="8.83203125" style="20"/>
+    <col min="5116" max="5116" width="1.5" style="20" customWidth="1"/>
     <col min="5117" max="5117" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5118" max="5118" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5119" max="5119" width="21.42578125" style="20" customWidth="1"/>
-    <col min="5120" max="5120" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="21.28515625" style="20" customWidth="1"/>
-    <col min="5122" max="5122" width="26.7109375" style="20" customWidth="1"/>
-    <col min="5123" max="5123" width="11.42578125" style="20" customWidth="1"/>
-    <col min="5124" max="5124" width="26.5703125" style="20" customWidth="1"/>
-    <col min="5125" max="5125" width="10.5703125" style="20" customWidth="1"/>
-    <col min="5126" max="5126" width="13.42578125" style="20" customWidth="1"/>
-    <col min="5127" max="5127" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.5703125" style="20" customWidth="1"/>
-    <col min="5129" max="5129" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="36.28515625" style="20" customWidth="1"/>
-    <col min="5134" max="5134" width="11.7109375" style="20" customWidth="1"/>
-    <col min="5135" max="5371" width="9.140625" style="20"/>
-    <col min="5372" max="5372" width="1.42578125" style="20" customWidth="1"/>
+    <col min="5118" max="5118" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="21.5" style="20" customWidth="1"/>
+    <col min="5120" max="5120" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="21.33203125" style="20" customWidth="1"/>
+    <col min="5122" max="5122" width="26.6640625" style="20" customWidth="1"/>
+    <col min="5123" max="5123" width="11.5" style="20" customWidth="1"/>
+    <col min="5124" max="5124" width="26.5" style="20" customWidth="1"/>
+    <col min="5125" max="5125" width="10.5" style="20" customWidth="1"/>
+    <col min="5126" max="5126" width="13.5" style="20" customWidth="1"/>
+    <col min="5127" max="5127" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.5" style="20" customWidth="1"/>
+    <col min="5129" max="5129" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="36.33203125" style="20" customWidth="1"/>
+    <col min="5134" max="5134" width="11.6640625" style="20" customWidth="1"/>
+    <col min="5135" max="5371" width="8.83203125" style="20"/>
+    <col min="5372" max="5372" width="1.5" style="20" customWidth="1"/>
     <col min="5373" max="5373" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5374" max="5374" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5375" max="5375" width="21.42578125" style="20" customWidth="1"/>
-    <col min="5376" max="5376" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="21.28515625" style="20" customWidth="1"/>
-    <col min="5378" max="5378" width="26.7109375" style="20" customWidth="1"/>
-    <col min="5379" max="5379" width="11.42578125" style="20" customWidth="1"/>
-    <col min="5380" max="5380" width="26.5703125" style="20" customWidth="1"/>
-    <col min="5381" max="5381" width="10.5703125" style="20" customWidth="1"/>
-    <col min="5382" max="5382" width="13.42578125" style="20" customWidth="1"/>
-    <col min="5383" max="5383" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.5703125" style="20" customWidth="1"/>
-    <col min="5385" max="5385" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="36.28515625" style="20" customWidth="1"/>
-    <col min="5390" max="5390" width="11.7109375" style="20" customWidth="1"/>
-    <col min="5391" max="5627" width="9.140625" style="20"/>
-    <col min="5628" max="5628" width="1.42578125" style="20" customWidth="1"/>
+    <col min="5374" max="5374" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="21.5" style="20" customWidth="1"/>
+    <col min="5376" max="5376" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="21.33203125" style="20" customWidth="1"/>
+    <col min="5378" max="5378" width="26.6640625" style="20" customWidth="1"/>
+    <col min="5379" max="5379" width="11.5" style="20" customWidth="1"/>
+    <col min="5380" max="5380" width="26.5" style="20" customWidth="1"/>
+    <col min="5381" max="5381" width="10.5" style="20" customWidth="1"/>
+    <col min="5382" max="5382" width="13.5" style="20" customWidth="1"/>
+    <col min="5383" max="5383" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.5" style="20" customWidth="1"/>
+    <col min="5385" max="5385" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="36.33203125" style="20" customWidth="1"/>
+    <col min="5390" max="5390" width="11.6640625" style="20" customWidth="1"/>
+    <col min="5391" max="5627" width="8.83203125" style="20"/>
+    <col min="5628" max="5628" width="1.5" style="20" customWidth="1"/>
     <col min="5629" max="5629" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5630" max="5630" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5631" max="5631" width="21.42578125" style="20" customWidth="1"/>
-    <col min="5632" max="5632" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="21.28515625" style="20" customWidth="1"/>
-    <col min="5634" max="5634" width="26.7109375" style="20" customWidth="1"/>
-    <col min="5635" max="5635" width="11.42578125" style="20" customWidth="1"/>
-    <col min="5636" max="5636" width="26.5703125" style="20" customWidth="1"/>
-    <col min="5637" max="5637" width="10.5703125" style="20" customWidth="1"/>
-    <col min="5638" max="5638" width="13.42578125" style="20" customWidth="1"/>
-    <col min="5639" max="5639" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.5703125" style="20" customWidth="1"/>
-    <col min="5641" max="5641" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="36.28515625" style="20" customWidth="1"/>
-    <col min="5646" max="5646" width="11.7109375" style="20" customWidth="1"/>
-    <col min="5647" max="5883" width="9.140625" style="20"/>
-    <col min="5884" max="5884" width="1.42578125" style="20" customWidth="1"/>
+    <col min="5630" max="5630" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="21.5" style="20" customWidth="1"/>
+    <col min="5632" max="5632" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="21.33203125" style="20" customWidth="1"/>
+    <col min="5634" max="5634" width="26.6640625" style="20" customWidth="1"/>
+    <col min="5635" max="5635" width="11.5" style="20" customWidth="1"/>
+    <col min="5636" max="5636" width="26.5" style="20" customWidth="1"/>
+    <col min="5637" max="5637" width="10.5" style="20" customWidth="1"/>
+    <col min="5638" max="5638" width="13.5" style="20" customWidth="1"/>
+    <col min="5639" max="5639" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.5" style="20" customWidth="1"/>
+    <col min="5641" max="5641" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="36.33203125" style="20" customWidth="1"/>
+    <col min="5646" max="5646" width="11.6640625" style="20" customWidth="1"/>
+    <col min="5647" max="5883" width="8.83203125" style="20"/>
+    <col min="5884" max="5884" width="1.5" style="20" customWidth="1"/>
     <col min="5885" max="5885" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5886" max="5886" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5887" max="5887" width="21.42578125" style="20" customWidth="1"/>
-    <col min="5888" max="5888" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="21.28515625" style="20" customWidth="1"/>
-    <col min="5890" max="5890" width="26.7109375" style="20" customWidth="1"/>
-    <col min="5891" max="5891" width="11.42578125" style="20" customWidth="1"/>
-    <col min="5892" max="5892" width="26.5703125" style="20" customWidth="1"/>
-    <col min="5893" max="5893" width="10.5703125" style="20" customWidth="1"/>
-    <col min="5894" max="5894" width="13.42578125" style="20" customWidth="1"/>
-    <col min="5895" max="5895" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.5703125" style="20" customWidth="1"/>
-    <col min="5897" max="5897" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="36.28515625" style="20" customWidth="1"/>
-    <col min="5902" max="5902" width="11.7109375" style="20" customWidth="1"/>
-    <col min="5903" max="6139" width="9.140625" style="20"/>
-    <col min="6140" max="6140" width="1.42578125" style="20" customWidth="1"/>
+    <col min="5886" max="5886" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="21.5" style="20" customWidth="1"/>
+    <col min="5888" max="5888" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="21.33203125" style="20" customWidth="1"/>
+    <col min="5890" max="5890" width="26.6640625" style="20" customWidth="1"/>
+    <col min="5891" max="5891" width="11.5" style="20" customWidth="1"/>
+    <col min="5892" max="5892" width="26.5" style="20" customWidth="1"/>
+    <col min="5893" max="5893" width="10.5" style="20" customWidth="1"/>
+    <col min="5894" max="5894" width="13.5" style="20" customWidth="1"/>
+    <col min="5895" max="5895" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.5" style="20" customWidth="1"/>
+    <col min="5897" max="5897" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="36.33203125" style="20" customWidth="1"/>
+    <col min="5902" max="5902" width="11.6640625" style="20" customWidth="1"/>
+    <col min="5903" max="6139" width="8.83203125" style="20"/>
+    <col min="6140" max="6140" width="1.5" style="20" customWidth="1"/>
     <col min="6141" max="6141" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6142" max="6142" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6143" max="6143" width="21.42578125" style="20" customWidth="1"/>
-    <col min="6144" max="6144" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="21.28515625" style="20" customWidth="1"/>
-    <col min="6146" max="6146" width="26.7109375" style="20" customWidth="1"/>
-    <col min="6147" max="6147" width="11.42578125" style="20" customWidth="1"/>
-    <col min="6148" max="6148" width="26.5703125" style="20" customWidth="1"/>
-    <col min="6149" max="6149" width="10.5703125" style="20" customWidth="1"/>
-    <col min="6150" max="6150" width="13.42578125" style="20" customWidth="1"/>
-    <col min="6151" max="6151" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.5703125" style="20" customWidth="1"/>
-    <col min="6153" max="6153" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="36.28515625" style="20" customWidth="1"/>
-    <col min="6158" max="6158" width="11.7109375" style="20" customWidth="1"/>
-    <col min="6159" max="6395" width="9.140625" style="20"/>
-    <col min="6396" max="6396" width="1.42578125" style="20" customWidth="1"/>
+    <col min="6142" max="6142" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="21.5" style="20" customWidth="1"/>
+    <col min="6144" max="6144" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="21.33203125" style="20" customWidth="1"/>
+    <col min="6146" max="6146" width="26.6640625" style="20" customWidth="1"/>
+    <col min="6147" max="6147" width="11.5" style="20" customWidth="1"/>
+    <col min="6148" max="6148" width="26.5" style="20" customWidth="1"/>
+    <col min="6149" max="6149" width="10.5" style="20" customWidth="1"/>
+    <col min="6150" max="6150" width="13.5" style="20" customWidth="1"/>
+    <col min="6151" max="6151" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.5" style="20" customWidth="1"/>
+    <col min="6153" max="6153" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="36.33203125" style="20" customWidth="1"/>
+    <col min="6158" max="6158" width="11.6640625" style="20" customWidth="1"/>
+    <col min="6159" max="6395" width="8.83203125" style="20"/>
+    <col min="6396" max="6396" width="1.5" style="20" customWidth="1"/>
     <col min="6397" max="6397" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6398" max="6398" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6399" max="6399" width="21.42578125" style="20" customWidth="1"/>
-    <col min="6400" max="6400" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="21.28515625" style="20" customWidth="1"/>
-    <col min="6402" max="6402" width="26.7109375" style="20" customWidth="1"/>
-    <col min="6403" max="6403" width="11.42578125" style="20" customWidth="1"/>
-    <col min="6404" max="6404" width="26.5703125" style="20" customWidth="1"/>
-    <col min="6405" max="6405" width="10.5703125" style="20" customWidth="1"/>
-    <col min="6406" max="6406" width="13.42578125" style="20" customWidth="1"/>
-    <col min="6407" max="6407" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.5703125" style="20" customWidth="1"/>
-    <col min="6409" max="6409" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="36.28515625" style="20" customWidth="1"/>
-    <col min="6414" max="6414" width="11.7109375" style="20" customWidth="1"/>
-    <col min="6415" max="6651" width="9.140625" style="20"/>
-    <col min="6652" max="6652" width="1.42578125" style="20" customWidth="1"/>
+    <col min="6398" max="6398" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="21.5" style="20" customWidth="1"/>
+    <col min="6400" max="6400" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="21.33203125" style="20" customWidth="1"/>
+    <col min="6402" max="6402" width="26.6640625" style="20" customWidth="1"/>
+    <col min="6403" max="6403" width="11.5" style="20" customWidth="1"/>
+    <col min="6404" max="6404" width="26.5" style="20" customWidth="1"/>
+    <col min="6405" max="6405" width="10.5" style="20" customWidth="1"/>
+    <col min="6406" max="6406" width="13.5" style="20" customWidth="1"/>
+    <col min="6407" max="6407" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.5" style="20" customWidth="1"/>
+    <col min="6409" max="6409" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="36.33203125" style="20" customWidth="1"/>
+    <col min="6414" max="6414" width="11.6640625" style="20" customWidth="1"/>
+    <col min="6415" max="6651" width="8.83203125" style="20"/>
+    <col min="6652" max="6652" width="1.5" style="20" customWidth="1"/>
     <col min="6653" max="6653" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6654" max="6654" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6655" max="6655" width="21.42578125" style="20" customWidth="1"/>
-    <col min="6656" max="6656" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="21.28515625" style="20" customWidth="1"/>
-    <col min="6658" max="6658" width="26.7109375" style="20" customWidth="1"/>
-    <col min="6659" max="6659" width="11.42578125" style="20" customWidth="1"/>
-    <col min="6660" max="6660" width="26.5703125" style="20" customWidth="1"/>
-    <col min="6661" max="6661" width="10.5703125" style="20" customWidth="1"/>
-    <col min="6662" max="6662" width="13.42578125" style="20" customWidth="1"/>
-    <col min="6663" max="6663" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.5703125" style="20" customWidth="1"/>
-    <col min="6665" max="6665" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="36.28515625" style="20" customWidth="1"/>
-    <col min="6670" max="6670" width="11.7109375" style="20" customWidth="1"/>
-    <col min="6671" max="6907" width="9.140625" style="20"/>
-    <col min="6908" max="6908" width="1.42578125" style="20" customWidth="1"/>
+    <col min="6654" max="6654" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="21.5" style="20" customWidth="1"/>
+    <col min="6656" max="6656" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="21.33203125" style="20" customWidth="1"/>
+    <col min="6658" max="6658" width="26.6640625" style="20" customWidth="1"/>
+    <col min="6659" max="6659" width="11.5" style="20" customWidth="1"/>
+    <col min="6660" max="6660" width="26.5" style="20" customWidth="1"/>
+    <col min="6661" max="6661" width="10.5" style="20" customWidth="1"/>
+    <col min="6662" max="6662" width="13.5" style="20" customWidth="1"/>
+    <col min="6663" max="6663" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.5" style="20" customWidth="1"/>
+    <col min="6665" max="6665" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="36.33203125" style="20" customWidth="1"/>
+    <col min="6670" max="6670" width="11.6640625" style="20" customWidth="1"/>
+    <col min="6671" max="6907" width="8.83203125" style="20"/>
+    <col min="6908" max="6908" width="1.5" style="20" customWidth="1"/>
     <col min="6909" max="6909" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6910" max="6910" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6911" max="6911" width="21.42578125" style="20" customWidth="1"/>
-    <col min="6912" max="6912" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="21.28515625" style="20" customWidth="1"/>
-    <col min="6914" max="6914" width="26.7109375" style="20" customWidth="1"/>
-    <col min="6915" max="6915" width="11.42578125" style="20" customWidth="1"/>
-    <col min="6916" max="6916" width="26.5703125" style="20" customWidth="1"/>
-    <col min="6917" max="6917" width="10.5703125" style="20" customWidth="1"/>
-    <col min="6918" max="6918" width="13.42578125" style="20" customWidth="1"/>
-    <col min="6919" max="6919" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.5703125" style="20" customWidth="1"/>
-    <col min="6921" max="6921" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="36.28515625" style="20" customWidth="1"/>
-    <col min="6926" max="6926" width="11.7109375" style="20" customWidth="1"/>
-    <col min="6927" max="7163" width="9.140625" style="20"/>
-    <col min="7164" max="7164" width="1.42578125" style="20" customWidth="1"/>
+    <col min="6910" max="6910" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="21.5" style="20" customWidth="1"/>
+    <col min="6912" max="6912" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="21.33203125" style="20" customWidth="1"/>
+    <col min="6914" max="6914" width="26.6640625" style="20" customWidth="1"/>
+    <col min="6915" max="6915" width="11.5" style="20" customWidth="1"/>
+    <col min="6916" max="6916" width="26.5" style="20" customWidth="1"/>
+    <col min="6917" max="6917" width="10.5" style="20" customWidth="1"/>
+    <col min="6918" max="6918" width="13.5" style="20" customWidth="1"/>
+    <col min="6919" max="6919" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.5" style="20" customWidth="1"/>
+    <col min="6921" max="6921" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="36.33203125" style="20" customWidth="1"/>
+    <col min="6926" max="6926" width="11.6640625" style="20" customWidth="1"/>
+    <col min="6927" max="7163" width="8.83203125" style="20"/>
+    <col min="7164" max="7164" width="1.5" style="20" customWidth="1"/>
     <col min="7165" max="7165" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7166" max="7166" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7167" max="7167" width="21.42578125" style="20" customWidth="1"/>
-    <col min="7168" max="7168" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="21.28515625" style="20" customWidth="1"/>
-    <col min="7170" max="7170" width="26.7109375" style="20" customWidth="1"/>
-    <col min="7171" max="7171" width="11.42578125" style="20" customWidth="1"/>
-    <col min="7172" max="7172" width="26.5703125" style="20" customWidth="1"/>
-    <col min="7173" max="7173" width="10.5703125" style="20" customWidth="1"/>
-    <col min="7174" max="7174" width="13.42578125" style="20" customWidth="1"/>
-    <col min="7175" max="7175" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.5703125" style="20" customWidth="1"/>
-    <col min="7177" max="7177" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="36.28515625" style="20" customWidth="1"/>
-    <col min="7182" max="7182" width="11.7109375" style="20" customWidth="1"/>
-    <col min="7183" max="7419" width="9.140625" style="20"/>
-    <col min="7420" max="7420" width="1.42578125" style="20" customWidth="1"/>
+    <col min="7166" max="7166" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="21.5" style="20" customWidth="1"/>
+    <col min="7168" max="7168" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="21.33203125" style="20" customWidth="1"/>
+    <col min="7170" max="7170" width="26.6640625" style="20" customWidth="1"/>
+    <col min="7171" max="7171" width="11.5" style="20" customWidth="1"/>
+    <col min="7172" max="7172" width="26.5" style="20" customWidth="1"/>
+    <col min="7173" max="7173" width="10.5" style="20" customWidth="1"/>
+    <col min="7174" max="7174" width="13.5" style="20" customWidth="1"/>
+    <col min="7175" max="7175" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.5" style="20" customWidth="1"/>
+    <col min="7177" max="7177" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="36.33203125" style="20" customWidth="1"/>
+    <col min="7182" max="7182" width="11.6640625" style="20" customWidth="1"/>
+    <col min="7183" max="7419" width="8.83203125" style="20"/>
+    <col min="7420" max="7420" width="1.5" style="20" customWidth="1"/>
     <col min="7421" max="7421" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7422" max="7422" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7423" max="7423" width="21.42578125" style="20" customWidth="1"/>
-    <col min="7424" max="7424" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="21.28515625" style="20" customWidth="1"/>
-    <col min="7426" max="7426" width="26.7109375" style="20" customWidth="1"/>
-    <col min="7427" max="7427" width="11.42578125" style="20" customWidth="1"/>
-    <col min="7428" max="7428" width="26.5703125" style="20" customWidth="1"/>
-    <col min="7429" max="7429" width="10.5703125" style="20" customWidth="1"/>
-    <col min="7430" max="7430" width="13.42578125" style="20" customWidth="1"/>
-    <col min="7431" max="7431" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.5703125" style="20" customWidth="1"/>
-    <col min="7433" max="7433" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="36.28515625" style="20" customWidth="1"/>
-    <col min="7438" max="7438" width="11.7109375" style="20" customWidth="1"/>
-    <col min="7439" max="7675" width="9.140625" style="20"/>
-    <col min="7676" max="7676" width="1.42578125" style="20" customWidth="1"/>
+    <col min="7422" max="7422" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="21.5" style="20" customWidth="1"/>
+    <col min="7424" max="7424" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="21.33203125" style="20" customWidth="1"/>
+    <col min="7426" max="7426" width="26.6640625" style="20" customWidth="1"/>
+    <col min="7427" max="7427" width="11.5" style="20" customWidth="1"/>
+    <col min="7428" max="7428" width="26.5" style="20" customWidth="1"/>
+    <col min="7429" max="7429" width="10.5" style="20" customWidth="1"/>
+    <col min="7430" max="7430" width="13.5" style="20" customWidth="1"/>
+    <col min="7431" max="7431" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.5" style="20" customWidth="1"/>
+    <col min="7433" max="7433" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="36.33203125" style="20" customWidth="1"/>
+    <col min="7438" max="7438" width="11.6640625" style="20" customWidth="1"/>
+    <col min="7439" max="7675" width="8.83203125" style="20"/>
+    <col min="7676" max="7676" width="1.5" style="20" customWidth="1"/>
     <col min="7677" max="7677" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7678" max="7678" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7679" max="7679" width="21.42578125" style="20" customWidth="1"/>
-    <col min="7680" max="7680" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="21.28515625" style="20" customWidth="1"/>
-    <col min="7682" max="7682" width="26.7109375" style="20" customWidth="1"/>
-    <col min="7683" max="7683" width="11.42578125" style="20" customWidth="1"/>
-    <col min="7684" max="7684" width="26.5703125" style="20" customWidth="1"/>
-    <col min="7685" max="7685" width="10.5703125" style="20" customWidth="1"/>
-    <col min="7686" max="7686" width="13.42578125" style="20" customWidth="1"/>
-    <col min="7687" max="7687" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.5703125" style="20" customWidth="1"/>
-    <col min="7689" max="7689" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="36.28515625" style="20" customWidth="1"/>
-    <col min="7694" max="7694" width="11.7109375" style="20" customWidth="1"/>
-    <col min="7695" max="7931" width="9.140625" style="20"/>
-    <col min="7932" max="7932" width="1.42578125" style="20" customWidth="1"/>
+    <col min="7678" max="7678" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="21.5" style="20" customWidth="1"/>
+    <col min="7680" max="7680" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="21.33203125" style="20" customWidth="1"/>
+    <col min="7682" max="7682" width="26.6640625" style="20" customWidth="1"/>
+    <col min="7683" max="7683" width="11.5" style="20" customWidth="1"/>
+    <col min="7684" max="7684" width="26.5" style="20" customWidth="1"/>
+    <col min="7685" max="7685" width="10.5" style="20" customWidth="1"/>
+    <col min="7686" max="7686" width="13.5" style="20" customWidth="1"/>
+    <col min="7687" max="7687" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.5" style="20" customWidth="1"/>
+    <col min="7689" max="7689" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="36.33203125" style="20" customWidth="1"/>
+    <col min="7694" max="7694" width="11.6640625" style="20" customWidth="1"/>
+    <col min="7695" max="7931" width="8.83203125" style="20"/>
+    <col min="7932" max="7932" width="1.5" style="20" customWidth="1"/>
     <col min="7933" max="7933" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7934" max="7934" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7935" max="7935" width="21.42578125" style="20" customWidth="1"/>
-    <col min="7936" max="7936" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="21.28515625" style="20" customWidth="1"/>
-    <col min="7938" max="7938" width="26.7109375" style="20" customWidth="1"/>
-    <col min="7939" max="7939" width="11.42578125" style="20" customWidth="1"/>
-    <col min="7940" max="7940" width="26.5703125" style="20" customWidth="1"/>
-    <col min="7941" max="7941" width="10.5703125" style="20" customWidth="1"/>
-    <col min="7942" max="7942" width="13.42578125" style="20" customWidth="1"/>
-    <col min="7943" max="7943" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.5703125" style="20" customWidth="1"/>
-    <col min="7945" max="7945" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="36.28515625" style="20" customWidth="1"/>
-    <col min="7950" max="7950" width="11.7109375" style="20" customWidth="1"/>
-    <col min="7951" max="8187" width="9.140625" style="20"/>
-    <col min="8188" max="8188" width="1.42578125" style="20" customWidth="1"/>
+    <col min="7934" max="7934" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="21.5" style="20" customWidth="1"/>
+    <col min="7936" max="7936" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="21.33203125" style="20" customWidth="1"/>
+    <col min="7938" max="7938" width="26.6640625" style="20" customWidth="1"/>
+    <col min="7939" max="7939" width="11.5" style="20" customWidth="1"/>
+    <col min="7940" max="7940" width="26.5" style="20" customWidth="1"/>
+    <col min="7941" max="7941" width="10.5" style="20" customWidth="1"/>
+    <col min="7942" max="7942" width="13.5" style="20" customWidth="1"/>
+    <col min="7943" max="7943" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.5" style="20" customWidth="1"/>
+    <col min="7945" max="7945" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="36.33203125" style="20" customWidth="1"/>
+    <col min="7950" max="7950" width="11.6640625" style="20" customWidth="1"/>
+    <col min="7951" max="8187" width="8.83203125" style="20"/>
+    <col min="8188" max="8188" width="1.5" style="20" customWidth="1"/>
     <col min="8189" max="8189" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8190" max="8190" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8191" max="8191" width="21.42578125" style="20" customWidth="1"/>
-    <col min="8192" max="8192" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="21.28515625" style="20" customWidth="1"/>
-    <col min="8194" max="8194" width="26.7109375" style="20" customWidth="1"/>
-    <col min="8195" max="8195" width="11.42578125" style="20" customWidth="1"/>
-    <col min="8196" max="8196" width="26.5703125" style="20" customWidth="1"/>
-    <col min="8197" max="8197" width="10.5703125" style="20" customWidth="1"/>
-    <col min="8198" max="8198" width="13.42578125" style="20" customWidth="1"/>
-    <col min="8199" max="8199" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.5703125" style="20" customWidth="1"/>
-    <col min="8201" max="8201" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="36.28515625" style="20" customWidth="1"/>
-    <col min="8206" max="8206" width="11.7109375" style="20" customWidth="1"/>
-    <col min="8207" max="8443" width="9.140625" style="20"/>
-    <col min="8444" max="8444" width="1.42578125" style="20" customWidth="1"/>
+    <col min="8190" max="8190" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="21.5" style="20" customWidth="1"/>
+    <col min="8192" max="8192" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="21.33203125" style="20" customWidth="1"/>
+    <col min="8194" max="8194" width="26.6640625" style="20" customWidth="1"/>
+    <col min="8195" max="8195" width="11.5" style="20" customWidth="1"/>
+    <col min="8196" max="8196" width="26.5" style="20" customWidth="1"/>
+    <col min="8197" max="8197" width="10.5" style="20" customWidth="1"/>
+    <col min="8198" max="8198" width="13.5" style="20" customWidth="1"/>
+    <col min="8199" max="8199" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.5" style="20" customWidth="1"/>
+    <col min="8201" max="8201" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="36.33203125" style="20" customWidth="1"/>
+    <col min="8206" max="8206" width="11.6640625" style="20" customWidth="1"/>
+    <col min="8207" max="8443" width="8.83203125" style="20"/>
+    <col min="8444" max="8444" width="1.5" style="20" customWidth="1"/>
     <col min="8445" max="8445" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8446" max="8446" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8447" max="8447" width="21.42578125" style="20" customWidth="1"/>
-    <col min="8448" max="8448" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="21.28515625" style="20" customWidth="1"/>
-    <col min="8450" max="8450" width="26.7109375" style="20" customWidth="1"/>
-    <col min="8451" max="8451" width="11.42578125" style="20" customWidth="1"/>
-    <col min="8452" max="8452" width="26.5703125" style="20" customWidth="1"/>
-    <col min="8453" max="8453" width="10.5703125" style="20" customWidth="1"/>
-    <col min="8454" max="8454" width="13.42578125" style="20" customWidth="1"/>
-    <col min="8455" max="8455" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.5703125" style="20" customWidth="1"/>
-    <col min="8457" max="8457" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="36.28515625" style="20" customWidth="1"/>
-    <col min="8462" max="8462" width="11.7109375" style="20" customWidth="1"/>
-    <col min="8463" max="8699" width="9.140625" style="20"/>
-    <col min="8700" max="8700" width="1.42578125" style="20" customWidth="1"/>
+    <col min="8446" max="8446" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="21.5" style="20" customWidth="1"/>
+    <col min="8448" max="8448" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="21.33203125" style="20" customWidth="1"/>
+    <col min="8450" max="8450" width="26.6640625" style="20" customWidth="1"/>
+    <col min="8451" max="8451" width="11.5" style="20" customWidth="1"/>
+    <col min="8452" max="8452" width="26.5" style="20" customWidth="1"/>
+    <col min="8453" max="8453" width="10.5" style="20" customWidth="1"/>
+    <col min="8454" max="8454" width="13.5" style="20" customWidth="1"/>
+    <col min="8455" max="8455" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.5" style="20" customWidth="1"/>
+    <col min="8457" max="8457" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="36.33203125" style="20" customWidth="1"/>
+    <col min="8462" max="8462" width="11.6640625" style="20" customWidth="1"/>
+    <col min="8463" max="8699" width="8.83203125" style="20"/>
+    <col min="8700" max="8700" width="1.5" style="20" customWidth="1"/>
     <col min="8701" max="8701" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8702" max="8702" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8703" max="8703" width="21.42578125" style="20" customWidth="1"/>
-    <col min="8704" max="8704" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="21.28515625" style="20" customWidth="1"/>
-    <col min="8706" max="8706" width="26.7109375" style="20" customWidth="1"/>
-    <col min="8707" max="8707" width="11.42578125" style="20" customWidth="1"/>
-    <col min="8708" max="8708" width="26.5703125" style="20" customWidth="1"/>
-    <col min="8709" max="8709" width="10.5703125" style="20" customWidth="1"/>
-    <col min="8710" max="8710" width="13.42578125" style="20" customWidth="1"/>
-    <col min="8711" max="8711" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.5703125" style="20" customWidth="1"/>
-    <col min="8713" max="8713" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="36.28515625" style="20" customWidth="1"/>
-    <col min="8718" max="8718" width="11.7109375" style="20" customWidth="1"/>
-    <col min="8719" max="8955" width="9.140625" style="20"/>
-    <col min="8956" max="8956" width="1.42578125" style="20" customWidth="1"/>
+    <col min="8702" max="8702" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="21.5" style="20" customWidth="1"/>
+    <col min="8704" max="8704" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="21.33203125" style="20" customWidth="1"/>
+    <col min="8706" max="8706" width="26.6640625" style="20" customWidth="1"/>
+    <col min="8707" max="8707" width="11.5" style="20" customWidth="1"/>
+    <col min="8708" max="8708" width="26.5" style="20" customWidth="1"/>
+    <col min="8709" max="8709" width="10.5" style="20" customWidth="1"/>
+    <col min="8710" max="8710" width="13.5" style="20" customWidth="1"/>
+    <col min="8711" max="8711" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.5" style="20" customWidth="1"/>
+    <col min="8713" max="8713" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="36.33203125" style="20" customWidth="1"/>
+    <col min="8718" max="8718" width="11.6640625" style="20" customWidth="1"/>
+    <col min="8719" max="8955" width="8.83203125" style="20"/>
+    <col min="8956" max="8956" width="1.5" style="20" customWidth="1"/>
     <col min="8957" max="8957" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8958" max="8958" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8959" max="8959" width="21.42578125" style="20" customWidth="1"/>
-    <col min="8960" max="8960" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="21.28515625" style="20" customWidth="1"/>
-    <col min="8962" max="8962" width="26.7109375" style="20" customWidth="1"/>
-    <col min="8963" max="8963" width="11.42578125" style="20" customWidth="1"/>
-    <col min="8964" max="8964" width="26.5703125" style="20" customWidth="1"/>
-    <col min="8965" max="8965" width="10.5703125" style="20" customWidth="1"/>
-    <col min="8966" max="8966" width="13.42578125" style="20" customWidth="1"/>
-    <col min="8967" max="8967" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.5703125" style="20" customWidth="1"/>
-    <col min="8969" max="8969" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="36.28515625" style="20" customWidth="1"/>
-    <col min="8974" max="8974" width="11.7109375" style="20" customWidth="1"/>
-    <col min="8975" max="9211" width="9.140625" style="20"/>
-    <col min="9212" max="9212" width="1.42578125" style="20" customWidth="1"/>
+    <col min="8958" max="8958" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="21.5" style="20" customWidth="1"/>
+    <col min="8960" max="8960" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="21.33203125" style="20" customWidth="1"/>
+    <col min="8962" max="8962" width="26.6640625" style="20" customWidth="1"/>
+    <col min="8963" max="8963" width="11.5" style="20" customWidth="1"/>
+    <col min="8964" max="8964" width="26.5" style="20" customWidth="1"/>
+    <col min="8965" max="8965" width="10.5" style="20" customWidth="1"/>
+    <col min="8966" max="8966" width="13.5" style="20" customWidth="1"/>
+    <col min="8967" max="8967" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.5" style="20" customWidth="1"/>
+    <col min="8969" max="8969" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="36.33203125" style="20" customWidth="1"/>
+    <col min="8974" max="8974" width="11.6640625" style="20" customWidth="1"/>
+    <col min="8975" max="9211" width="8.83203125" style="20"/>
+    <col min="9212" max="9212" width="1.5" style="20" customWidth="1"/>
     <col min="9213" max="9213" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9214" max="9214" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9215" max="9215" width="21.42578125" style="20" customWidth="1"/>
-    <col min="9216" max="9216" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9218" max="9218" width="26.7109375" style="20" customWidth="1"/>
-    <col min="9219" max="9219" width="11.42578125" style="20" customWidth="1"/>
-    <col min="9220" max="9220" width="26.5703125" style="20" customWidth="1"/>
-    <col min="9221" max="9221" width="10.5703125" style="20" customWidth="1"/>
-    <col min="9222" max="9222" width="13.42578125" style="20" customWidth="1"/>
-    <col min="9223" max="9223" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.5703125" style="20" customWidth="1"/>
-    <col min="9225" max="9225" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="36.28515625" style="20" customWidth="1"/>
-    <col min="9230" max="9230" width="11.7109375" style="20" customWidth="1"/>
-    <col min="9231" max="9467" width="9.140625" style="20"/>
-    <col min="9468" max="9468" width="1.42578125" style="20" customWidth="1"/>
+    <col min="9214" max="9214" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="21.5" style="20" customWidth="1"/>
+    <col min="9216" max="9216" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9218" max="9218" width="26.6640625" style="20" customWidth="1"/>
+    <col min="9219" max="9219" width="11.5" style="20" customWidth="1"/>
+    <col min="9220" max="9220" width="26.5" style="20" customWidth="1"/>
+    <col min="9221" max="9221" width="10.5" style="20" customWidth="1"/>
+    <col min="9222" max="9222" width="13.5" style="20" customWidth="1"/>
+    <col min="9223" max="9223" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.5" style="20" customWidth="1"/>
+    <col min="9225" max="9225" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="36.33203125" style="20" customWidth="1"/>
+    <col min="9230" max="9230" width="11.6640625" style="20" customWidth="1"/>
+    <col min="9231" max="9467" width="8.83203125" style="20"/>
+    <col min="9468" max="9468" width="1.5" style="20" customWidth="1"/>
     <col min="9469" max="9469" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9470" max="9470" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9471" max="9471" width="21.42578125" style="20" customWidth="1"/>
-    <col min="9472" max="9472" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9474" max="9474" width="26.7109375" style="20" customWidth="1"/>
-    <col min="9475" max="9475" width="11.42578125" style="20" customWidth="1"/>
-    <col min="9476" max="9476" width="26.5703125" style="20" customWidth="1"/>
-    <col min="9477" max="9477" width="10.5703125" style="20" customWidth="1"/>
-    <col min="9478" max="9478" width="13.42578125" style="20" customWidth="1"/>
-    <col min="9479" max="9479" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.5703125" style="20" customWidth="1"/>
-    <col min="9481" max="9481" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="36.28515625" style="20" customWidth="1"/>
-    <col min="9486" max="9486" width="11.7109375" style="20" customWidth="1"/>
-    <col min="9487" max="9723" width="9.140625" style="20"/>
-    <col min="9724" max="9724" width="1.42578125" style="20" customWidth="1"/>
+    <col min="9470" max="9470" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="21.5" style="20" customWidth="1"/>
+    <col min="9472" max="9472" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9474" max="9474" width="26.6640625" style="20" customWidth="1"/>
+    <col min="9475" max="9475" width="11.5" style="20" customWidth="1"/>
+    <col min="9476" max="9476" width="26.5" style="20" customWidth="1"/>
+    <col min="9477" max="9477" width="10.5" style="20" customWidth="1"/>
+    <col min="9478" max="9478" width="13.5" style="20" customWidth="1"/>
+    <col min="9479" max="9479" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.5" style="20" customWidth="1"/>
+    <col min="9481" max="9481" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="36.33203125" style="20" customWidth="1"/>
+    <col min="9486" max="9486" width="11.6640625" style="20" customWidth="1"/>
+    <col min="9487" max="9723" width="8.83203125" style="20"/>
+    <col min="9724" max="9724" width="1.5" style="20" customWidth="1"/>
     <col min="9725" max="9725" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9726" max="9726" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9727" max="9727" width="21.42578125" style="20" customWidth="1"/>
-    <col min="9728" max="9728" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9730" max="9730" width="26.7109375" style="20" customWidth="1"/>
-    <col min="9731" max="9731" width="11.42578125" style="20" customWidth="1"/>
-    <col min="9732" max="9732" width="26.5703125" style="20" customWidth="1"/>
-    <col min="9733" max="9733" width="10.5703125" style="20" customWidth="1"/>
-    <col min="9734" max="9734" width="13.42578125" style="20" customWidth="1"/>
-    <col min="9735" max="9735" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.5703125" style="20" customWidth="1"/>
-    <col min="9737" max="9737" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="36.28515625" style="20" customWidth="1"/>
-    <col min="9742" max="9742" width="11.7109375" style="20" customWidth="1"/>
-    <col min="9743" max="9979" width="9.140625" style="20"/>
-    <col min="9980" max="9980" width="1.42578125" style="20" customWidth="1"/>
+    <col min="9726" max="9726" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="21.5" style="20" customWidth="1"/>
+    <col min="9728" max="9728" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9730" max="9730" width="26.6640625" style="20" customWidth="1"/>
+    <col min="9731" max="9731" width="11.5" style="20" customWidth="1"/>
+    <col min="9732" max="9732" width="26.5" style="20" customWidth="1"/>
+    <col min="9733" max="9733" width="10.5" style="20" customWidth="1"/>
+    <col min="9734" max="9734" width="13.5" style="20" customWidth="1"/>
+    <col min="9735" max="9735" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.5" style="20" customWidth="1"/>
+    <col min="9737" max="9737" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="36.33203125" style="20" customWidth="1"/>
+    <col min="9742" max="9742" width="11.6640625" style="20" customWidth="1"/>
+    <col min="9743" max="9979" width="8.83203125" style="20"/>
+    <col min="9980" max="9980" width="1.5" style="20" customWidth="1"/>
     <col min="9981" max="9981" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9982" max="9982" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9983" max="9983" width="21.42578125" style="20" customWidth="1"/>
-    <col min="9984" max="9984" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="21.28515625" style="20" customWidth="1"/>
-    <col min="9986" max="9986" width="26.7109375" style="20" customWidth="1"/>
-    <col min="9987" max="9987" width="11.42578125" style="20" customWidth="1"/>
-    <col min="9988" max="9988" width="26.5703125" style="20" customWidth="1"/>
-    <col min="9989" max="9989" width="10.5703125" style="20" customWidth="1"/>
-    <col min="9990" max="9990" width="13.42578125" style="20" customWidth="1"/>
-    <col min="9991" max="9991" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.5703125" style="20" customWidth="1"/>
-    <col min="9993" max="9993" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="36.28515625" style="20" customWidth="1"/>
-    <col min="9998" max="9998" width="11.7109375" style="20" customWidth="1"/>
-    <col min="9999" max="10235" width="9.140625" style="20"/>
-    <col min="10236" max="10236" width="1.42578125" style="20" customWidth="1"/>
+    <col min="9982" max="9982" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="21.5" style="20" customWidth="1"/>
+    <col min="9984" max="9984" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="21.33203125" style="20" customWidth="1"/>
+    <col min="9986" max="9986" width="26.6640625" style="20" customWidth="1"/>
+    <col min="9987" max="9987" width="11.5" style="20" customWidth="1"/>
+    <col min="9988" max="9988" width="26.5" style="20" customWidth="1"/>
+    <col min="9989" max="9989" width="10.5" style="20" customWidth="1"/>
+    <col min="9990" max="9990" width="13.5" style="20" customWidth="1"/>
+    <col min="9991" max="9991" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.5" style="20" customWidth="1"/>
+    <col min="9993" max="9993" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="36.33203125" style="20" customWidth="1"/>
+    <col min="9998" max="9998" width="11.6640625" style="20" customWidth="1"/>
+    <col min="9999" max="10235" width="8.83203125" style="20"/>
+    <col min="10236" max="10236" width="1.5" style="20" customWidth="1"/>
     <col min="10237" max="10237" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="10238" max="10238" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10239" max="10239" width="21.42578125" style="20" customWidth="1"/>
-    <col min="10240" max="10240" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="21.28515625" style="20" customWidth="1"/>
-    <col min="10242" max="10242" width="26.7109375" style="20" customWidth="1"/>
-    <col min="10243" max="10243" width="11.42578125" style="20" customWidth="1"/>
-    <col min="10244" max="10244" width="26.5703125" style="20" customWidth="1"/>
-    <col min="10245" max="10245" width="10.5703125" style="20" customWidth="1"/>
-    <col min="10246" max="10246" width="13.42578125" style="20" customWidth="1"/>
-    <col min="10247" max="10247" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.5703125" style="20" customWidth="1"/>
-    <col min="10249" max="10249" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="36.28515625" style="20" customWidth="1"/>
-    <col min="10254" max="10254" width="11.7109375" style="20" customWidth="1"/>
-    <col min="10255" max="10491" width="9.140625" style="20"/>
-    <col min="10492" max="10492" width="1.42578125" style="20" customWidth="1"/>
+    <col min="10238" max="10238" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="21.5" style="20" customWidth="1"/>
+    <col min="10240" max="10240" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="21.33203125" style="20" customWidth="1"/>
+    <col min="10242" max="10242" width="26.6640625" style="20" customWidth="1"/>
+    <col min="10243" max="10243" width="11.5" style="20" customWidth="1"/>
+    <col min="10244" max="10244" width="26.5" style="20" customWidth="1"/>
+    <col min="10245" max="10245" width="10.5" style="20" customWidth="1"/>
+    <col min="10246" max="10246" width="13.5" style="20" customWidth="1"/>
+    <col min="10247" max="10247" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.5" style="20" customWidth="1"/>
+    <col min="10249" max="10249" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="36.33203125" style="20" customWidth="1"/>
+    <col min="10254" max="10254" width="11.6640625" style="20" customWidth="1"/>
+    <col min="10255" max="10491" width="8.83203125" style="20"/>
+    <col min="10492" max="10492" width="1.5" style="20" customWidth="1"/>
     <col min="10493" max="10493" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="10494" max="10494" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10495" max="10495" width="21.42578125" style="20" customWidth="1"/>
-    <col min="10496" max="10496" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="21.28515625" style="20" customWidth="1"/>
-    <col min="10498" max="10498" width="26.7109375" style="20" customWidth="1"/>
-    <col min="10499" max="10499" width="11.42578125" style="20" customWidth="1"/>
-    <col min="10500" max="10500" width="26.5703125" style="20" customWidth="1"/>
-    <col min="10501" max="10501" width="10.5703125" style="20" customWidth="1"/>
-    <col min="10502" max="10502" width="13.42578125" style="20" customWidth="1"/>
-    <col min="10503" max="10503" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.5703125" style="20" customWidth="1"/>
-    <col min="10505" max="10505" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="36.28515625" style="20" customWidth="1"/>
-    <col min="10510" max="10510" width="11.7109375" style="20" customWidth="1"/>
-    <col min="10511" max="10747" width="9.140625" style="20"/>
-    <col min="10748" max="10748" width="1.42578125" style="20" customWidth="1"/>
+    <col min="10494" max="10494" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="21.5" style="20" customWidth="1"/>
+    <col min="10496" max="10496" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="21.33203125" style="20" customWidth="1"/>
+    <col min="10498" max="10498" width="26.6640625" style="20" customWidth="1"/>
+    <col min="10499" max="10499" width="11.5" style="20" customWidth="1"/>
+    <col min="10500" max="10500" width="26.5" style="20" customWidth="1"/>
+    <col min="10501" max="10501" width="10.5" style="20" customWidth="1"/>
+    <col min="10502" max="10502" width="13.5" style="20" customWidth="1"/>
+    <col min="10503" max="10503" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.5" style="20" customWidth="1"/>
+    <col min="10505" max="10505" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="36.33203125" style="20" customWidth="1"/>
+    <col min="10510" max="10510" width="11.6640625" style="20" customWidth="1"/>
+    <col min="10511" max="10747" width="8.83203125" style="20"/>
+    <col min="10748" max="10748" width="1.5" style="20" customWidth="1"/>
     <col min="10749" max="10749" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="10750" max="10750" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10751" max="10751" width="21.42578125" style="20" customWidth="1"/>
-    <col min="10752" max="10752" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="21.28515625" style="20" customWidth="1"/>
-    <col min="10754" max="10754" width="26.7109375" style="20" customWidth="1"/>
-    <col min="10755" max="10755" width="11.42578125" style="20" customWidth="1"/>
-    <col min="10756" max="10756" width="26.5703125" style="20" customWidth="1"/>
-    <col min="10757" max="10757" width="10.5703125" style="20" customWidth="1"/>
-    <col min="10758" max="10758" width="13.42578125" style="20" customWidth="1"/>
-    <col min="10759" max="10759" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.5703125" style="20" customWidth="1"/>
-    <col min="10761" max="10761" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="36.28515625" style="20" customWidth="1"/>
-    <col min="10766" max="10766" width="11.7109375" style="20" customWidth="1"/>
-    <col min="10767" max="11003" width="9.140625" style="20"/>
-    <col min="11004" max="11004" width="1.42578125" style="20" customWidth="1"/>
+    <col min="10750" max="10750" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="21.5" style="20" customWidth="1"/>
+    <col min="10752" max="10752" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="21.33203125" style="20" customWidth="1"/>
+    <col min="10754" max="10754" width="26.6640625" style="20" customWidth="1"/>
+    <col min="10755" max="10755" width="11.5" style="20" customWidth="1"/>
+    <col min="10756" max="10756" width="26.5" style="20" customWidth="1"/>
+    <col min="10757" max="10757" width="10.5" style="20" customWidth="1"/>
+    <col min="10758" max="10758" width="13.5" style="20" customWidth="1"/>
+    <col min="10759" max="10759" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.5" style="20" customWidth="1"/>
+    <col min="10761" max="10761" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="36.33203125" style="20" customWidth="1"/>
+    <col min="10766" max="10766" width="11.6640625" style="20" customWidth="1"/>
+    <col min="10767" max="11003" width="8.83203125" style="20"/>
+    <col min="11004" max="11004" width="1.5" style="20" customWidth="1"/>
     <col min="11005" max="11005" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11006" max="11006" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11007" max="11007" width="21.42578125" style="20" customWidth="1"/>
-    <col min="11008" max="11008" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="21.28515625" style="20" customWidth="1"/>
-    <col min="11010" max="11010" width="26.7109375" style="20" customWidth="1"/>
-    <col min="11011" max="11011" width="11.42578125" style="20" customWidth="1"/>
-    <col min="11012" max="11012" width="26.5703125" style="20" customWidth="1"/>
-    <col min="11013" max="11013" width="10.5703125" style="20" customWidth="1"/>
-    <col min="11014" max="11014" width="13.42578125" style="20" customWidth="1"/>
-    <col min="11015" max="11015" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.5703125" style="20" customWidth="1"/>
-    <col min="11017" max="11017" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="36.28515625" style="20" customWidth="1"/>
-    <col min="11022" max="11022" width="11.7109375" style="20" customWidth="1"/>
-    <col min="11023" max="11259" width="9.140625" style="20"/>
-    <col min="11260" max="11260" width="1.42578125" style="20" customWidth="1"/>
+    <col min="11006" max="11006" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="21.5" style="20" customWidth="1"/>
+    <col min="11008" max="11008" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="21.33203125" style="20" customWidth="1"/>
+    <col min="11010" max="11010" width="26.6640625" style="20" customWidth="1"/>
+    <col min="11011" max="11011" width="11.5" style="20" customWidth="1"/>
+    <col min="11012" max="11012" width="26.5" style="20" customWidth="1"/>
+    <col min="11013" max="11013" width="10.5" style="20" customWidth="1"/>
+    <col min="11014" max="11014" width="13.5" style="20" customWidth="1"/>
+    <col min="11015" max="11015" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.5" style="20" customWidth="1"/>
+    <col min="11017" max="11017" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="36.33203125" style="20" customWidth="1"/>
+    <col min="11022" max="11022" width="11.6640625" style="20" customWidth="1"/>
+    <col min="11023" max="11259" width="8.83203125" style="20"/>
+    <col min="11260" max="11260" width="1.5" style="20" customWidth="1"/>
     <col min="11261" max="11261" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11262" max="11262" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11263" max="11263" width="21.42578125" style="20" customWidth="1"/>
-    <col min="11264" max="11264" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="21.28515625" style="20" customWidth="1"/>
-    <col min="11266" max="11266" width="26.7109375" style="20" customWidth="1"/>
-    <col min="11267" max="11267" width="11.42578125" style="20" customWidth="1"/>
-    <col min="11268" max="11268" width="26.5703125" style="20" customWidth="1"/>
-    <col min="11269" max="11269" width="10.5703125" style="20" customWidth="1"/>
-    <col min="11270" max="11270" width="13.42578125" style="20" customWidth="1"/>
-    <col min="11271" max="11271" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.5703125" style="20" customWidth="1"/>
-    <col min="11273" max="11273" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="36.28515625" style="20" customWidth="1"/>
-    <col min="11278" max="11278" width="11.7109375" style="20" customWidth="1"/>
-    <col min="11279" max="11515" width="9.140625" style="20"/>
-    <col min="11516" max="11516" width="1.42578125" style="20" customWidth="1"/>
+    <col min="11262" max="11262" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="21.5" style="20" customWidth="1"/>
+    <col min="11264" max="11264" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="21.33203125" style="20" customWidth="1"/>
+    <col min="11266" max="11266" width="26.6640625" style="20" customWidth="1"/>
+    <col min="11267" max="11267" width="11.5" style="20" customWidth="1"/>
+    <col min="11268" max="11268" width="26.5" style="20" customWidth="1"/>
+    <col min="11269" max="11269" width="10.5" style="20" customWidth="1"/>
+    <col min="11270" max="11270" width="13.5" style="20" customWidth="1"/>
+    <col min="11271" max="11271" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.5" style="20" customWidth="1"/>
+    <col min="11273" max="11273" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="36.33203125" style="20" customWidth="1"/>
+    <col min="11278" max="11278" width="11.6640625" style="20" customWidth="1"/>
+    <col min="11279" max="11515" width="8.83203125" style="20"/>
+    <col min="11516" max="11516" width="1.5" style="20" customWidth="1"/>
     <col min="11517" max="11517" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11518" max="11518" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11519" max="11519" width="21.42578125" style="20" customWidth="1"/>
-    <col min="11520" max="11520" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="21.28515625" style="20" customWidth="1"/>
-    <col min="11522" max="11522" width="26.7109375" style="20" customWidth="1"/>
-    <col min="11523" max="11523" width="11.42578125" style="20" customWidth="1"/>
-    <col min="11524" max="11524" width="26.5703125" style="20" customWidth="1"/>
-    <col min="11525" max="11525" width="10.5703125" style="20" customWidth="1"/>
-    <col min="11526" max="11526" width="13.42578125" style="20" customWidth="1"/>
-    <col min="11527" max="11527" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.5703125" style="20" customWidth="1"/>
-    <col min="11529" max="11529" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="36.28515625" style="20" customWidth="1"/>
-    <col min="11534" max="11534" width="11.7109375" style="20" customWidth="1"/>
-    <col min="11535" max="11771" width="9.140625" style="20"/>
-    <col min="11772" max="11772" width="1.42578125" style="20" customWidth="1"/>
+    <col min="11518" max="11518" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="21.5" style="20" customWidth="1"/>
+    <col min="11520" max="11520" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="21.33203125" style="20" customWidth="1"/>
+    <col min="11522" max="11522" width="26.6640625" style="20" customWidth="1"/>
+    <col min="11523" max="11523" width="11.5" style="20" customWidth="1"/>
+    <col min="11524" max="11524" width="26.5" style="20" customWidth="1"/>
+    <col min="11525" max="11525" width="10.5" style="20" customWidth="1"/>
+    <col min="11526" max="11526" width="13.5" style="20" customWidth="1"/>
+    <col min="11527" max="11527" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.5" style="20" customWidth="1"/>
+    <col min="11529" max="11529" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="36.33203125" style="20" customWidth="1"/>
+    <col min="11534" max="11534" width="11.6640625" style="20" customWidth="1"/>
+    <col min="11535" max="11771" width="8.83203125" style="20"/>
+    <col min="11772" max="11772" width="1.5" style="20" customWidth="1"/>
     <col min="11773" max="11773" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11774" max="11774" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11775" max="11775" width="21.42578125" style="20" customWidth="1"/>
-    <col min="11776" max="11776" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="21.28515625" style="20" customWidth="1"/>
-    <col min="11778" max="11778" width="26.7109375" style="20" customWidth="1"/>
-    <col min="11779" max="11779" width="11.42578125" style="20" customWidth="1"/>
-    <col min="11780" max="11780" width="26.5703125" style="20" customWidth="1"/>
-    <col min="11781" max="11781" width="10.5703125" style="20" customWidth="1"/>
-    <col min="11782" max="11782" width="13.42578125" style="20" customWidth="1"/>
-    <col min="11783" max="11783" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.5703125" style="20" customWidth="1"/>
-    <col min="11785" max="11785" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="36.28515625" style="20" customWidth="1"/>
-    <col min="11790" max="11790" width="11.7109375" style="20" customWidth="1"/>
-    <col min="11791" max="12027" width="9.140625" style="20"/>
-    <col min="12028" max="12028" width="1.42578125" style="20" customWidth="1"/>
+    <col min="11774" max="11774" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="21.5" style="20" customWidth="1"/>
+    <col min="11776" max="11776" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="21.33203125" style="20" customWidth="1"/>
+    <col min="11778" max="11778" width="26.6640625" style="20" customWidth="1"/>
+    <col min="11779" max="11779" width="11.5" style="20" customWidth="1"/>
+    <col min="11780" max="11780" width="26.5" style="20" customWidth="1"/>
+    <col min="11781" max="11781" width="10.5" style="20" customWidth="1"/>
+    <col min="11782" max="11782" width="13.5" style="20" customWidth="1"/>
+    <col min="11783" max="11783" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.5" style="20" customWidth="1"/>
+    <col min="11785" max="11785" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="36.33203125" style="20" customWidth="1"/>
+    <col min="11790" max="11790" width="11.6640625" style="20" customWidth="1"/>
+    <col min="11791" max="12027" width="8.83203125" style="20"/>
+    <col min="12028" max="12028" width="1.5" style="20" customWidth="1"/>
     <col min="12029" max="12029" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12030" max="12030" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12031" max="12031" width="21.42578125" style="20" customWidth="1"/>
-    <col min="12032" max="12032" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="21.28515625" style="20" customWidth="1"/>
-    <col min="12034" max="12034" width="26.7109375" style="20" customWidth="1"/>
-    <col min="12035" max="12035" width="11.42578125" style="20" customWidth="1"/>
-    <col min="12036" max="12036" width="26.5703125" style="20" customWidth="1"/>
-    <col min="12037" max="12037" width="10.5703125" style="20" customWidth="1"/>
-    <col min="12038" max="12038" width="13.42578125" style="20" customWidth="1"/>
-    <col min="12039" max="12039" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.5703125" style="20" customWidth="1"/>
-    <col min="12041" max="12041" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="36.28515625" style="20" customWidth="1"/>
-    <col min="12046" max="12046" width="11.7109375" style="20" customWidth="1"/>
-    <col min="12047" max="12283" width="9.140625" style="20"/>
-    <col min="12284" max="12284" width="1.42578125" style="20" customWidth="1"/>
+    <col min="12030" max="12030" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="21.5" style="20" customWidth="1"/>
+    <col min="12032" max="12032" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="21.33203125" style="20" customWidth="1"/>
+    <col min="12034" max="12034" width="26.6640625" style="20" customWidth="1"/>
+    <col min="12035" max="12035" width="11.5" style="20" customWidth="1"/>
+    <col min="12036" max="12036" width="26.5" style="20" customWidth="1"/>
+    <col min="12037" max="12037" width="10.5" style="20" customWidth="1"/>
+    <col min="12038" max="12038" width="13.5" style="20" customWidth="1"/>
+    <col min="12039" max="12039" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.5" style="20" customWidth="1"/>
+    <col min="12041" max="12041" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="36.33203125" style="20" customWidth="1"/>
+    <col min="12046" max="12046" width="11.6640625" style="20" customWidth="1"/>
+    <col min="12047" max="12283" width="8.83203125" style="20"/>
+    <col min="12284" max="12284" width="1.5" style="20" customWidth="1"/>
     <col min="12285" max="12285" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12286" max="12286" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12287" max="12287" width="21.42578125" style="20" customWidth="1"/>
-    <col min="12288" max="12288" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="21.28515625" style="20" customWidth="1"/>
-    <col min="12290" max="12290" width="26.7109375" style="20" customWidth="1"/>
-    <col min="12291" max="12291" width="11.42578125" style="20" customWidth="1"/>
-    <col min="12292" max="12292" width="26.5703125" style="20" customWidth="1"/>
-    <col min="12293" max="12293" width="10.5703125" style="20" customWidth="1"/>
-    <col min="12294" max="12294" width="13.42578125" style="20" customWidth="1"/>
-    <col min="12295" max="12295" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.5703125" style="20" customWidth="1"/>
-    <col min="12297" max="12297" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="36.28515625" style="20" customWidth="1"/>
-    <col min="12302" max="12302" width="11.7109375" style="20" customWidth="1"/>
-    <col min="12303" max="12539" width="9.140625" style="20"/>
-    <col min="12540" max="12540" width="1.42578125" style="20" customWidth="1"/>
+    <col min="12286" max="12286" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="21.5" style="20" customWidth="1"/>
+    <col min="12288" max="12288" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="21.33203125" style="20" customWidth="1"/>
+    <col min="12290" max="12290" width="26.6640625" style="20" customWidth="1"/>
+    <col min="12291" max="12291" width="11.5" style="20" customWidth="1"/>
+    <col min="12292" max="12292" width="26.5" style="20" customWidth="1"/>
+    <col min="12293" max="12293" width="10.5" style="20" customWidth="1"/>
+    <col min="12294" max="12294" width="13.5" style="20" customWidth="1"/>
+    <col min="12295" max="12295" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.5" style="20" customWidth="1"/>
+    <col min="12297" max="12297" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="36.33203125" style="20" customWidth="1"/>
+    <col min="12302" max="12302" width="11.6640625" style="20" customWidth="1"/>
+    <col min="12303" max="12539" width="8.83203125" style="20"/>
+    <col min="12540" max="12540" width="1.5" style="20" customWidth="1"/>
     <col min="12541" max="12541" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12542" max="12542" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12543" max="12543" width="21.42578125" style="20" customWidth="1"/>
-    <col min="12544" max="12544" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="21.28515625" style="20" customWidth="1"/>
-    <col min="12546" max="12546" width="26.7109375" style="20" customWidth="1"/>
-    <col min="12547" max="12547" width="11.42578125" style="20" customWidth="1"/>
-    <col min="12548" max="12548" width="26.5703125" style="20" customWidth="1"/>
-    <col min="12549" max="12549" width="10.5703125" style="20" customWidth="1"/>
-    <col min="12550" max="12550" width="13.42578125" style="20" customWidth="1"/>
-    <col min="12551" max="12551" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.5703125" style="20" customWidth="1"/>
-    <col min="12553" max="12553" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="36.28515625" style="20" customWidth="1"/>
-    <col min="12558" max="12558" width="11.7109375" style="20" customWidth="1"/>
-    <col min="12559" max="12795" width="9.140625" style="20"/>
-    <col min="12796" max="12796" width="1.42578125" style="20" customWidth="1"/>
+    <col min="12542" max="12542" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="21.5" style="20" customWidth="1"/>
+    <col min="12544" max="12544" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="21.33203125" style="20" customWidth="1"/>
+    <col min="12546" max="12546" width="26.6640625" style="20" customWidth="1"/>
+    <col min="12547" max="12547" width="11.5" style="20" customWidth="1"/>
+    <col min="12548" max="12548" width="26.5" style="20" customWidth="1"/>
+    <col min="12549" max="12549" width="10.5" style="20" customWidth="1"/>
+    <col min="12550" max="12550" width="13.5" style="20" customWidth="1"/>
+    <col min="12551" max="12551" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.5" style="20" customWidth="1"/>
+    <col min="12553" max="12553" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="36.33203125" style="20" customWidth="1"/>
+    <col min="12558" max="12558" width="11.6640625" style="20" customWidth="1"/>
+    <col min="12559" max="12795" width="8.83203125" style="20"/>
+    <col min="12796" max="12796" width="1.5" style="20" customWidth="1"/>
     <col min="12797" max="12797" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12798" max="12798" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12799" max="12799" width="21.42578125" style="20" customWidth="1"/>
-    <col min="12800" max="12800" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="21.28515625" style="20" customWidth="1"/>
-    <col min="12802" max="12802" width="26.7109375" style="20" customWidth="1"/>
-    <col min="12803" max="12803" width="11.42578125" style="20" customWidth="1"/>
-    <col min="12804" max="12804" width="26.5703125" style="20" customWidth="1"/>
-    <col min="12805" max="12805" width="10.5703125" style="20" customWidth="1"/>
-    <col min="12806" max="12806" width="13.42578125" style="20" customWidth="1"/>
-    <col min="12807" max="12807" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.5703125" style="20" customWidth="1"/>
-    <col min="12809" max="12809" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="36.28515625" style="20" customWidth="1"/>
-    <col min="12814" max="12814" width="11.7109375" style="20" customWidth="1"/>
-    <col min="12815" max="13051" width="9.140625" style="20"/>
-    <col min="13052" max="13052" width="1.42578125" style="20" customWidth="1"/>
+    <col min="12798" max="12798" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="21.5" style="20" customWidth="1"/>
+    <col min="12800" max="12800" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="21.33203125" style="20" customWidth="1"/>
+    <col min="12802" max="12802" width="26.6640625" style="20" customWidth="1"/>
+    <col min="12803" max="12803" width="11.5" style="20" customWidth="1"/>
+    <col min="12804" max="12804" width="26.5" style="20" customWidth="1"/>
+    <col min="12805" max="12805" width="10.5" style="20" customWidth="1"/>
+    <col min="12806" max="12806" width="13.5" style="20" customWidth="1"/>
+    <col min="12807" max="12807" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.5" style="20" customWidth="1"/>
+    <col min="12809" max="12809" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="36.33203125" style="20" customWidth="1"/>
+    <col min="12814" max="12814" width="11.6640625" style="20" customWidth="1"/>
+    <col min="12815" max="13051" width="8.83203125" style="20"/>
+    <col min="13052" max="13052" width="1.5" style="20" customWidth="1"/>
     <col min="13053" max="13053" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13054" max="13054" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13055" max="13055" width="21.42578125" style="20" customWidth="1"/>
-    <col min="13056" max="13056" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="21.28515625" style="20" customWidth="1"/>
-    <col min="13058" max="13058" width="26.7109375" style="20" customWidth="1"/>
-    <col min="13059" max="13059" width="11.42578125" style="20" customWidth="1"/>
-    <col min="13060" max="13060" width="26.5703125" style="20" customWidth="1"/>
-    <col min="13061" max="13061" width="10.5703125" style="20" customWidth="1"/>
-    <col min="13062" max="13062" width="13.42578125" style="20" customWidth="1"/>
-    <col min="13063" max="13063" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.5703125" style="20" customWidth="1"/>
-    <col min="13065" max="13065" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="36.28515625" style="20" customWidth="1"/>
-    <col min="13070" max="13070" width="11.7109375" style="20" customWidth="1"/>
-    <col min="13071" max="13307" width="9.140625" style="20"/>
-    <col min="13308" max="13308" width="1.42578125" style="20" customWidth="1"/>
+    <col min="13054" max="13054" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="21.5" style="20" customWidth="1"/>
+    <col min="13056" max="13056" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="21.33203125" style="20" customWidth="1"/>
+    <col min="13058" max="13058" width="26.6640625" style="20" customWidth="1"/>
+    <col min="13059" max="13059" width="11.5" style="20" customWidth="1"/>
+    <col min="13060" max="13060" width="26.5" style="20" customWidth="1"/>
+    <col min="13061" max="13061" width="10.5" style="20" customWidth="1"/>
+    <col min="13062" max="13062" width="13.5" style="20" customWidth="1"/>
+    <col min="13063" max="13063" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.5" style="20" customWidth="1"/>
+    <col min="13065" max="13065" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="36.33203125" style="20" customWidth="1"/>
+    <col min="13070" max="13070" width="11.6640625" style="20" customWidth="1"/>
+    <col min="13071" max="13307" width="8.83203125" style="20"/>
+    <col min="13308" max="13308" width="1.5" style="20" customWidth="1"/>
     <col min="13309" max="13309" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13310" max="13310" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13311" max="13311" width="21.42578125" style="20" customWidth="1"/>
-    <col min="13312" max="13312" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="21.28515625" style="20" customWidth="1"/>
-    <col min="13314" max="13314" width="26.7109375" style="20" customWidth="1"/>
-    <col min="13315" max="13315" width="11.42578125" style="20" customWidth="1"/>
-    <col min="13316" max="13316" width="26.5703125" style="20" customWidth="1"/>
-    <col min="13317" max="13317" width="10.5703125" style="20" customWidth="1"/>
-    <col min="13318" max="13318" width="13.42578125" style="20" customWidth="1"/>
-    <col min="13319" max="13319" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.5703125" style="20" customWidth="1"/>
-    <col min="13321" max="13321" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="36.28515625" style="20" customWidth="1"/>
-    <col min="13326" max="13326" width="11.7109375" style="20" customWidth="1"/>
-    <col min="13327" max="13563" width="9.140625" style="20"/>
-    <col min="13564" max="13564" width="1.42578125" style="20" customWidth="1"/>
+    <col min="13310" max="13310" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="21.5" style="20" customWidth="1"/>
+    <col min="13312" max="13312" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="21.33203125" style="20" customWidth="1"/>
+    <col min="13314" max="13314" width="26.6640625" style="20" customWidth="1"/>
+    <col min="13315" max="13315" width="11.5" style="20" customWidth="1"/>
+    <col min="13316" max="13316" width="26.5" style="20" customWidth="1"/>
+    <col min="13317" max="13317" width="10.5" style="20" customWidth="1"/>
+    <col min="13318" max="13318" width="13.5" style="20" customWidth="1"/>
+    <col min="13319" max="13319" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.5" style="20" customWidth="1"/>
+    <col min="13321" max="13321" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="36.33203125" style="20" customWidth="1"/>
+    <col min="13326" max="13326" width="11.6640625" style="20" customWidth="1"/>
+    <col min="13327" max="13563" width="8.83203125" style="20"/>
+    <col min="13564" max="13564" width="1.5" style="20" customWidth="1"/>
     <col min="13565" max="13565" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13566" max="13566" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13567" max="13567" width="21.42578125" style="20" customWidth="1"/>
-    <col min="13568" max="13568" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="21.28515625" style="20" customWidth="1"/>
-    <col min="13570" max="13570" width="26.7109375" style="20" customWidth="1"/>
-    <col min="13571" max="13571" width="11.42578125" style="20" customWidth="1"/>
-    <col min="13572" max="13572" width="26.5703125" style="20" customWidth="1"/>
-    <col min="13573" max="13573" width="10.5703125" style="20" customWidth="1"/>
-    <col min="13574" max="13574" width="13.42578125" style="20" customWidth="1"/>
-    <col min="13575" max="13575" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.5703125" style="20" customWidth="1"/>
-    <col min="13577" max="13577" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="36.28515625" style="20" customWidth="1"/>
-    <col min="13582" max="13582" width="11.7109375" style="20" customWidth="1"/>
-    <col min="13583" max="13819" width="9.140625" style="20"/>
-    <col min="13820" max="13820" width="1.42578125" style="20" customWidth="1"/>
+    <col min="13566" max="13566" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="21.5" style="20" customWidth="1"/>
+    <col min="13568" max="13568" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="21.33203125" style="20" customWidth="1"/>
+    <col min="13570" max="13570" width="26.6640625" style="20" customWidth="1"/>
+    <col min="13571" max="13571" width="11.5" style="20" customWidth="1"/>
+    <col min="13572" max="13572" width="26.5" style="20" customWidth="1"/>
+    <col min="13573" max="13573" width="10.5" style="20" customWidth="1"/>
+    <col min="13574" max="13574" width="13.5" style="20" customWidth="1"/>
+    <col min="13575" max="13575" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.5" style="20" customWidth="1"/>
+    <col min="13577" max="13577" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="36.33203125" style="20" customWidth="1"/>
+    <col min="13582" max="13582" width="11.6640625" style="20" customWidth="1"/>
+    <col min="13583" max="13819" width="8.83203125" style="20"/>
+    <col min="13820" max="13820" width="1.5" style="20" customWidth="1"/>
     <col min="13821" max="13821" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13822" max="13822" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13823" max="13823" width="21.42578125" style="20" customWidth="1"/>
-    <col min="13824" max="13824" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="21.28515625" style="20" customWidth="1"/>
-    <col min="13826" max="13826" width="26.7109375" style="20" customWidth="1"/>
-    <col min="13827" max="13827" width="11.42578125" style="20" customWidth="1"/>
-    <col min="13828" max="13828" width="26.5703125" style="20" customWidth="1"/>
-    <col min="13829" max="13829" width="10.5703125" style="20" customWidth="1"/>
-    <col min="13830" max="13830" width="13.42578125" style="20" customWidth="1"/>
-    <col min="13831" max="13831" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.5703125" style="20" customWidth="1"/>
-    <col min="13833" max="13833" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="36.28515625" style="20" customWidth="1"/>
-    <col min="13838" max="13838" width="11.7109375" style="20" customWidth="1"/>
-    <col min="13839" max="14075" width="9.140625" style="20"/>
-    <col min="14076" max="14076" width="1.42578125" style="20" customWidth="1"/>
+    <col min="13822" max="13822" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="21.5" style="20" customWidth="1"/>
+    <col min="13824" max="13824" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="21.33203125" style="20" customWidth="1"/>
+    <col min="13826" max="13826" width="26.6640625" style="20" customWidth="1"/>
+    <col min="13827" max="13827" width="11.5" style="20" customWidth="1"/>
+    <col min="13828" max="13828" width="26.5" style="20" customWidth="1"/>
+    <col min="13829" max="13829" width="10.5" style="20" customWidth="1"/>
+    <col min="13830" max="13830" width="13.5" style="20" customWidth="1"/>
+    <col min="13831" max="13831" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.5" style="20" customWidth="1"/>
+    <col min="13833" max="13833" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="36.33203125" style="20" customWidth="1"/>
+    <col min="13838" max="13838" width="11.6640625" style="20" customWidth="1"/>
+    <col min="13839" max="14075" width="8.83203125" style="20"/>
+    <col min="14076" max="14076" width="1.5" style="20" customWidth="1"/>
     <col min="14077" max="14077" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14078" max="14078" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14079" max="14079" width="21.42578125" style="20" customWidth="1"/>
-    <col min="14080" max="14080" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="21.28515625" style="20" customWidth="1"/>
-    <col min="14082" max="14082" width="26.7109375" style="20" customWidth="1"/>
-    <col min="14083" max="14083" width="11.42578125" style="20" customWidth="1"/>
-    <col min="14084" max="14084" width="26.5703125" style="20" customWidth="1"/>
-    <col min="14085" max="14085" width="10.5703125" style="20" customWidth="1"/>
-    <col min="14086" max="14086" width="13.42578125" style="20" customWidth="1"/>
-    <col min="14087" max="14087" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.5703125" style="20" customWidth="1"/>
-    <col min="14089" max="14089" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="36.28515625" style="20" customWidth="1"/>
-    <col min="14094" max="14094" width="11.7109375" style="20" customWidth="1"/>
-    <col min="14095" max="14331" width="9.140625" style="20"/>
-    <col min="14332" max="14332" width="1.42578125" style="20" customWidth="1"/>
+    <col min="14078" max="14078" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="21.5" style="20" customWidth="1"/>
+    <col min="14080" max="14080" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="21.33203125" style="20" customWidth="1"/>
+    <col min="14082" max="14082" width="26.6640625" style="20" customWidth="1"/>
+    <col min="14083" max="14083" width="11.5" style="20" customWidth="1"/>
+    <col min="14084" max="14084" width="26.5" style="20" customWidth="1"/>
+    <col min="14085" max="14085" width="10.5" style="20" customWidth="1"/>
+    <col min="14086" max="14086" width="13.5" style="20" customWidth="1"/>
+    <col min="14087" max="14087" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.5" style="20" customWidth="1"/>
+    <col min="14089" max="14089" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="36.33203125" style="20" customWidth="1"/>
+    <col min="14094" max="14094" width="11.6640625" style="20" customWidth="1"/>
+    <col min="14095" max="14331" width="8.83203125" style="20"/>
+    <col min="14332" max="14332" width="1.5" style="20" customWidth="1"/>
     <col min="14333" max="14333" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14334" max="14334" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14335" max="14335" width="21.42578125" style="20" customWidth="1"/>
-    <col min="14336" max="14336" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="21.28515625" style="20" customWidth="1"/>
-    <col min="14338" max="14338" width="26.7109375" style="20" customWidth="1"/>
-    <col min="14339" max="14339" width="11.42578125" style="20" customWidth="1"/>
-    <col min="14340" max="14340" width="26.5703125" style="20" customWidth="1"/>
-    <col min="14341" max="14341" width="10.5703125" style="20" customWidth="1"/>
-    <col min="14342" max="14342" width="13.42578125" style="20" customWidth="1"/>
-    <col min="14343" max="14343" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.5703125" style="20" customWidth="1"/>
-    <col min="14345" max="14345" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="36.28515625" style="20" customWidth="1"/>
-    <col min="14350" max="14350" width="11.7109375" style="20" customWidth="1"/>
-    <col min="14351" max="14587" width="9.140625" style="20"/>
-    <col min="14588" max="14588" width="1.42578125" style="20" customWidth="1"/>
+    <col min="14334" max="14334" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="21.5" style="20" customWidth="1"/>
+    <col min="14336" max="14336" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="21.33203125" style="20" customWidth="1"/>
+    <col min="14338" max="14338" width="26.6640625" style="20" customWidth="1"/>
+    <col min="14339" max="14339" width="11.5" style="20" customWidth="1"/>
+    <col min="14340" max="14340" width="26.5" style="20" customWidth="1"/>
+    <col min="14341" max="14341" width="10.5" style="20" customWidth="1"/>
+    <col min="14342" max="14342" width="13.5" style="20" customWidth="1"/>
+    <col min="14343" max="14343" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.5" style="20" customWidth="1"/>
+    <col min="14345" max="14345" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="36.33203125" style="20" customWidth="1"/>
+    <col min="14350" max="14350" width="11.6640625" style="20" customWidth="1"/>
+    <col min="14351" max="14587" width="8.83203125" style="20"/>
+    <col min="14588" max="14588" width="1.5" style="20" customWidth="1"/>
     <col min="14589" max="14589" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14590" max="14590" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14591" max="14591" width="21.42578125" style="20" customWidth="1"/>
-    <col min="14592" max="14592" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="21.28515625" style="20" customWidth="1"/>
-    <col min="14594" max="14594" width="26.7109375" style="20" customWidth="1"/>
-    <col min="14595" max="14595" width="11.42578125" style="20" customWidth="1"/>
-    <col min="14596" max="14596" width="26.5703125" style="20" customWidth="1"/>
-    <col min="14597" max="14597" width="10.5703125" style="20" customWidth="1"/>
-    <col min="14598" max="14598" width="13.42578125" style="20" customWidth="1"/>
-    <col min="14599" max="14599" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.5703125" style="20" customWidth="1"/>
-    <col min="14601" max="14601" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="36.28515625" style="20" customWidth="1"/>
-    <col min="14606" max="14606" width="11.7109375" style="20" customWidth="1"/>
-    <col min="14607" max="14843" width="9.140625" style="20"/>
-    <col min="14844" max="14844" width="1.42578125" style="20" customWidth="1"/>
+    <col min="14590" max="14590" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="21.5" style="20" customWidth="1"/>
+    <col min="14592" max="14592" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="21.33203125" style="20" customWidth="1"/>
+    <col min="14594" max="14594" width="26.6640625" style="20" customWidth="1"/>
+    <col min="14595" max="14595" width="11.5" style="20" customWidth="1"/>
+    <col min="14596" max="14596" width="26.5" style="20" customWidth="1"/>
+    <col min="14597" max="14597" width="10.5" style="20" customWidth="1"/>
+    <col min="14598" max="14598" width="13.5" style="20" customWidth="1"/>
+    <col min="14599" max="14599" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.5" style="20" customWidth="1"/>
+    <col min="14601" max="14601" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="36.33203125" style="20" customWidth="1"/>
+    <col min="14606" max="14606" width="11.6640625" style="20" customWidth="1"/>
+    <col min="14607" max="14843" width="8.83203125" style="20"/>
+    <col min="14844" max="14844" width="1.5" style="20" customWidth="1"/>
     <col min="14845" max="14845" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14846" max="14846" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14847" max="14847" width="21.42578125" style="20" customWidth="1"/>
-    <col min="14848" max="14848" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="21.28515625" style="20" customWidth="1"/>
-    <col min="14850" max="14850" width="26.7109375" style="20" customWidth="1"/>
-    <col min="14851" max="14851" width="11.42578125" style="20" customWidth="1"/>
-    <col min="14852" max="14852" width="26.5703125" style="20" customWidth="1"/>
-    <col min="14853" max="14853" width="10.5703125" style="20" customWidth="1"/>
-    <col min="14854" max="14854" width="13.42578125" style="20" customWidth="1"/>
-    <col min="14855" max="14855" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.5703125" style="20" customWidth="1"/>
-    <col min="14857" max="14857" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="36.28515625" style="20" customWidth="1"/>
-    <col min="14862" max="14862" width="11.7109375" style="20" customWidth="1"/>
-    <col min="14863" max="15099" width="9.140625" style="20"/>
-    <col min="15100" max="15100" width="1.42578125" style="20" customWidth="1"/>
+    <col min="14846" max="14846" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="21.5" style="20" customWidth="1"/>
+    <col min="14848" max="14848" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="21.33203125" style="20" customWidth="1"/>
+    <col min="14850" max="14850" width="26.6640625" style="20" customWidth="1"/>
+    <col min="14851" max="14851" width="11.5" style="20" customWidth="1"/>
+    <col min="14852" max="14852" width="26.5" style="20" customWidth="1"/>
+    <col min="14853" max="14853" width="10.5" style="20" customWidth="1"/>
+    <col min="14854" max="14854" width="13.5" style="20" customWidth="1"/>
+    <col min="14855" max="14855" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.5" style="20" customWidth="1"/>
+    <col min="14857" max="14857" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="36.33203125" style="20" customWidth="1"/>
+    <col min="14862" max="14862" width="11.6640625" style="20" customWidth="1"/>
+    <col min="14863" max="15099" width="8.83203125" style="20"/>
+    <col min="15100" max="15100" width="1.5" style="20" customWidth="1"/>
     <col min="15101" max="15101" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15102" max="15102" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15103" max="15103" width="21.42578125" style="20" customWidth="1"/>
-    <col min="15104" max="15104" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="21.28515625" style="20" customWidth="1"/>
-    <col min="15106" max="15106" width="26.7109375" style="20" customWidth="1"/>
-    <col min="15107" max="15107" width="11.42578125" style="20" customWidth="1"/>
-    <col min="15108" max="15108" width="26.5703125" style="20" customWidth="1"/>
-    <col min="15109" max="15109" width="10.5703125" style="20" customWidth="1"/>
-    <col min="15110" max="15110" width="13.42578125" style="20" customWidth="1"/>
-    <col min="15111" max="15111" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.5703125" style="20" customWidth="1"/>
-    <col min="15113" max="15113" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="36.28515625" style="20" customWidth="1"/>
-    <col min="15118" max="15118" width="11.7109375" style="20" customWidth="1"/>
-    <col min="15119" max="15355" width="9.140625" style="20"/>
-    <col min="15356" max="15356" width="1.42578125" style="20" customWidth="1"/>
+    <col min="15102" max="15102" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="21.5" style="20" customWidth="1"/>
+    <col min="15104" max="15104" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="21.33203125" style="20" customWidth="1"/>
+    <col min="15106" max="15106" width="26.6640625" style="20" customWidth="1"/>
+    <col min="15107" max="15107" width="11.5" style="20" customWidth="1"/>
+    <col min="15108" max="15108" width="26.5" style="20" customWidth="1"/>
+    <col min="15109" max="15109" width="10.5" style="20" customWidth="1"/>
+    <col min="15110" max="15110" width="13.5" style="20" customWidth="1"/>
+    <col min="15111" max="15111" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.5" style="20" customWidth="1"/>
+    <col min="15113" max="15113" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="36.33203125" style="20" customWidth="1"/>
+    <col min="15118" max="15118" width="11.6640625" style="20" customWidth="1"/>
+    <col min="15119" max="15355" width="8.83203125" style="20"/>
+    <col min="15356" max="15356" width="1.5" style="20" customWidth="1"/>
     <col min="15357" max="15357" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15358" max="15358" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15359" max="15359" width="21.42578125" style="20" customWidth="1"/>
-    <col min="15360" max="15360" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="21.28515625" style="20" customWidth="1"/>
-    <col min="15362" max="15362" width="26.7109375" style="20" customWidth="1"/>
-    <col min="15363" max="15363" width="11.42578125" style="20" customWidth="1"/>
-    <col min="15364" max="15364" width="26.5703125" style="20" customWidth="1"/>
-    <col min="15365" max="15365" width="10.5703125" style="20" customWidth="1"/>
-    <col min="15366" max="15366" width="13.42578125" style="20" customWidth="1"/>
-    <col min="15367" max="15367" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.5703125" style="20" customWidth="1"/>
-    <col min="15369" max="15369" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="36.28515625" style="20" customWidth="1"/>
-    <col min="15374" max="15374" width="11.7109375" style="20" customWidth="1"/>
-    <col min="15375" max="15611" width="9.140625" style="20"/>
-    <col min="15612" max="15612" width="1.42578125" style="20" customWidth="1"/>
+    <col min="15358" max="15358" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="21.5" style="20" customWidth="1"/>
+    <col min="15360" max="15360" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="21.33203125" style="20" customWidth="1"/>
+    <col min="15362" max="15362" width="26.6640625" style="20" customWidth="1"/>
+    <col min="15363" max="15363" width="11.5" style="20" customWidth="1"/>
+    <col min="15364" max="15364" width="26.5" style="20" customWidth="1"/>
+    <col min="15365" max="15365" width="10.5" style="20" customWidth="1"/>
+    <col min="15366" max="15366" width="13.5" style="20" customWidth="1"/>
+    <col min="15367" max="15367" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.5" style="20" customWidth="1"/>
+    <col min="15369" max="15369" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="36.33203125" style="20" customWidth="1"/>
+    <col min="15374" max="15374" width="11.6640625" style="20" customWidth="1"/>
+    <col min="15375" max="15611" width="8.83203125" style="20"/>
+    <col min="15612" max="15612" width="1.5" style="20" customWidth="1"/>
     <col min="15613" max="15613" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15614" max="15614" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15615" max="15615" width="21.42578125" style="20" customWidth="1"/>
-    <col min="15616" max="15616" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="21.28515625" style="20" customWidth="1"/>
-    <col min="15618" max="15618" width="26.7109375" style="20" customWidth="1"/>
-    <col min="15619" max="15619" width="11.42578125" style="20" customWidth="1"/>
-    <col min="15620" max="15620" width="26.5703125" style="20" customWidth="1"/>
-    <col min="15621" max="15621" width="10.5703125" style="20" customWidth="1"/>
-    <col min="15622" max="15622" width="13.42578125" style="20" customWidth="1"/>
-    <col min="15623" max="15623" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.5703125" style="20" customWidth="1"/>
-    <col min="15625" max="15625" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="36.28515625" style="20" customWidth="1"/>
-    <col min="15630" max="15630" width="11.7109375" style="20" customWidth="1"/>
-    <col min="15631" max="15867" width="9.140625" style="20"/>
-    <col min="15868" max="15868" width="1.42578125" style="20" customWidth="1"/>
+    <col min="15614" max="15614" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="21.5" style="20" customWidth="1"/>
+    <col min="15616" max="15616" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="21.33203125" style="20" customWidth="1"/>
+    <col min="15618" max="15618" width="26.6640625" style="20" customWidth="1"/>
+    <col min="15619" max="15619" width="11.5" style="20" customWidth="1"/>
+    <col min="15620" max="15620" width="26.5" style="20" customWidth="1"/>
+    <col min="15621" max="15621" width="10.5" style="20" customWidth="1"/>
+    <col min="15622" max="15622" width="13.5" style="20" customWidth="1"/>
+    <col min="15623" max="15623" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.5" style="20" customWidth="1"/>
+    <col min="15625" max="15625" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="36.33203125" style="20" customWidth="1"/>
+    <col min="15630" max="15630" width="11.6640625" style="20" customWidth="1"/>
+    <col min="15631" max="15867" width="8.83203125" style="20"/>
+    <col min="15868" max="15868" width="1.5" style="20" customWidth="1"/>
     <col min="15869" max="15869" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15870" max="15870" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15871" max="15871" width="21.42578125" style="20" customWidth="1"/>
-    <col min="15872" max="15872" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="21.28515625" style="20" customWidth="1"/>
-    <col min="15874" max="15874" width="26.7109375" style="20" customWidth="1"/>
-    <col min="15875" max="15875" width="11.42578125" style="20" customWidth="1"/>
-    <col min="15876" max="15876" width="26.5703125" style="20" customWidth="1"/>
-    <col min="15877" max="15877" width="10.5703125" style="20" customWidth="1"/>
-    <col min="15878" max="15878" width="13.42578125" style="20" customWidth="1"/>
-    <col min="15879" max="15879" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.5703125" style="20" customWidth="1"/>
-    <col min="15881" max="15881" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="36.28515625" style="20" customWidth="1"/>
-    <col min="15886" max="15886" width="11.7109375" style="20" customWidth="1"/>
-    <col min="15887" max="16123" width="9.140625" style="20"/>
-    <col min="16124" max="16124" width="1.42578125" style="20" customWidth="1"/>
+    <col min="15870" max="15870" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="21.5" style="20" customWidth="1"/>
+    <col min="15872" max="15872" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="21.33203125" style="20" customWidth="1"/>
+    <col min="15874" max="15874" width="26.6640625" style="20" customWidth="1"/>
+    <col min="15875" max="15875" width="11.5" style="20" customWidth="1"/>
+    <col min="15876" max="15876" width="26.5" style="20" customWidth="1"/>
+    <col min="15877" max="15877" width="10.5" style="20" customWidth="1"/>
+    <col min="15878" max="15878" width="13.5" style="20" customWidth="1"/>
+    <col min="15879" max="15879" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.5" style="20" customWidth="1"/>
+    <col min="15881" max="15881" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="36.33203125" style="20" customWidth="1"/>
+    <col min="15886" max="15886" width="11.6640625" style="20" customWidth="1"/>
+    <col min="15887" max="16123" width="8.83203125" style="20"/>
+    <col min="16124" max="16124" width="1.5" style="20" customWidth="1"/>
     <col min="16125" max="16125" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="16126" max="16126" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16127" max="16127" width="21.42578125" style="20" customWidth="1"/>
-    <col min="16128" max="16128" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="21.28515625" style="20" customWidth="1"/>
-    <col min="16130" max="16130" width="26.7109375" style="20" customWidth="1"/>
-    <col min="16131" max="16131" width="11.42578125" style="20" customWidth="1"/>
-    <col min="16132" max="16132" width="26.5703125" style="20" customWidth="1"/>
-    <col min="16133" max="16133" width="10.5703125" style="20" customWidth="1"/>
-    <col min="16134" max="16134" width="13.42578125" style="20" customWidth="1"/>
-    <col min="16135" max="16135" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.5703125" style="20" customWidth="1"/>
-    <col min="16137" max="16137" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="36.28515625" style="20" customWidth="1"/>
-    <col min="16142" max="16142" width="11.7109375" style="20" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="20"/>
+    <col min="16126" max="16126" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="21.5" style="20" customWidth="1"/>
+    <col min="16128" max="16128" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="21.33203125" style="20" customWidth="1"/>
+    <col min="16130" max="16130" width="26.6640625" style="20" customWidth="1"/>
+    <col min="16131" max="16131" width="11.5" style="20" customWidth="1"/>
+    <col min="16132" max="16132" width="26.5" style="20" customWidth="1"/>
+    <col min="16133" max="16133" width="10.5" style="20" customWidth="1"/>
+    <col min="16134" max="16134" width="13.5" style="20" customWidth="1"/>
+    <col min="16135" max="16135" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.5" style="20" customWidth="1"/>
+    <col min="16137" max="16137" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="12.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="36.33203125" style="20" customWidth="1"/>
+    <col min="16142" max="16142" width="11.6640625" style="20" customWidth="1"/>
+    <col min="16143" max="16384" width="8.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="18" thickBot="1">
       <c r="B2" s="66" t="s">
         <v>409</v>
       </c>
@@ -7070,12 +7080,12 @@
       <c r="G2" s="68"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B3" s="65"/>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
     </row>
-    <row r="4" spans="2:14" s="27" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="27" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
       <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
@@ -7116,7 +7126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="28">
         <v>5655</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="B6" s="33">
         <v>5656</v>
       </c>
@@ -7190,7 +7200,7 @@
       <c r="M6" s="37"/>
       <c r="N6" s="35"/>
     </row>
-    <row r="7" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="B7" s="33">
         <v>5670</v>
       </c>
@@ -7229,7 +7239,7 @@
       </c>
       <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" s="33">
         <v>514633</v>
       </c>
@@ -7268,7 +7278,7 @@
       </c>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14">
       <c r="B9" s="33">
         <v>5864</v>
       </c>
@@ -7307,7 +7317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14">
       <c r="B10" s="33">
         <v>5864</v>
       </c>
@@ -7346,7 +7356,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="B11" s="33">
         <v>448299</v>
       </c>
@@ -7387,7 +7397,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="28">
       <c r="B12" s="33">
         <v>8906</v>
       </c>
@@ -7424,7 +7434,7 @@
       </c>
       <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="28">
       <c r="B13" s="33">
         <v>8906</v>
       </c>
@@ -7463,7 +7473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="28">
       <c r="B14" s="33">
         <v>8906</v>
       </c>
@@ -7502,7 +7512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="28">
       <c r="B15" s="33">
         <v>8907</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="28">
       <c r="B16" s="33">
         <v>8907</v>
       </c>
@@ -7580,7 +7590,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="B17" s="33">
         <v>568316</v>
       </c>
@@ -7615,7 +7625,7 @@
       <c r="M17" s="38"/>
       <c r="N17" s="35"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="B18" s="33">
         <v>537629</v>
       </c>
@@ -7650,7 +7660,7 @@
       <c r="M18" s="38"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="19" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="28">
       <c r="B19" s="33">
         <v>438111</v>
       </c>
@@ -7687,7 +7697,7 @@
       </c>
       <c r="N19" s="35"/>
     </row>
-    <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="28">
       <c r="B20" s="33">
         <v>439995</v>
       </c>
@@ -7724,7 +7734,7 @@
       </c>
       <c r="N20" s="35"/>
     </row>
-    <row r="21" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="28">
       <c r="B21" s="33">
         <v>9423</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="28">
       <c r="B22" s="33">
         <v>9423</v>
       </c>
@@ -7800,7 +7810,7 @@
       </c>
       <c r="N22" s="35"/>
     </row>
-    <row r="23" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="28">
       <c r="B23" s="33">
         <v>448287</v>
       </c>
@@ -7835,7 +7845,7 @@
       <c r="M23" s="37"/>
       <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="28">
       <c r="B24" s="33">
         <v>9501</v>
       </c>
@@ -7876,7 +7886,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="28">
       <c r="B25" s="33">
         <v>9517</v>
       </c>
@@ -7915,7 +7925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="28">
       <c r="B26" s="33">
         <v>9517</v>
       </c>
@@ -7952,7 +7962,7 @@
       </c>
       <c r="N26" s="35"/>
     </row>
-    <row r="27" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="28">
       <c r="B27" s="33">
         <v>358247</v>
       </c>
@@ -7985,7 +7995,7 @@
       <c r="M27" s="37"/>
       <c r="N27" s="35"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="B28" s="33">
         <v>513301</v>
       </c>
@@ -8024,7 +8034,7 @@
       </c>
       <c r="N28" s="35"/>
     </row>
-    <row r="29" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="28">
       <c r="B29" s="33">
         <v>9728</v>
       </c>
@@ -8061,7 +8071,7 @@
       </c>
       <c r="N29" s="35"/>
     </row>
-    <row r="30" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="28">
       <c r="B30" s="33">
         <v>9728</v>
       </c>
@@ -8098,7 +8108,7 @@
       </c>
       <c r="N30" s="35"/>
     </row>
-    <row r="31" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="28">
       <c r="B31" s="33">
         <v>9729</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="28">
       <c r="B32" s="33">
         <v>9730</v>
       </c>
@@ -8176,7 +8186,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="28">
       <c r="B33" s="33">
         <v>9731</v>
       </c>
@@ -8217,7 +8227,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14">
       <c r="B34" s="33">
         <v>466374</v>
       </c>
@@ -8254,7 +8264,7 @@
       </c>
       <c r="N34" s="35"/>
     </row>
-    <row r="35" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="28">
       <c r="B35" s="33">
         <v>544853</v>
       </c>
@@ -8289,7 +8299,7 @@
       <c r="M35" s="37"/>
       <c r="N35" s="35"/>
     </row>
-    <row r="36" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="28">
       <c r="B36" s="33">
         <v>513305</v>
       </c>
@@ -8326,7 +8336,7 @@
       </c>
       <c r="N36" s="35"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14">
       <c r="B37" s="33">
         <v>568065</v>
       </c>
@@ -8359,7 +8369,7 @@
       <c r="M37" s="37"/>
       <c r="N37" s="35"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14">
       <c r="B38" s="33">
         <v>568066</v>
       </c>
@@ -8394,7 +8404,7 @@
       <c r="M38" s="37"/>
       <c r="N38" s="35"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14">
       <c r="B39" s="33">
         <v>429712</v>
       </c>
@@ -8433,7 +8443,7 @@
       </c>
       <c r="N39" s="35"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14">
       <c r="B40" s="33">
         <v>429712</v>
       </c>
@@ -8472,7 +8482,7 @@
       </c>
       <c r="N40" s="35"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14">
       <c r="B41" s="33">
         <v>571036</v>
       </c>
@@ -8507,7 +8517,7 @@
       <c r="M41" s="37"/>
       <c r="N41" s="35"/>
     </row>
-    <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="28">
       <c r="B42" s="33">
         <v>10908</v>
       </c>
@@ -8548,7 +8558,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14">
       <c r="B43" s="33">
         <v>453515</v>
       </c>
@@ -8589,7 +8599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14">
       <c r="B44" s="33">
         <v>453515</v>
       </c>
@@ -8628,7 +8638,7 @@
       </c>
       <c r="N44" s="35"/>
     </row>
-    <row r="45" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="28">
       <c r="B45" s="33">
         <v>438134</v>
       </c>
@@ -8665,7 +8675,7 @@
       </c>
       <c r="N45" s="35"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14">
       <c r="B46" s="33">
         <v>12064</v>
       </c>
@@ -8706,7 +8716,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14">
       <c r="B47" s="33">
         <v>12064</v>
       </c>
@@ -8745,7 +8755,7 @@
       </c>
       <c r="N47" s="35"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14">
       <c r="B48" s="33">
         <v>40132</v>
       </c>
@@ -8784,7 +8794,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14">
       <c r="B49" s="33">
         <v>40132</v>
       </c>
@@ -8821,7 +8831,7 @@
       </c>
       <c r="N49" s="35"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14">
       <c r="B50" s="33">
         <v>39534</v>
       </c>
@@ -8860,7 +8870,7 @@
       </c>
       <c r="N50" s="35"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14">
       <c r="B51" s="33">
         <v>39534</v>
       </c>
@@ -8899,7 +8909,7 @@
       </c>
       <c r="N51" s="35"/>
     </row>
-    <row r="52" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="28">
       <c r="B52" s="33">
         <v>454012</v>
       </c>
@@ -8938,7 +8948,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14">
       <c r="B53" s="33">
         <v>454012</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14">
       <c r="B54" s="33">
         <v>512560</v>
       </c>
@@ -9016,7 +9026,7 @@
       </c>
       <c r="N54" s="35"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14">
       <c r="B55" s="33">
         <v>12432</v>
       </c>
@@ -9053,7 +9063,7 @@
       </c>
       <c r="N55" s="35"/>
     </row>
-    <row r="56" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="28">
       <c r="B56" s="33">
         <v>525821</v>
       </c>
@@ -9092,7 +9102,7 @@
       </c>
       <c r="N56" s="35"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14">
       <c r="B57" s="33">
         <v>13002</v>
       </c>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="N57" s="35"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14">
       <c r="B58" s="33">
         <v>13002</v>
       </c>
@@ -9168,7 +9178,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14">
       <c r="B59" s="33">
         <v>13194</v>
       </c>
@@ -9205,7 +9215,7 @@
       </c>
       <c r="N59" s="35"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14">
       <c r="B60" s="33">
         <v>13195</v>
       </c>
@@ -9244,7 +9254,7 @@
       </c>
       <c r="N60" s="35"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14">
       <c r="B61" s="33">
         <v>466460</v>
       </c>
@@ -9283,7 +9293,7 @@
       </c>
       <c r="N61" s="35"/>
     </row>
-    <row r="62" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="28">
       <c r="B62" s="33">
         <v>467483</v>
       </c>
@@ -9322,7 +9332,7 @@
       </c>
       <c r="N62" s="35"/>
     </row>
-    <row r="63" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="28">
       <c r="B63" s="33">
         <v>466508</v>
       </c>
@@ -9361,7 +9371,7 @@
       </c>
       <c r="N63" s="35"/>
     </row>
-    <row r="64" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="28">
       <c r="B64" s="33">
         <v>571593</v>
       </c>
@@ -9396,7 +9406,7 @@
       <c r="M64" s="38"/>
       <c r="N64" s="35"/>
     </row>
-    <row r="65" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="28">
       <c r="B65" s="33">
         <v>440005</v>
       </c>
@@ -9433,7 +9443,7 @@
       </c>
       <c r="N65" s="35"/>
     </row>
-    <row r="66" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="28">
       <c r="B66" s="33">
         <v>447634</v>
       </c>
@@ -9472,7 +9482,7 @@
       </c>
       <c r="N66" s="35"/>
     </row>
-    <row r="67" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="28">
       <c r="B67" s="33">
         <v>447660</v>
       </c>
@@ -9511,7 +9521,7 @@
       </c>
       <c r="N67" s="35"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14">
       <c r="B68" s="33">
         <v>16568</v>
       </c>
@@ -9548,7 +9558,7 @@
       </c>
       <c r="N68" s="35"/>
     </row>
-    <row r="69" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="28">
       <c r="B69" s="33">
         <v>568184</v>
       </c>
@@ -9589,7 +9599,12 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9601,1036 +9616,1036 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="16"/>
+    <col min="6" max="6" width="17.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="18" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" style="18" customWidth="1"/>
     <col min="10" max="10" width="30" style="16" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="16" customWidth="1"/>
     <col min="12" max="12" width="9" style="16" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="47.5703125" style="18" customWidth="1"/>
-    <col min="19" max="255" width="9.140625" style="20"/>
-    <col min="256" max="256" width="2.42578125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="47.5" style="18" customWidth="1"/>
+    <col min="19" max="255" width="8.83203125" style="20"/>
+    <col min="256" max="256" width="2.5" style="20" customWidth="1"/>
     <col min="257" max="257" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.140625" style="20"/>
-    <col min="261" max="261" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="38.28515625" style="20" customWidth="1"/>
+    <col min="258" max="258" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="8.83203125" style="20"/>
+    <col min="261" max="261" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="38.33203125" style="20" customWidth="1"/>
     <col min="265" max="265" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.5703125" style="20" customWidth="1"/>
+    <col min="266" max="266" width="7.5" style="20" customWidth="1"/>
     <col min="267" max="267" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="47.5703125" style="20" customWidth="1"/>
-    <col min="271" max="511" width="9.140625" style="20"/>
-    <col min="512" max="512" width="2.42578125" style="20" customWidth="1"/>
+    <col min="268" max="268" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="47.5" style="20" customWidth="1"/>
+    <col min="271" max="511" width="8.83203125" style="20"/>
+    <col min="512" max="512" width="2.5" style="20" customWidth="1"/>
     <col min="513" max="513" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="9.140625" style="20"/>
-    <col min="517" max="517" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="38.28515625" style="20" customWidth="1"/>
+    <col min="514" max="514" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="8.83203125" style="20"/>
+    <col min="517" max="517" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="38.33203125" style="20" customWidth="1"/>
     <col min="521" max="521" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.5703125" style="20" customWidth="1"/>
+    <col min="522" max="522" width="7.5" style="20" customWidth="1"/>
     <col min="523" max="523" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="47.5703125" style="20" customWidth="1"/>
-    <col min="527" max="767" width="9.140625" style="20"/>
-    <col min="768" max="768" width="2.42578125" style="20" customWidth="1"/>
+    <col min="524" max="524" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="47.5" style="20" customWidth="1"/>
+    <col min="527" max="767" width="8.83203125" style="20"/>
+    <col min="768" max="768" width="2.5" style="20" customWidth="1"/>
     <col min="769" max="769" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="9.140625" style="20"/>
-    <col min="773" max="773" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="38.28515625" style="20" customWidth="1"/>
+    <col min="770" max="770" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="8.83203125" style="20"/>
+    <col min="773" max="773" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="38.33203125" style="20" customWidth="1"/>
     <col min="777" max="777" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="7.5703125" style="20" customWidth="1"/>
+    <col min="778" max="778" width="7.5" style="20" customWidth="1"/>
     <col min="779" max="779" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="782" max="782" width="47.5703125" style="20" customWidth="1"/>
-    <col min="783" max="1023" width="9.140625" style="20"/>
-    <col min="1024" max="1024" width="2.42578125" style="20" customWidth="1"/>
+    <col min="780" max="780" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="47.5" style="20" customWidth="1"/>
+    <col min="783" max="1023" width="8.83203125" style="20"/>
+    <col min="1024" max="1024" width="2.5" style="20" customWidth="1"/>
     <col min="1025" max="1025" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.140625" style="20"/>
-    <col min="1029" max="1029" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="38.28515625" style="20" customWidth="1"/>
+    <col min="1026" max="1026" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="8.83203125" style="20"/>
+    <col min="1029" max="1029" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="38.33203125" style="20" customWidth="1"/>
     <col min="1033" max="1033" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="7.5703125" style="20" customWidth="1"/>
+    <col min="1034" max="1034" width="7.5" style="20" customWidth="1"/>
     <col min="1035" max="1035" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1038" width="47.5703125" style="20" customWidth="1"/>
-    <col min="1039" max="1279" width="9.140625" style="20"/>
-    <col min="1280" max="1280" width="2.42578125" style="20" customWidth="1"/>
+    <col min="1036" max="1036" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="47.5" style="20" customWidth="1"/>
+    <col min="1039" max="1279" width="8.83203125" style="20"/>
+    <col min="1280" max="1280" width="2.5" style="20" customWidth="1"/>
     <col min="1281" max="1281" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.140625" style="20"/>
-    <col min="1285" max="1285" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="38.28515625" style="20" customWidth="1"/>
+    <col min="1282" max="1282" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="8.83203125" style="20"/>
+    <col min="1285" max="1285" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="38.33203125" style="20" customWidth="1"/>
     <col min="1289" max="1289" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="7.5703125" style="20" customWidth="1"/>
+    <col min="1290" max="1290" width="7.5" style="20" customWidth="1"/>
     <col min="1291" max="1291" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1294" width="47.5703125" style="20" customWidth="1"/>
-    <col min="1295" max="1535" width="9.140625" style="20"/>
-    <col min="1536" max="1536" width="2.42578125" style="20" customWidth="1"/>
+    <col min="1292" max="1292" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="47.5" style="20" customWidth="1"/>
+    <col min="1295" max="1535" width="8.83203125" style="20"/>
+    <col min="1536" max="1536" width="2.5" style="20" customWidth="1"/>
     <col min="1537" max="1537" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.140625" style="20"/>
-    <col min="1541" max="1541" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="38.28515625" style="20" customWidth="1"/>
+    <col min="1538" max="1538" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="8.83203125" style="20"/>
+    <col min="1541" max="1541" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="38.33203125" style="20" customWidth="1"/>
     <col min="1545" max="1545" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="7.5703125" style="20" customWidth="1"/>
+    <col min="1546" max="1546" width="7.5" style="20" customWidth="1"/>
     <col min="1547" max="1547" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1550" width="47.5703125" style="20" customWidth="1"/>
-    <col min="1551" max="1791" width="9.140625" style="20"/>
-    <col min="1792" max="1792" width="2.42578125" style="20" customWidth="1"/>
+    <col min="1548" max="1548" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="47.5" style="20" customWidth="1"/>
+    <col min="1551" max="1791" width="8.83203125" style="20"/>
+    <col min="1792" max="1792" width="2.5" style="20" customWidth="1"/>
     <col min="1793" max="1793" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.140625" style="20"/>
-    <col min="1797" max="1797" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="38.28515625" style="20" customWidth="1"/>
+    <col min="1794" max="1794" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="8.83203125" style="20"/>
+    <col min="1797" max="1797" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="38.33203125" style="20" customWidth="1"/>
     <col min="1801" max="1801" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="7.5703125" style="20" customWidth="1"/>
+    <col min="1802" max="1802" width="7.5" style="20" customWidth="1"/>
     <col min="1803" max="1803" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="1806" max="1806" width="47.5703125" style="20" customWidth="1"/>
-    <col min="1807" max="2047" width="9.140625" style="20"/>
-    <col min="2048" max="2048" width="2.42578125" style="20" customWidth="1"/>
+    <col min="1804" max="1804" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="47.5" style="20" customWidth="1"/>
+    <col min="1807" max="2047" width="8.83203125" style="20"/>
+    <col min="2048" max="2048" width="2.5" style="20" customWidth="1"/>
     <col min="2049" max="2049" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.140625" style="20"/>
-    <col min="2053" max="2053" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="38.28515625" style="20" customWidth="1"/>
+    <col min="2050" max="2050" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="8.83203125" style="20"/>
+    <col min="2053" max="2053" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="38.33203125" style="20" customWidth="1"/>
     <col min="2057" max="2057" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="7.5703125" style="20" customWidth="1"/>
+    <col min="2058" max="2058" width="7.5" style="20" customWidth="1"/>
     <col min="2059" max="2059" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2062" width="47.5703125" style="20" customWidth="1"/>
-    <col min="2063" max="2303" width="9.140625" style="20"/>
-    <col min="2304" max="2304" width="2.42578125" style="20" customWidth="1"/>
+    <col min="2060" max="2060" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="47.5" style="20" customWidth="1"/>
+    <col min="2063" max="2303" width="8.83203125" style="20"/>
+    <col min="2304" max="2304" width="2.5" style="20" customWidth="1"/>
     <col min="2305" max="2305" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.140625" style="20"/>
-    <col min="2309" max="2309" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="38.28515625" style="20" customWidth="1"/>
+    <col min="2306" max="2306" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="8.83203125" style="20"/>
+    <col min="2309" max="2309" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="38.33203125" style="20" customWidth="1"/>
     <col min="2313" max="2313" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="7.5703125" style="20" customWidth="1"/>
+    <col min="2314" max="2314" width="7.5" style="20" customWidth="1"/>
     <col min="2315" max="2315" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2318" width="47.5703125" style="20" customWidth="1"/>
-    <col min="2319" max="2559" width="9.140625" style="20"/>
-    <col min="2560" max="2560" width="2.42578125" style="20" customWidth="1"/>
+    <col min="2316" max="2316" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="47.5" style="20" customWidth="1"/>
+    <col min="2319" max="2559" width="8.83203125" style="20"/>
+    <col min="2560" max="2560" width="2.5" style="20" customWidth="1"/>
     <col min="2561" max="2561" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.140625" style="20"/>
-    <col min="2565" max="2565" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="38.28515625" style="20" customWidth="1"/>
+    <col min="2562" max="2562" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="8.83203125" style="20"/>
+    <col min="2565" max="2565" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="38.33203125" style="20" customWidth="1"/>
     <col min="2569" max="2569" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="7.5703125" style="20" customWidth="1"/>
+    <col min="2570" max="2570" width="7.5" style="20" customWidth="1"/>
     <col min="2571" max="2571" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2574" width="47.5703125" style="20" customWidth="1"/>
-    <col min="2575" max="2815" width="9.140625" style="20"/>
-    <col min="2816" max="2816" width="2.42578125" style="20" customWidth="1"/>
+    <col min="2572" max="2572" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="47.5" style="20" customWidth="1"/>
+    <col min="2575" max="2815" width="8.83203125" style="20"/>
+    <col min="2816" max="2816" width="2.5" style="20" customWidth="1"/>
     <col min="2817" max="2817" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.140625" style="20"/>
-    <col min="2821" max="2821" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="38.28515625" style="20" customWidth="1"/>
+    <col min="2818" max="2818" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="8.83203125" style="20"/>
+    <col min="2821" max="2821" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="38.33203125" style="20" customWidth="1"/>
     <col min="2825" max="2825" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="7.5703125" style="20" customWidth="1"/>
+    <col min="2826" max="2826" width="7.5" style="20" customWidth="1"/>
     <col min="2827" max="2827" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2830" max="2830" width="47.5703125" style="20" customWidth="1"/>
-    <col min="2831" max="3071" width="9.140625" style="20"/>
-    <col min="3072" max="3072" width="2.42578125" style="20" customWidth="1"/>
+    <col min="2828" max="2828" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="47.5" style="20" customWidth="1"/>
+    <col min="2831" max="3071" width="8.83203125" style="20"/>
+    <col min="3072" max="3072" width="2.5" style="20" customWidth="1"/>
     <col min="3073" max="3073" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.140625" style="20"/>
-    <col min="3077" max="3077" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="38.28515625" style="20" customWidth="1"/>
+    <col min="3074" max="3074" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="8.83203125" style="20"/>
+    <col min="3077" max="3077" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="38.33203125" style="20" customWidth="1"/>
     <col min="3081" max="3081" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="7.5703125" style="20" customWidth="1"/>
+    <col min="3082" max="3082" width="7.5" style="20" customWidth="1"/>
     <col min="3083" max="3083" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3086" width="47.5703125" style="20" customWidth="1"/>
-    <col min="3087" max="3327" width="9.140625" style="20"/>
-    <col min="3328" max="3328" width="2.42578125" style="20" customWidth="1"/>
+    <col min="3084" max="3084" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="47.5" style="20" customWidth="1"/>
+    <col min="3087" max="3327" width="8.83203125" style="20"/>
+    <col min="3328" max="3328" width="2.5" style="20" customWidth="1"/>
     <col min="3329" max="3329" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.140625" style="20"/>
-    <col min="3333" max="3333" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="38.28515625" style="20" customWidth="1"/>
+    <col min="3330" max="3330" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="8.83203125" style="20"/>
+    <col min="3333" max="3333" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="38.33203125" style="20" customWidth="1"/>
     <col min="3337" max="3337" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="7.5703125" style="20" customWidth="1"/>
+    <col min="3338" max="3338" width="7.5" style="20" customWidth="1"/>
     <col min="3339" max="3339" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3342" width="47.5703125" style="20" customWidth="1"/>
-    <col min="3343" max="3583" width="9.140625" style="20"/>
-    <col min="3584" max="3584" width="2.42578125" style="20" customWidth="1"/>
+    <col min="3340" max="3340" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="47.5" style="20" customWidth="1"/>
+    <col min="3343" max="3583" width="8.83203125" style="20"/>
+    <col min="3584" max="3584" width="2.5" style="20" customWidth="1"/>
     <col min="3585" max="3585" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.140625" style="20"/>
-    <col min="3589" max="3589" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="38.28515625" style="20" customWidth="1"/>
+    <col min="3586" max="3586" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="8.83203125" style="20"/>
+    <col min="3589" max="3589" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="38.33203125" style="20" customWidth="1"/>
     <col min="3593" max="3593" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="7.5703125" style="20" customWidth="1"/>
+    <col min="3594" max="3594" width="7.5" style="20" customWidth="1"/>
     <col min="3595" max="3595" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3598" width="47.5703125" style="20" customWidth="1"/>
-    <col min="3599" max="3839" width="9.140625" style="20"/>
-    <col min="3840" max="3840" width="2.42578125" style="20" customWidth="1"/>
+    <col min="3596" max="3596" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="47.5" style="20" customWidth="1"/>
+    <col min="3599" max="3839" width="8.83203125" style="20"/>
+    <col min="3840" max="3840" width="2.5" style="20" customWidth="1"/>
     <col min="3841" max="3841" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.140625" style="20"/>
-    <col min="3845" max="3845" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="38.28515625" style="20" customWidth="1"/>
+    <col min="3842" max="3842" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="8.83203125" style="20"/>
+    <col min="3845" max="3845" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="38.33203125" style="20" customWidth="1"/>
     <col min="3849" max="3849" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="7.5703125" style="20" customWidth="1"/>
+    <col min="3850" max="3850" width="7.5" style="20" customWidth="1"/>
     <col min="3851" max="3851" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3854" max="3854" width="47.5703125" style="20" customWidth="1"/>
-    <col min="3855" max="4095" width="9.140625" style="20"/>
-    <col min="4096" max="4096" width="2.42578125" style="20" customWidth="1"/>
+    <col min="3852" max="3852" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="47.5" style="20" customWidth="1"/>
+    <col min="3855" max="4095" width="8.83203125" style="20"/>
+    <col min="4096" max="4096" width="2.5" style="20" customWidth="1"/>
     <col min="4097" max="4097" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.140625" style="20"/>
-    <col min="4101" max="4101" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="38.28515625" style="20" customWidth="1"/>
+    <col min="4098" max="4098" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="8.83203125" style="20"/>
+    <col min="4101" max="4101" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="38.33203125" style="20" customWidth="1"/>
     <col min="4105" max="4105" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="7.5703125" style="20" customWidth="1"/>
+    <col min="4106" max="4106" width="7.5" style="20" customWidth="1"/>
     <col min="4107" max="4107" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4110" width="47.5703125" style="20" customWidth="1"/>
-    <col min="4111" max="4351" width="9.140625" style="20"/>
-    <col min="4352" max="4352" width="2.42578125" style="20" customWidth="1"/>
+    <col min="4108" max="4108" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="47.5" style="20" customWidth="1"/>
+    <col min="4111" max="4351" width="8.83203125" style="20"/>
+    <col min="4352" max="4352" width="2.5" style="20" customWidth="1"/>
     <col min="4353" max="4353" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.140625" style="20"/>
-    <col min="4357" max="4357" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="38.28515625" style="20" customWidth="1"/>
+    <col min="4354" max="4354" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="8.83203125" style="20"/>
+    <col min="4357" max="4357" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="38.33203125" style="20" customWidth="1"/>
     <col min="4361" max="4361" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="7.5703125" style="20" customWidth="1"/>
+    <col min="4362" max="4362" width="7.5" style="20" customWidth="1"/>
     <col min="4363" max="4363" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4366" width="47.5703125" style="20" customWidth="1"/>
-    <col min="4367" max="4607" width="9.140625" style="20"/>
-    <col min="4608" max="4608" width="2.42578125" style="20" customWidth="1"/>
+    <col min="4364" max="4364" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="47.5" style="20" customWidth="1"/>
+    <col min="4367" max="4607" width="8.83203125" style="20"/>
+    <col min="4608" max="4608" width="2.5" style="20" customWidth="1"/>
     <col min="4609" max="4609" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.140625" style="20"/>
-    <col min="4613" max="4613" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="38.28515625" style="20" customWidth="1"/>
+    <col min="4610" max="4610" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="8.83203125" style="20"/>
+    <col min="4613" max="4613" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="38.33203125" style="20" customWidth="1"/>
     <col min="4617" max="4617" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="7.5703125" style="20" customWidth="1"/>
+    <col min="4618" max="4618" width="7.5" style="20" customWidth="1"/>
     <col min="4619" max="4619" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4622" width="47.5703125" style="20" customWidth="1"/>
-    <col min="4623" max="4863" width="9.140625" style="20"/>
-    <col min="4864" max="4864" width="2.42578125" style="20" customWidth="1"/>
+    <col min="4620" max="4620" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="47.5" style="20" customWidth="1"/>
+    <col min="4623" max="4863" width="8.83203125" style="20"/>
+    <col min="4864" max="4864" width="2.5" style="20" customWidth="1"/>
     <col min="4865" max="4865" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.140625" style="20"/>
-    <col min="4869" max="4869" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="38.28515625" style="20" customWidth="1"/>
+    <col min="4866" max="4866" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="8.83203125" style="20"/>
+    <col min="4869" max="4869" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="38.33203125" style="20" customWidth="1"/>
     <col min="4873" max="4873" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="7.5703125" style="20" customWidth="1"/>
+    <col min="4874" max="4874" width="7.5" style="20" customWidth="1"/>
     <col min="4875" max="4875" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4878" max="4878" width="47.5703125" style="20" customWidth="1"/>
-    <col min="4879" max="5119" width="9.140625" style="20"/>
-    <col min="5120" max="5120" width="2.42578125" style="20" customWidth="1"/>
+    <col min="4876" max="4876" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="47.5" style="20" customWidth="1"/>
+    <col min="4879" max="5119" width="8.83203125" style="20"/>
+    <col min="5120" max="5120" width="2.5" style="20" customWidth="1"/>
     <col min="5121" max="5121" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.140625" style="20"/>
-    <col min="5125" max="5125" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="38.28515625" style="20" customWidth="1"/>
+    <col min="5122" max="5122" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="8.83203125" style="20"/>
+    <col min="5125" max="5125" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="38.33203125" style="20" customWidth="1"/>
     <col min="5129" max="5129" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="7.5703125" style="20" customWidth="1"/>
+    <col min="5130" max="5130" width="7.5" style="20" customWidth="1"/>
     <col min="5131" max="5131" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5134" width="47.5703125" style="20" customWidth="1"/>
-    <col min="5135" max="5375" width="9.140625" style="20"/>
-    <col min="5376" max="5376" width="2.42578125" style="20" customWidth="1"/>
+    <col min="5132" max="5132" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="47.5" style="20" customWidth="1"/>
+    <col min="5135" max="5375" width="8.83203125" style="20"/>
+    <col min="5376" max="5376" width="2.5" style="20" customWidth="1"/>
     <col min="5377" max="5377" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.140625" style="20"/>
-    <col min="5381" max="5381" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="38.28515625" style="20" customWidth="1"/>
+    <col min="5378" max="5378" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="8.83203125" style="20"/>
+    <col min="5381" max="5381" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="38.33203125" style="20" customWidth="1"/>
     <col min="5385" max="5385" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="7.5703125" style="20" customWidth="1"/>
+    <col min="5386" max="5386" width="7.5" style="20" customWidth="1"/>
     <col min="5387" max="5387" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5390" width="47.5703125" style="20" customWidth="1"/>
-    <col min="5391" max="5631" width="9.140625" style="20"/>
-    <col min="5632" max="5632" width="2.42578125" style="20" customWidth="1"/>
+    <col min="5388" max="5388" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="47.5" style="20" customWidth="1"/>
+    <col min="5391" max="5631" width="8.83203125" style="20"/>
+    <col min="5632" max="5632" width="2.5" style="20" customWidth="1"/>
     <col min="5633" max="5633" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.140625" style="20"/>
-    <col min="5637" max="5637" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="38.28515625" style="20" customWidth="1"/>
+    <col min="5634" max="5634" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="8.83203125" style="20"/>
+    <col min="5637" max="5637" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="38.33203125" style="20" customWidth="1"/>
     <col min="5641" max="5641" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="7.5703125" style="20" customWidth="1"/>
+    <col min="5642" max="5642" width="7.5" style="20" customWidth="1"/>
     <col min="5643" max="5643" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5646" width="47.5703125" style="20" customWidth="1"/>
-    <col min="5647" max="5887" width="9.140625" style="20"/>
-    <col min="5888" max="5888" width="2.42578125" style="20" customWidth="1"/>
+    <col min="5644" max="5644" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="47.5" style="20" customWidth="1"/>
+    <col min="5647" max="5887" width="8.83203125" style="20"/>
+    <col min="5888" max="5888" width="2.5" style="20" customWidth="1"/>
     <col min="5889" max="5889" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.140625" style="20"/>
-    <col min="5893" max="5893" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="38.28515625" style="20" customWidth="1"/>
+    <col min="5890" max="5890" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="8.83203125" style="20"/>
+    <col min="5893" max="5893" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="38.33203125" style="20" customWidth="1"/>
     <col min="5897" max="5897" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="7.5703125" style="20" customWidth="1"/>
+    <col min="5898" max="5898" width="7.5" style="20" customWidth="1"/>
     <col min="5899" max="5899" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5902" max="5902" width="47.5703125" style="20" customWidth="1"/>
-    <col min="5903" max="6143" width="9.140625" style="20"/>
-    <col min="6144" max="6144" width="2.42578125" style="20" customWidth="1"/>
+    <col min="5900" max="5900" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="47.5" style="20" customWidth="1"/>
+    <col min="5903" max="6143" width="8.83203125" style="20"/>
+    <col min="6144" max="6144" width="2.5" style="20" customWidth="1"/>
     <col min="6145" max="6145" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.140625" style="20"/>
-    <col min="6149" max="6149" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="38.28515625" style="20" customWidth="1"/>
+    <col min="6146" max="6146" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="8.83203125" style="20"/>
+    <col min="6149" max="6149" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="38.33203125" style="20" customWidth="1"/>
     <col min="6153" max="6153" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="7.5703125" style="20" customWidth="1"/>
+    <col min="6154" max="6154" width="7.5" style="20" customWidth="1"/>
     <col min="6155" max="6155" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6158" width="47.5703125" style="20" customWidth="1"/>
-    <col min="6159" max="6399" width="9.140625" style="20"/>
-    <col min="6400" max="6400" width="2.42578125" style="20" customWidth="1"/>
+    <col min="6156" max="6156" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="47.5" style="20" customWidth="1"/>
+    <col min="6159" max="6399" width="8.83203125" style="20"/>
+    <col min="6400" max="6400" width="2.5" style="20" customWidth="1"/>
     <col min="6401" max="6401" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.140625" style="20"/>
-    <col min="6405" max="6405" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="38.28515625" style="20" customWidth="1"/>
+    <col min="6402" max="6402" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="8.83203125" style="20"/>
+    <col min="6405" max="6405" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="38.33203125" style="20" customWidth="1"/>
     <col min="6409" max="6409" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="7.5703125" style="20" customWidth="1"/>
+    <col min="6410" max="6410" width="7.5" style="20" customWidth="1"/>
     <col min="6411" max="6411" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6414" width="47.5703125" style="20" customWidth="1"/>
-    <col min="6415" max="6655" width="9.140625" style="20"/>
-    <col min="6656" max="6656" width="2.42578125" style="20" customWidth="1"/>
+    <col min="6412" max="6412" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="47.5" style="20" customWidth="1"/>
+    <col min="6415" max="6655" width="8.83203125" style="20"/>
+    <col min="6656" max="6656" width="2.5" style="20" customWidth="1"/>
     <col min="6657" max="6657" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.140625" style="20"/>
-    <col min="6661" max="6661" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="38.28515625" style="20" customWidth="1"/>
+    <col min="6658" max="6658" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="8.83203125" style="20"/>
+    <col min="6661" max="6661" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="38.33203125" style="20" customWidth="1"/>
     <col min="6665" max="6665" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="7.5703125" style="20" customWidth="1"/>
+    <col min="6666" max="6666" width="7.5" style="20" customWidth="1"/>
     <col min="6667" max="6667" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6670" width="47.5703125" style="20" customWidth="1"/>
-    <col min="6671" max="6911" width="9.140625" style="20"/>
-    <col min="6912" max="6912" width="2.42578125" style="20" customWidth="1"/>
+    <col min="6668" max="6668" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="47.5" style="20" customWidth="1"/>
+    <col min="6671" max="6911" width="8.83203125" style="20"/>
+    <col min="6912" max="6912" width="2.5" style="20" customWidth="1"/>
     <col min="6913" max="6913" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.140625" style="20"/>
-    <col min="6917" max="6917" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="38.28515625" style="20" customWidth="1"/>
+    <col min="6914" max="6914" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="8.83203125" style="20"/>
+    <col min="6917" max="6917" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="38.33203125" style="20" customWidth="1"/>
     <col min="6921" max="6921" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="7.5703125" style="20" customWidth="1"/>
+    <col min="6922" max="6922" width="7.5" style="20" customWidth="1"/>
     <col min="6923" max="6923" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6926" max="6926" width="47.5703125" style="20" customWidth="1"/>
-    <col min="6927" max="7167" width="9.140625" style="20"/>
-    <col min="7168" max="7168" width="2.42578125" style="20" customWidth="1"/>
+    <col min="6924" max="6924" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="47.5" style="20" customWidth="1"/>
+    <col min="6927" max="7167" width="8.83203125" style="20"/>
+    <col min="7168" max="7168" width="2.5" style="20" customWidth="1"/>
     <col min="7169" max="7169" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.140625" style="20"/>
-    <col min="7173" max="7173" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="38.28515625" style="20" customWidth="1"/>
+    <col min="7170" max="7170" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="8.83203125" style="20"/>
+    <col min="7173" max="7173" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="38.33203125" style="20" customWidth="1"/>
     <col min="7177" max="7177" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="7.5703125" style="20" customWidth="1"/>
+    <col min="7178" max="7178" width="7.5" style="20" customWidth="1"/>
     <col min="7179" max="7179" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7182" width="47.5703125" style="20" customWidth="1"/>
-    <col min="7183" max="7423" width="9.140625" style="20"/>
-    <col min="7424" max="7424" width="2.42578125" style="20" customWidth="1"/>
+    <col min="7180" max="7180" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="47.5" style="20" customWidth="1"/>
+    <col min="7183" max="7423" width="8.83203125" style="20"/>
+    <col min="7424" max="7424" width="2.5" style="20" customWidth="1"/>
     <col min="7425" max="7425" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.140625" style="20"/>
-    <col min="7429" max="7429" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="38.28515625" style="20" customWidth="1"/>
+    <col min="7426" max="7426" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="8.83203125" style="20"/>
+    <col min="7429" max="7429" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="38.33203125" style="20" customWidth="1"/>
     <col min="7433" max="7433" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="7.5703125" style="20" customWidth="1"/>
+    <col min="7434" max="7434" width="7.5" style="20" customWidth="1"/>
     <col min="7435" max="7435" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7438" width="47.5703125" style="20" customWidth="1"/>
-    <col min="7439" max="7679" width="9.140625" style="20"/>
-    <col min="7680" max="7680" width="2.42578125" style="20" customWidth="1"/>
+    <col min="7436" max="7436" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="47.5" style="20" customWidth="1"/>
+    <col min="7439" max="7679" width="8.83203125" style="20"/>
+    <col min="7680" max="7680" width="2.5" style="20" customWidth="1"/>
     <col min="7681" max="7681" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.140625" style="20"/>
-    <col min="7685" max="7685" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="38.28515625" style="20" customWidth="1"/>
+    <col min="7682" max="7682" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="8.83203125" style="20"/>
+    <col min="7685" max="7685" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="38.33203125" style="20" customWidth="1"/>
     <col min="7689" max="7689" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="7.5703125" style="20" customWidth="1"/>
+    <col min="7690" max="7690" width="7.5" style="20" customWidth="1"/>
     <col min="7691" max="7691" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7694" width="47.5703125" style="20" customWidth="1"/>
-    <col min="7695" max="7935" width="9.140625" style="20"/>
-    <col min="7936" max="7936" width="2.42578125" style="20" customWidth="1"/>
+    <col min="7692" max="7692" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="47.5" style="20" customWidth="1"/>
+    <col min="7695" max="7935" width="8.83203125" style="20"/>
+    <col min="7936" max="7936" width="2.5" style="20" customWidth="1"/>
     <col min="7937" max="7937" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.140625" style="20"/>
-    <col min="7941" max="7941" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="38.28515625" style="20" customWidth="1"/>
+    <col min="7938" max="7938" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="8.83203125" style="20"/>
+    <col min="7941" max="7941" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="38.33203125" style="20" customWidth="1"/>
     <col min="7945" max="7945" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="7.5703125" style="20" customWidth="1"/>
+    <col min="7946" max="7946" width="7.5" style="20" customWidth="1"/>
     <col min="7947" max="7947" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7950" max="7950" width="47.5703125" style="20" customWidth="1"/>
-    <col min="7951" max="8191" width="9.140625" style="20"/>
-    <col min="8192" max="8192" width="2.42578125" style="20" customWidth="1"/>
+    <col min="7948" max="7948" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="47.5" style="20" customWidth="1"/>
+    <col min="7951" max="8191" width="8.83203125" style="20"/>
+    <col min="8192" max="8192" width="2.5" style="20" customWidth="1"/>
     <col min="8193" max="8193" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.140625" style="20"/>
-    <col min="8197" max="8197" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="38.28515625" style="20" customWidth="1"/>
+    <col min="8194" max="8194" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="8.83203125" style="20"/>
+    <col min="8197" max="8197" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="38.33203125" style="20" customWidth="1"/>
     <col min="8201" max="8201" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="7.5703125" style="20" customWidth="1"/>
+    <col min="8202" max="8202" width="7.5" style="20" customWidth="1"/>
     <col min="8203" max="8203" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8206" width="47.5703125" style="20" customWidth="1"/>
-    <col min="8207" max="8447" width="9.140625" style="20"/>
-    <col min="8448" max="8448" width="2.42578125" style="20" customWidth="1"/>
+    <col min="8204" max="8204" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="47.5" style="20" customWidth="1"/>
+    <col min="8207" max="8447" width="8.83203125" style="20"/>
+    <col min="8448" max="8448" width="2.5" style="20" customWidth="1"/>
     <col min="8449" max="8449" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.140625" style="20"/>
-    <col min="8453" max="8453" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="38.28515625" style="20" customWidth="1"/>
+    <col min="8450" max="8450" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="8.83203125" style="20"/>
+    <col min="8453" max="8453" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="38.33203125" style="20" customWidth="1"/>
     <col min="8457" max="8457" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="7.5703125" style="20" customWidth="1"/>
+    <col min="8458" max="8458" width="7.5" style="20" customWidth="1"/>
     <col min="8459" max="8459" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8462" width="47.5703125" style="20" customWidth="1"/>
-    <col min="8463" max="8703" width="9.140625" style="20"/>
-    <col min="8704" max="8704" width="2.42578125" style="20" customWidth="1"/>
+    <col min="8460" max="8460" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="47.5" style="20" customWidth="1"/>
+    <col min="8463" max="8703" width="8.83203125" style="20"/>
+    <col min="8704" max="8704" width="2.5" style="20" customWidth="1"/>
     <col min="8705" max="8705" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.140625" style="20"/>
-    <col min="8709" max="8709" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="38.28515625" style="20" customWidth="1"/>
+    <col min="8706" max="8706" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="8.83203125" style="20"/>
+    <col min="8709" max="8709" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="38.33203125" style="20" customWidth="1"/>
     <col min="8713" max="8713" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="7.5703125" style="20" customWidth="1"/>
+    <col min="8714" max="8714" width="7.5" style="20" customWidth="1"/>
     <col min="8715" max="8715" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8718" width="47.5703125" style="20" customWidth="1"/>
-    <col min="8719" max="8959" width="9.140625" style="20"/>
-    <col min="8960" max="8960" width="2.42578125" style="20" customWidth="1"/>
+    <col min="8716" max="8716" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="47.5" style="20" customWidth="1"/>
+    <col min="8719" max="8959" width="8.83203125" style="20"/>
+    <col min="8960" max="8960" width="2.5" style="20" customWidth="1"/>
     <col min="8961" max="8961" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.140625" style="20"/>
-    <col min="8965" max="8965" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="38.28515625" style="20" customWidth="1"/>
+    <col min="8962" max="8962" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="8.83203125" style="20"/>
+    <col min="8965" max="8965" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="38.33203125" style="20" customWidth="1"/>
     <col min="8969" max="8969" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="7.5703125" style="20" customWidth="1"/>
+    <col min="8970" max="8970" width="7.5" style="20" customWidth="1"/>
     <col min="8971" max="8971" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8974" max="8974" width="47.5703125" style="20" customWidth="1"/>
-    <col min="8975" max="9215" width="9.140625" style="20"/>
-    <col min="9216" max="9216" width="2.42578125" style="20" customWidth="1"/>
+    <col min="8972" max="8972" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="47.5" style="20" customWidth="1"/>
+    <col min="8975" max="9215" width="8.83203125" style="20"/>
+    <col min="9216" max="9216" width="2.5" style="20" customWidth="1"/>
     <col min="9217" max="9217" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.140625" style="20"/>
-    <col min="9221" max="9221" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="38.28515625" style="20" customWidth="1"/>
+    <col min="9218" max="9218" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="8.83203125" style="20"/>
+    <col min="9221" max="9221" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="38.33203125" style="20" customWidth="1"/>
     <col min="9225" max="9225" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="7.5703125" style="20" customWidth="1"/>
+    <col min="9226" max="9226" width="7.5" style="20" customWidth="1"/>
     <col min="9227" max="9227" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9230" width="47.5703125" style="20" customWidth="1"/>
-    <col min="9231" max="9471" width="9.140625" style="20"/>
-    <col min="9472" max="9472" width="2.42578125" style="20" customWidth="1"/>
+    <col min="9228" max="9228" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="47.5" style="20" customWidth="1"/>
+    <col min="9231" max="9471" width="8.83203125" style="20"/>
+    <col min="9472" max="9472" width="2.5" style="20" customWidth="1"/>
     <col min="9473" max="9473" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.140625" style="20"/>
-    <col min="9477" max="9477" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="38.28515625" style="20" customWidth="1"/>
+    <col min="9474" max="9474" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="8.83203125" style="20"/>
+    <col min="9477" max="9477" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="38.33203125" style="20" customWidth="1"/>
     <col min="9481" max="9481" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="7.5703125" style="20" customWidth="1"/>
+    <col min="9482" max="9482" width="7.5" style="20" customWidth="1"/>
     <col min="9483" max="9483" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9486" width="47.5703125" style="20" customWidth="1"/>
-    <col min="9487" max="9727" width="9.140625" style="20"/>
-    <col min="9728" max="9728" width="2.42578125" style="20" customWidth="1"/>
+    <col min="9484" max="9484" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="47.5" style="20" customWidth="1"/>
+    <col min="9487" max="9727" width="8.83203125" style="20"/>
+    <col min="9728" max="9728" width="2.5" style="20" customWidth="1"/>
     <col min="9729" max="9729" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.140625" style="20"/>
-    <col min="9733" max="9733" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="38.28515625" style="20" customWidth="1"/>
+    <col min="9730" max="9730" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="8.83203125" style="20"/>
+    <col min="9733" max="9733" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="38.33203125" style="20" customWidth="1"/>
     <col min="9737" max="9737" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="7.5703125" style="20" customWidth="1"/>
+    <col min="9738" max="9738" width="7.5" style="20" customWidth="1"/>
     <col min="9739" max="9739" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9742" width="47.5703125" style="20" customWidth="1"/>
-    <col min="9743" max="9983" width="9.140625" style="20"/>
-    <col min="9984" max="9984" width="2.42578125" style="20" customWidth="1"/>
+    <col min="9740" max="9740" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="47.5" style="20" customWidth="1"/>
+    <col min="9743" max="9983" width="8.83203125" style="20"/>
+    <col min="9984" max="9984" width="2.5" style="20" customWidth="1"/>
     <col min="9985" max="9985" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.140625" style="20"/>
-    <col min="9989" max="9989" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="38.28515625" style="20" customWidth="1"/>
+    <col min="9986" max="9986" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="8.83203125" style="20"/>
+    <col min="9989" max="9989" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="38.33203125" style="20" customWidth="1"/>
     <col min="9993" max="9993" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="7.5703125" style="20" customWidth="1"/>
+    <col min="9994" max="9994" width="7.5" style="20" customWidth="1"/>
     <col min="9995" max="9995" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9998" max="9998" width="47.5703125" style="20" customWidth="1"/>
-    <col min="9999" max="10239" width="9.140625" style="20"/>
-    <col min="10240" max="10240" width="2.42578125" style="20" customWidth="1"/>
+    <col min="9996" max="9996" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="47.5" style="20" customWidth="1"/>
+    <col min="9999" max="10239" width="8.83203125" style="20"/>
+    <col min="10240" max="10240" width="2.5" style="20" customWidth="1"/>
     <col min="10241" max="10241" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.140625" style="20"/>
-    <col min="10245" max="10245" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="38.28515625" style="20" customWidth="1"/>
+    <col min="10242" max="10242" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="8.83203125" style="20"/>
+    <col min="10245" max="10245" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="38.33203125" style="20" customWidth="1"/>
     <col min="10249" max="10249" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="7.5703125" style="20" customWidth="1"/>
+    <col min="10250" max="10250" width="7.5" style="20" customWidth="1"/>
     <col min="10251" max="10251" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10254" width="47.5703125" style="20" customWidth="1"/>
-    <col min="10255" max="10495" width="9.140625" style="20"/>
-    <col min="10496" max="10496" width="2.42578125" style="20" customWidth="1"/>
+    <col min="10252" max="10252" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="47.5" style="20" customWidth="1"/>
+    <col min="10255" max="10495" width="8.83203125" style="20"/>
+    <col min="10496" max="10496" width="2.5" style="20" customWidth="1"/>
     <col min="10497" max="10497" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.140625" style="20"/>
-    <col min="10501" max="10501" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="38.28515625" style="20" customWidth="1"/>
+    <col min="10498" max="10498" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="8.83203125" style="20"/>
+    <col min="10501" max="10501" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="38.33203125" style="20" customWidth="1"/>
     <col min="10505" max="10505" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="7.5703125" style="20" customWidth="1"/>
+    <col min="10506" max="10506" width="7.5" style="20" customWidth="1"/>
     <col min="10507" max="10507" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10510" width="47.5703125" style="20" customWidth="1"/>
-    <col min="10511" max="10751" width="9.140625" style="20"/>
-    <col min="10752" max="10752" width="2.42578125" style="20" customWidth="1"/>
+    <col min="10508" max="10508" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="47.5" style="20" customWidth="1"/>
+    <col min="10511" max="10751" width="8.83203125" style="20"/>
+    <col min="10752" max="10752" width="2.5" style="20" customWidth="1"/>
     <col min="10753" max="10753" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.140625" style="20"/>
-    <col min="10757" max="10757" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="38.28515625" style="20" customWidth="1"/>
+    <col min="10754" max="10754" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="8.83203125" style="20"/>
+    <col min="10757" max="10757" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="38.33203125" style="20" customWidth="1"/>
     <col min="10761" max="10761" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="7.5703125" style="20" customWidth="1"/>
+    <col min="10762" max="10762" width="7.5" style="20" customWidth="1"/>
     <col min="10763" max="10763" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10766" max="10766" width="47.5703125" style="20" customWidth="1"/>
-    <col min="10767" max="11007" width="9.140625" style="20"/>
-    <col min="11008" max="11008" width="2.42578125" style="20" customWidth="1"/>
+    <col min="10764" max="10764" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="47.5" style="20" customWidth="1"/>
+    <col min="10767" max="11007" width="8.83203125" style="20"/>
+    <col min="11008" max="11008" width="2.5" style="20" customWidth="1"/>
     <col min="11009" max="11009" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.140625" style="20"/>
-    <col min="11013" max="11013" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="38.28515625" style="20" customWidth="1"/>
+    <col min="11010" max="11010" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="8.83203125" style="20"/>
+    <col min="11013" max="11013" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="38.33203125" style="20" customWidth="1"/>
     <col min="11017" max="11017" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="7.5703125" style="20" customWidth="1"/>
+    <col min="11018" max="11018" width="7.5" style="20" customWidth="1"/>
     <col min="11019" max="11019" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11022" width="47.5703125" style="20" customWidth="1"/>
-    <col min="11023" max="11263" width="9.140625" style="20"/>
-    <col min="11264" max="11264" width="2.42578125" style="20" customWidth="1"/>
+    <col min="11020" max="11020" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="47.5" style="20" customWidth="1"/>
+    <col min="11023" max="11263" width="8.83203125" style="20"/>
+    <col min="11264" max="11264" width="2.5" style="20" customWidth="1"/>
     <col min="11265" max="11265" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.140625" style="20"/>
-    <col min="11269" max="11269" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="38.28515625" style="20" customWidth="1"/>
+    <col min="11266" max="11266" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="8.83203125" style="20"/>
+    <col min="11269" max="11269" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="38.33203125" style="20" customWidth="1"/>
     <col min="11273" max="11273" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="7.5703125" style="20" customWidth="1"/>
+    <col min="11274" max="11274" width="7.5" style="20" customWidth="1"/>
     <col min="11275" max="11275" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11278" width="47.5703125" style="20" customWidth="1"/>
-    <col min="11279" max="11519" width="9.140625" style="20"/>
-    <col min="11520" max="11520" width="2.42578125" style="20" customWidth="1"/>
+    <col min="11276" max="11276" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="47.5" style="20" customWidth="1"/>
+    <col min="11279" max="11519" width="8.83203125" style="20"/>
+    <col min="11520" max="11520" width="2.5" style="20" customWidth="1"/>
     <col min="11521" max="11521" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.140625" style="20"/>
-    <col min="11525" max="11525" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="38.28515625" style="20" customWidth="1"/>
+    <col min="11522" max="11522" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="8.83203125" style="20"/>
+    <col min="11525" max="11525" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="38.33203125" style="20" customWidth="1"/>
     <col min="11529" max="11529" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="7.5703125" style="20" customWidth="1"/>
+    <col min="11530" max="11530" width="7.5" style="20" customWidth="1"/>
     <col min="11531" max="11531" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11534" width="47.5703125" style="20" customWidth="1"/>
-    <col min="11535" max="11775" width="9.140625" style="20"/>
-    <col min="11776" max="11776" width="2.42578125" style="20" customWidth="1"/>
+    <col min="11532" max="11532" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="47.5" style="20" customWidth="1"/>
+    <col min="11535" max="11775" width="8.83203125" style="20"/>
+    <col min="11776" max="11776" width="2.5" style="20" customWidth="1"/>
     <col min="11777" max="11777" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.140625" style="20"/>
-    <col min="11781" max="11781" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="38.28515625" style="20" customWidth="1"/>
+    <col min="11778" max="11778" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="8.83203125" style="20"/>
+    <col min="11781" max="11781" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="38.33203125" style="20" customWidth="1"/>
     <col min="11785" max="11785" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="7.5703125" style="20" customWidth="1"/>
+    <col min="11786" max="11786" width="7.5" style="20" customWidth="1"/>
     <col min="11787" max="11787" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11790" max="11790" width="47.5703125" style="20" customWidth="1"/>
-    <col min="11791" max="12031" width="9.140625" style="20"/>
-    <col min="12032" max="12032" width="2.42578125" style="20" customWidth="1"/>
+    <col min="11788" max="11788" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="47.5" style="20" customWidth="1"/>
+    <col min="11791" max="12031" width="8.83203125" style="20"/>
+    <col min="12032" max="12032" width="2.5" style="20" customWidth="1"/>
     <col min="12033" max="12033" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.140625" style="20"/>
-    <col min="12037" max="12037" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="38.28515625" style="20" customWidth="1"/>
+    <col min="12034" max="12034" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="8.83203125" style="20"/>
+    <col min="12037" max="12037" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="38.33203125" style="20" customWidth="1"/>
     <col min="12041" max="12041" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="7.5703125" style="20" customWidth="1"/>
+    <col min="12042" max="12042" width="7.5" style="20" customWidth="1"/>
     <col min="12043" max="12043" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12046" width="47.5703125" style="20" customWidth="1"/>
-    <col min="12047" max="12287" width="9.140625" style="20"/>
-    <col min="12288" max="12288" width="2.42578125" style="20" customWidth="1"/>
+    <col min="12044" max="12044" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="47.5" style="20" customWidth="1"/>
+    <col min="12047" max="12287" width="8.83203125" style="20"/>
+    <col min="12288" max="12288" width="2.5" style="20" customWidth="1"/>
     <col min="12289" max="12289" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.140625" style="20"/>
-    <col min="12293" max="12293" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="38.28515625" style="20" customWidth="1"/>
+    <col min="12290" max="12290" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="8.83203125" style="20"/>
+    <col min="12293" max="12293" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="38.33203125" style="20" customWidth="1"/>
     <col min="12297" max="12297" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="7.5703125" style="20" customWidth="1"/>
+    <col min="12298" max="12298" width="7.5" style="20" customWidth="1"/>
     <col min="12299" max="12299" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12302" width="47.5703125" style="20" customWidth="1"/>
-    <col min="12303" max="12543" width="9.140625" style="20"/>
-    <col min="12544" max="12544" width="2.42578125" style="20" customWidth="1"/>
+    <col min="12300" max="12300" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="47.5" style="20" customWidth="1"/>
+    <col min="12303" max="12543" width="8.83203125" style="20"/>
+    <col min="12544" max="12544" width="2.5" style="20" customWidth="1"/>
     <col min="12545" max="12545" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.140625" style="20"/>
-    <col min="12549" max="12549" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="38.28515625" style="20" customWidth="1"/>
+    <col min="12546" max="12546" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="8.83203125" style="20"/>
+    <col min="12549" max="12549" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="38.33203125" style="20" customWidth="1"/>
     <col min="12553" max="12553" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="7.5703125" style="20" customWidth="1"/>
+    <col min="12554" max="12554" width="7.5" style="20" customWidth="1"/>
     <col min="12555" max="12555" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12558" width="47.5703125" style="20" customWidth="1"/>
-    <col min="12559" max="12799" width="9.140625" style="20"/>
-    <col min="12800" max="12800" width="2.42578125" style="20" customWidth="1"/>
+    <col min="12556" max="12556" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="47.5" style="20" customWidth="1"/>
+    <col min="12559" max="12799" width="8.83203125" style="20"/>
+    <col min="12800" max="12800" width="2.5" style="20" customWidth="1"/>
     <col min="12801" max="12801" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.140625" style="20"/>
-    <col min="12805" max="12805" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="38.28515625" style="20" customWidth="1"/>
+    <col min="12802" max="12802" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="8.83203125" style="20"/>
+    <col min="12805" max="12805" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="38.33203125" style="20" customWidth="1"/>
     <col min="12809" max="12809" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="7.5703125" style="20" customWidth="1"/>
+    <col min="12810" max="12810" width="7.5" style="20" customWidth="1"/>
     <col min="12811" max="12811" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12814" max="12814" width="47.5703125" style="20" customWidth="1"/>
-    <col min="12815" max="13055" width="9.140625" style="20"/>
-    <col min="13056" max="13056" width="2.42578125" style="20" customWidth="1"/>
+    <col min="12812" max="12812" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="47.5" style="20" customWidth="1"/>
+    <col min="12815" max="13055" width="8.83203125" style="20"/>
+    <col min="13056" max="13056" width="2.5" style="20" customWidth="1"/>
     <col min="13057" max="13057" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.140625" style="20"/>
-    <col min="13061" max="13061" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="38.28515625" style="20" customWidth="1"/>
+    <col min="13058" max="13058" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="8.83203125" style="20"/>
+    <col min="13061" max="13061" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="38.33203125" style="20" customWidth="1"/>
     <col min="13065" max="13065" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="7.5703125" style="20" customWidth="1"/>
+    <col min="13066" max="13066" width="7.5" style="20" customWidth="1"/>
     <col min="13067" max="13067" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13070" width="47.5703125" style="20" customWidth="1"/>
-    <col min="13071" max="13311" width="9.140625" style="20"/>
-    <col min="13312" max="13312" width="2.42578125" style="20" customWidth="1"/>
+    <col min="13068" max="13068" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="47.5" style="20" customWidth="1"/>
+    <col min="13071" max="13311" width="8.83203125" style="20"/>
+    <col min="13312" max="13312" width="2.5" style="20" customWidth="1"/>
     <col min="13313" max="13313" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.140625" style="20"/>
-    <col min="13317" max="13317" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="38.28515625" style="20" customWidth="1"/>
+    <col min="13314" max="13314" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="8.83203125" style="20"/>
+    <col min="13317" max="13317" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="38.33203125" style="20" customWidth="1"/>
     <col min="13321" max="13321" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="7.5703125" style="20" customWidth="1"/>
+    <col min="13322" max="13322" width="7.5" style="20" customWidth="1"/>
     <col min="13323" max="13323" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13326" width="47.5703125" style="20" customWidth="1"/>
-    <col min="13327" max="13567" width="9.140625" style="20"/>
-    <col min="13568" max="13568" width="2.42578125" style="20" customWidth="1"/>
+    <col min="13324" max="13324" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="47.5" style="20" customWidth="1"/>
+    <col min="13327" max="13567" width="8.83203125" style="20"/>
+    <col min="13568" max="13568" width="2.5" style="20" customWidth="1"/>
     <col min="13569" max="13569" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.140625" style="20"/>
-    <col min="13573" max="13573" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="38.28515625" style="20" customWidth="1"/>
+    <col min="13570" max="13570" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="8.83203125" style="20"/>
+    <col min="13573" max="13573" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="38.33203125" style="20" customWidth="1"/>
     <col min="13577" max="13577" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="7.5703125" style="20" customWidth="1"/>
+    <col min="13578" max="13578" width="7.5" style="20" customWidth="1"/>
     <col min="13579" max="13579" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13582" width="47.5703125" style="20" customWidth="1"/>
-    <col min="13583" max="13823" width="9.140625" style="20"/>
-    <col min="13824" max="13824" width="2.42578125" style="20" customWidth="1"/>
+    <col min="13580" max="13580" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="47.5" style="20" customWidth="1"/>
+    <col min="13583" max="13823" width="8.83203125" style="20"/>
+    <col min="13824" max="13824" width="2.5" style="20" customWidth="1"/>
     <col min="13825" max="13825" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.140625" style="20"/>
-    <col min="13829" max="13829" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="38.28515625" style="20" customWidth="1"/>
+    <col min="13826" max="13826" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="8.83203125" style="20"/>
+    <col min="13829" max="13829" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="38.33203125" style="20" customWidth="1"/>
     <col min="13833" max="13833" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="7.5703125" style="20" customWidth="1"/>
+    <col min="13834" max="13834" width="7.5" style="20" customWidth="1"/>
     <col min="13835" max="13835" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13838" max="13838" width="47.5703125" style="20" customWidth="1"/>
-    <col min="13839" max="14079" width="9.140625" style="20"/>
-    <col min="14080" max="14080" width="2.42578125" style="20" customWidth="1"/>
+    <col min="13836" max="13836" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="47.5" style="20" customWidth="1"/>
+    <col min="13839" max="14079" width="8.83203125" style="20"/>
+    <col min="14080" max="14080" width="2.5" style="20" customWidth="1"/>
     <col min="14081" max="14081" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.140625" style="20"/>
-    <col min="14085" max="14085" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="38.28515625" style="20" customWidth="1"/>
+    <col min="14082" max="14082" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="8.83203125" style="20"/>
+    <col min="14085" max="14085" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="38.33203125" style="20" customWidth="1"/>
     <col min="14089" max="14089" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="7.5703125" style="20" customWidth="1"/>
+    <col min="14090" max="14090" width="7.5" style="20" customWidth="1"/>
     <col min="14091" max="14091" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14094" width="47.5703125" style="20" customWidth="1"/>
-    <col min="14095" max="14335" width="9.140625" style="20"/>
-    <col min="14336" max="14336" width="2.42578125" style="20" customWidth="1"/>
+    <col min="14092" max="14092" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="47.5" style="20" customWidth="1"/>
+    <col min="14095" max="14335" width="8.83203125" style="20"/>
+    <col min="14336" max="14336" width="2.5" style="20" customWidth="1"/>
     <col min="14337" max="14337" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.140625" style="20"/>
-    <col min="14341" max="14341" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="38.28515625" style="20" customWidth="1"/>
+    <col min="14338" max="14338" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="8.83203125" style="20"/>
+    <col min="14341" max="14341" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="38.33203125" style="20" customWidth="1"/>
     <col min="14345" max="14345" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="7.5703125" style="20" customWidth="1"/>
+    <col min="14346" max="14346" width="7.5" style="20" customWidth="1"/>
     <col min="14347" max="14347" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14350" width="47.5703125" style="20" customWidth="1"/>
-    <col min="14351" max="14591" width="9.140625" style="20"/>
-    <col min="14592" max="14592" width="2.42578125" style="20" customWidth="1"/>
+    <col min="14348" max="14348" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="47.5" style="20" customWidth="1"/>
+    <col min="14351" max="14591" width="8.83203125" style="20"/>
+    <col min="14592" max="14592" width="2.5" style="20" customWidth="1"/>
     <col min="14593" max="14593" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.140625" style="20"/>
-    <col min="14597" max="14597" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="38.28515625" style="20" customWidth="1"/>
+    <col min="14594" max="14594" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="8.83203125" style="20"/>
+    <col min="14597" max="14597" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="38.33203125" style="20" customWidth="1"/>
     <col min="14601" max="14601" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="7.5703125" style="20" customWidth="1"/>
+    <col min="14602" max="14602" width="7.5" style="20" customWidth="1"/>
     <col min="14603" max="14603" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14606" width="47.5703125" style="20" customWidth="1"/>
-    <col min="14607" max="14847" width="9.140625" style="20"/>
-    <col min="14848" max="14848" width="2.42578125" style="20" customWidth="1"/>
+    <col min="14604" max="14604" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="47.5" style="20" customWidth="1"/>
+    <col min="14607" max="14847" width="8.83203125" style="20"/>
+    <col min="14848" max="14848" width="2.5" style="20" customWidth="1"/>
     <col min="14849" max="14849" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.140625" style="20"/>
-    <col min="14853" max="14853" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="38.28515625" style="20" customWidth="1"/>
+    <col min="14850" max="14850" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="8.83203125" style="20"/>
+    <col min="14853" max="14853" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="38.33203125" style="20" customWidth="1"/>
     <col min="14857" max="14857" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="7.5703125" style="20" customWidth="1"/>
+    <col min="14858" max="14858" width="7.5" style="20" customWidth="1"/>
     <col min="14859" max="14859" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="14862" max="14862" width="47.5703125" style="20" customWidth="1"/>
-    <col min="14863" max="15103" width="9.140625" style="20"/>
-    <col min="15104" max="15104" width="2.42578125" style="20" customWidth="1"/>
+    <col min="14860" max="14860" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="47.5" style="20" customWidth="1"/>
+    <col min="14863" max="15103" width="8.83203125" style="20"/>
+    <col min="15104" max="15104" width="2.5" style="20" customWidth="1"/>
     <col min="15105" max="15105" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.140625" style="20"/>
-    <col min="15109" max="15109" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="38.28515625" style="20" customWidth="1"/>
+    <col min="15106" max="15106" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="8.83203125" style="20"/>
+    <col min="15109" max="15109" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="38.33203125" style="20" customWidth="1"/>
     <col min="15113" max="15113" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="7.5703125" style="20" customWidth="1"/>
+    <col min="15114" max="15114" width="7.5" style="20" customWidth="1"/>
     <col min="15115" max="15115" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15118" width="47.5703125" style="20" customWidth="1"/>
-    <col min="15119" max="15359" width="9.140625" style="20"/>
-    <col min="15360" max="15360" width="2.42578125" style="20" customWidth="1"/>
+    <col min="15116" max="15116" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="47.5" style="20" customWidth="1"/>
+    <col min="15119" max="15359" width="8.83203125" style="20"/>
+    <col min="15360" max="15360" width="2.5" style="20" customWidth="1"/>
     <col min="15361" max="15361" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.140625" style="20"/>
-    <col min="15365" max="15365" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="38.28515625" style="20" customWidth="1"/>
+    <col min="15362" max="15362" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="8.83203125" style="20"/>
+    <col min="15365" max="15365" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="38.33203125" style="20" customWidth="1"/>
     <col min="15369" max="15369" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="7.5703125" style="20" customWidth="1"/>
+    <col min="15370" max="15370" width="7.5" style="20" customWidth="1"/>
     <col min="15371" max="15371" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15374" width="47.5703125" style="20" customWidth="1"/>
-    <col min="15375" max="15615" width="9.140625" style="20"/>
-    <col min="15616" max="15616" width="2.42578125" style="20" customWidth="1"/>
+    <col min="15372" max="15372" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="47.5" style="20" customWidth="1"/>
+    <col min="15375" max="15615" width="8.83203125" style="20"/>
+    <col min="15616" max="15616" width="2.5" style="20" customWidth="1"/>
     <col min="15617" max="15617" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.140625" style="20"/>
-    <col min="15621" max="15621" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="38.28515625" style="20" customWidth="1"/>
+    <col min="15618" max="15618" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="8.83203125" style="20"/>
+    <col min="15621" max="15621" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="38.33203125" style="20" customWidth="1"/>
     <col min="15625" max="15625" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="7.5703125" style="20" customWidth="1"/>
+    <col min="15626" max="15626" width="7.5" style="20" customWidth="1"/>
     <col min="15627" max="15627" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15630" width="47.5703125" style="20" customWidth="1"/>
-    <col min="15631" max="15871" width="9.140625" style="20"/>
-    <col min="15872" max="15872" width="2.42578125" style="20" customWidth="1"/>
+    <col min="15628" max="15628" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="47.5" style="20" customWidth="1"/>
+    <col min="15631" max="15871" width="8.83203125" style="20"/>
+    <col min="15872" max="15872" width="2.5" style="20" customWidth="1"/>
     <col min="15873" max="15873" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.140625" style="20"/>
-    <col min="15877" max="15877" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="38.28515625" style="20" customWidth="1"/>
+    <col min="15874" max="15874" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="8.83203125" style="20"/>
+    <col min="15877" max="15877" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="38.33203125" style="20" customWidth="1"/>
     <col min="15881" max="15881" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="7.5703125" style="20" customWidth="1"/>
+    <col min="15882" max="15882" width="7.5" style="20" customWidth="1"/>
     <col min="15883" max="15883" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15886" max="15886" width="47.5703125" style="20" customWidth="1"/>
-    <col min="15887" max="16127" width="9.140625" style="20"/>
-    <col min="16128" max="16128" width="2.42578125" style="20" customWidth="1"/>
+    <col min="15884" max="15884" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="47.5" style="20" customWidth="1"/>
+    <col min="15887" max="16127" width="8.83203125" style="20"/>
+    <col min="16128" max="16128" width="2.5" style="20" customWidth="1"/>
     <col min="16129" max="16129" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="23.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.140625" style="20"/>
-    <col min="16133" max="16133" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="38.28515625" style="20" customWidth="1"/>
+    <col min="16130" max="16130" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="23.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="8.83203125" style="20"/>
+    <col min="16133" max="16133" width="23.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="38.33203125" style="20" customWidth="1"/>
     <col min="16137" max="16137" width="30" style="20" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="7.5703125" style="20" customWidth="1"/>
+    <col min="16138" max="16138" width="7.5" style="20" customWidth="1"/>
     <col min="16139" max="16139" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16142" width="47.5703125" style="20" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="20"/>
+    <col min="16140" max="16140" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="47.5" style="20" customWidth="1"/>
+    <col min="16143" max="16384" width="8.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:18" ht="21" customHeight="1" thickBot="1">
       <c r="B2" s="66" t="s">
         <v>410</v>
       </c>
@@ -10647,7 +10662,7 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="2:18" s="47" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="47" customFormat="1" ht="9.75" customHeight="1" thickBot="1">
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
@@ -10665,7 +10680,7 @@
       <c r="P3" s="43"/>
       <c r="Q3" s="45"/>
     </row>
-    <row r="4" spans="2:18" s="16" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="16" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
       <c r="B4" s="39" t="s">
         <v>2</v>
       </c>
@@ -10712,7 +10727,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="14.25" customHeight="1">
       <c r="B5" s="33">
         <v>5670</v>
       </c>
@@ -10756,7 +10771,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="14.25" customHeight="1">
       <c r="B6" s="33">
         <v>5670</v>
       </c>
@@ -10800,7 +10815,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="14.25" customHeight="1">
       <c r="B7" s="33">
         <v>5864</v>
       </c>
@@ -10840,7 +10855,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="14.25" customHeight="1">
       <c r="B8" s="33">
         <v>5864</v>
       </c>
@@ -10882,7 +10897,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="14.25" customHeight="1">
       <c r="B9" s="33">
         <v>5864</v>
       </c>
@@ -10924,7 +10939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="14.25" customHeight="1">
       <c r="B10" s="33">
         <v>8906</v>
       </c>
@@ -10964,7 +10979,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="14.25" customHeight="1">
       <c r="B11" s="33">
         <v>8906</v>
       </c>
@@ -11004,7 +11019,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="14.25" customHeight="1">
       <c r="B12" s="33">
         <v>8906</v>
       </c>
@@ -11044,7 +11059,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="14.25" customHeight="1">
       <c r="B13" s="33">
         <v>8907</v>
       </c>
@@ -11086,7 +11101,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="14.25" customHeight="1">
       <c r="B14" s="33">
         <v>8907</v>
       </c>
@@ -11128,7 +11143,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="14.25" customHeight="1">
       <c r="B15" s="33">
         <v>8907</v>
       </c>
@@ -11170,7 +11185,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="14.25" customHeight="1">
       <c r="B16" s="33">
         <v>8907</v>
       </c>
@@ -11212,7 +11227,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="14.25" customHeight="1">
       <c r="B17" s="33">
         <v>8907</v>
       </c>
@@ -11254,7 +11269,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="14.25" customHeight="1">
       <c r="B18" s="33">
         <v>8907</v>
       </c>
@@ -11296,7 +11311,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="14.25" customHeight="1">
       <c r="B19" s="33">
         <v>8907</v>
       </c>
@@ -11338,7 +11353,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="14.25" customHeight="1">
       <c r="B20" s="33">
         <v>8907</v>
       </c>
@@ -11380,7 +11395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="14.25" customHeight="1">
       <c r="B21" s="33">
         <v>8907</v>
       </c>
@@ -11422,7 +11437,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="14.25" customHeight="1">
       <c r="B22" s="33">
         <v>9423</v>
       </c>
@@ -11462,7 +11477,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="14.25" customHeight="1">
       <c r="B23" s="33">
         <v>9423</v>
       </c>
@@ -11504,7 +11519,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="14.25" customHeight="1">
       <c r="B24" s="33">
         <v>9423</v>
       </c>
@@ -11546,7 +11561,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="14.25" customHeight="1">
       <c r="B25" s="33">
         <v>9423</v>
       </c>
@@ -11586,7 +11601,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="14.25" customHeight="1">
       <c r="B26" s="33">
         <v>9423</v>
       </c>
@@ -11626,7 +11641,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="14.25" customHeight="1">
       <c r="B27" s="33">
         <v>9423</v>
       </c>
@@ -11666,7 +11681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="14.25" customHeight="1">
       <c r="B28" s="33">
         <v>9423</v>
       </c>
@@ -11706,7 +11721,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="14.25" customHeight="1">
       <c r="B29" s="33">
         <v>9423</v>
       </c>
@@ -11748,7 +11763,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="14.25" customHeight="1">
       <c r="B30" s="33">
         <v>9423</v>
       </c>
@@ -11788,7 +11803,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="14.25" customHeight="1">
       <c r="B31" s="33">
         <v>9423</v>
       </c>
@@ -11828,7 +11843,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="14.25" customHeight="1">
       <c r="B32" s="33">
         <v>9501</v>
       </c>
@@ -11872,7 +11887,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" ht="14.25" customHeight="1">
       <c r="B33" s="33">
         <v>9501</v>
       </c>
@@ -11916,7 +11931,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" ht="14.25" customHeight="1">
       <c r="B34" s="33">
         <v>9501</v>
       </c>
@@ -11960,7 +11975,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="14.25" customHeight="1">
       <c r="B35" s="33">
         <v>9517</v>
       </c>
@@ -12000,7 +12015,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="14.25" customHeight="1">
       <c r="B36" s="33">
         <v>9517</v>
       </c>
@@ -12040,7 +12055,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" ht="14.25" customHeight="1">
       <c r="B37" s="33">
         <v>9517</v>
       </c>
@@ -12080,7 +12095,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" ht="14.25" customHeight="1">
       <c r="B38" s="33">
         <v>9517</v>
       </c>
@@ -12120,7 +12135,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" ht="14.25" customHeight="1">
       <c r="B39" s="33">
         <v>9517</v>
       </c>
@@ -12160,7 +12175,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="14.25" customHeight="1">
       <c r="B40" s="33">
         <v>9517</v>
       </c>
@@ -12200,7 +12215,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" ht="14.25" customHeight="1">
       <c r="B41" s="33">
         <v>9517</v>
       </c>
@@ -12242,7 +12257,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" ht="14.25" customHeight="1">
       <c r="B42" s="33">
         <v>9517</v>
       </c>
@@ -12282,7 +12297,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" ht="14.25" customHeight="1">
       <c r="B43" s="33">
         <v>9517</v>
       </c>
@@ -12322,7 +12337,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" ht="14.25" customHeight="1">
       <c r="B44" s="33">
         <v>9517</v>
       </c>
@@ -12362,7 +12377,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" ht="14.25" customHeight="1">
       <c r="B45" s="33">
         <v>9517</v>
       </c>
@@ -12402,7 +12417,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" ht="14.25" customHeight="1">
       <c r="B46" s="33">
         <v>9517</v>
       </c>
@@ -12442,7 +12457,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" ht="14.25" customHeight="1">
       <c r="B47" s="33">
         <v>9517</v>
       </c>
@@ -12482,7 +12497,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" ht="14.25" customHeight="1">
       <c r="B48" s="33">
         <v>9517</v>
       </c>
@@ -12522,7 +12537,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="14.25" customHeight="1">
       <c r="B49" s="33">
         <v>9517</v>
       </c>
@@ -12562,7 +12577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="14.25" customHeight="1">
       <c r="B50" s="33">
         <v>9517</v>
       </c>
@@ -12602,7 +12617,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="14.25" customHeight="1">
       <c r="B51" s="33">
         <v>9517</v>
       </c>
@@ -12642,7 +12657,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" ht="14.25" customHeight="1">
       <c r="B52" s="33">
         <v>9517</v>
       </c>
@@ -12682,7 +12697,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" ht="14.25" customHeight="1">
       <c r="B53" s="33">
         <v>9517</v>
       </c>
@@ -12722,7 +12737,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="14.25" customHeight="1">
       <c r="B54" s="33">
         <v>9517</v>
       </c>
@@ -12764,7 +12779,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="14.25" customHeight="1">
       <c r="B55" s="33">
         <v>9517</v>
       </c>
@@ -12804,7 +12819,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="14.25" customHeight="1">
       <c r="B56" s="33">
         <v>358247</v>
       </c>
@@ -12846,7 +12861,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="14.25" customHeight="1">
       <c r="B57" s="33">
         <v>358247</v>
       </c>
@@ -12888,7 +12903,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="14.25" customHeight="1">
       <c r="B58" s="33">
         <v>9728</v>
       </c>
@@ -12928,7 +12943,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="14.25" customHeight="1">
       <c r="B59" s="33">
         <v>9728</v>
       </c>
@@ -12968,7 +12983,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="14.25" customHeight="1">
       <c r="B60" s="33">
         <v>9728</v>
       </c>
@@ -13008,7 +13023,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="14.25" customHeight="1">
       <c r="B61" s="33">
         <v>9728</v>
       </c>
@@ -13048,7 +13063,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="14.25" customHeight="1">
       <c r="B62" s="33">
         <v>9728</v>
       </c>
@@ -13088,7 +13103,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="14.25" customHeight="1">
       <c r="B63" s="33">
         <v>9728</v>
       </c>
@@ -13128,7 +13143,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="14.25" customHeight="1">
       <c r="B64" s="33">
         <v>9728</v>
       </c>
@@ -13168,7 +13183,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" ht="14.25" customHeight="1">
       <c r="B65" s="33">
         <v>9728</v>
       </c>
@@ -13208,7 +13223,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" ht="14.25" customHeight="1">
       <c r="B66" s="33">
         <v>9728</v>
       </c>
@@ -13248,7 +13263,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="14.25" customHeight="1">
       <c r="B67" s="33">
         <v>9728</v>
       </c>
@@ -13288,7 +13303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" ht="14.25" customHeight="1">
       <c r="B68" s="33">
         <v>9728</v>
       </c>
@@ -13328,7 +13343,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" ht="14.25" customHeight="1">
       <c r="B69" s="33">
         <v>9728</v>
       </c>
@@ -13370,7 +13385,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" ht="14.25" customHeight="1">
       <c r="B70" s="33">
         <v>9728</v>
       </c>
@@ -13410,7 +13425,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" ht="14.25" customHeight="1">
       <c r="B71" s="33">
         <v>9728</v>
       </c>
@@ -13450,7 +13465,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" ht="14.25" customHeight="1">
       <c r="B72" s="33">
         <v>9728</v>
       </c>
@@ -13490,7 +13505,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" ht="14.25" customHeight="1">
       <c r="B73" s="33">
         <v>9728</v>
       </c>
@@ -13530,7 +13545,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" ht="14.25" customHeight="1">
       <c r="B74" s="33">
         <v>9728</v>
       </c>
@@ -13570,7 +13585,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" ht="14.25" customHeight="1">
       <c r="B75" s="33">
         <v>9728</v>
       </c>
@@ -13610,7 +13625,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" ht="14.25" customHeight="1">
       <c r="B76" s="33">
         <v>9728</v>
       </c>
@@ -13650,7 +13665,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" ht="14.25" customHeight="1">
       <c r="B77" s="33">
         <v>9728</v>
       </c>
@@ -13690,7 +13705,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" ht="14.25" customHeight="1">
       <c r="B78" s="33">
         <v>9728</v>
       </c>
@@ -13730,7 +13745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" ht="14.25" customHeight="1">
       <c r="B79" s="33">
         <v>9729</v>
       </c>
@@ -13772,7 +13787,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" ht="14.25" customHeight="1">
       <c r="B80" s="33">
         <v>9729</v>
       </c>
@@ -13814,7 +13829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" ht="14.25" customHeight="1">
       <c r="B81" s="33">
         <v>9729</v>
       </c>
@@ -13856,7 +13871,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" ht="14.25" customHeight="1">
       <c r="B82" s="33">
         <v>9729</v>
       </c>
@@ -13898,7 +13913,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" ht="14.25" customHeight="1">
       <c r="B83" s="33">
         <v>9729</v>
       </c>
@@ -13940,7 +13955,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" ht="14.25" customHeight="1">
       <c r="B84" s="33">
         <v>9729</v>
       </c>
@@ -13982,7 +13997,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" ht="14.25" customHeight="1">
       <c r="B85" s="33">
         <v>9729</v>
       </c>
@@ -14022,7 +14037,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" ht="14.25" customHeight="1">
       <c r="B86" s="33">
         <v>9729</v>
       </c>
@@ -14062,7 +14077,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" ht="14.25" customHeight="1">
       <c r="B87" s="33">
         <v>9729</v>
       </c>
@@ -14102,7 +14117,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" ht="14.25" customHeight="1">
       <c r="B88" s="33">
         <v>9729</v>
       </c>
@@ -14142,7 +14157,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" ht="14.25" customHeight="1">
       <c r="B89" s="33">
         <v>9730</v>
       </c>
@@ -14184,7 +14199,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" ht="14.25" customHeight="1">
       <c r="B90" s="33">
         <v>9731</v>
       </c>
@@ -14228,7 +14243,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" ht="14.25" customHeight="1">
       <c r="B91" s="33">
         <v>429712</v>
       </c>
@@ -14272,7 +14287,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" ht="14.25" customHeight="1">
       <c r="B92" s="33">
         <v>10908</v>
       </c>
@@ -14316,7 +14331,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" ht="14.25" customHeight="1">
       <c r="B93" s="33">
         <v>10908</v>
       </c>
@@ -14358,7 +14373,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" ht="14.25" customHeight="1">
       <c r="B94" s="33">
         <v>10908</v>
       </c>
@@ -14402,7 +14417,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" ht="14.25" customHeight="1">
       <c r="B95" s="33">
         <v>10908</v>
       </c>
@@ -14444,7 +14459,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" ht="14.25" customHeight="1">
       <c r="B96" s="33">
         <v>10908</v>
       </c>
@@ -14486,7 +14501,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" ht="14.25" customHeight="1">
       <c r="B97" s="33">
         <v>10908</v>
       </c>
@@ -14528,7 +14543,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" ht="14.25" customHeight="1">
       <c r="B98" s="33">
         <v>10908</v>
       </c>
@@ -14572,7 +14587,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" ht="14.25" customHeight="1">
       <c r="B99" s="33">
         <v>10908</v>
       </c>
@@ -14616,7 +14631,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" ht="14.25" customHeight="1">
       <c r="B100" s="33">
         <v>10908</v>
       </c>
@@ -14660,7 +14675,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" ht="14.25" customHeight="1">
       <c r="B101" s="33">
         <v>10908</v>
       </c>
@@ -14704,7 +14719,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" ht="14.25" customHeight="1">
       <c r="B102" s="33">
         <v>10908</v>
       </c>
@@ -14748,7 +14763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" ht="14.25" customHeight="1">
       <c r="B103" s="33">
         <v>10908</v>
       </c>
@@ -14792,7 +14807,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" ht="14.25" customHeight="1">
       <c r="B104" s="33">
         <v>10908</v>
       </c>
@@ -14836,7 +14851,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" ht="14.25" customHeight="1">
       <c r="B105" s="33">
         <v>453515</v>
       </c>
@@ -14880,7 +14895,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" ht="14.25" customHeight="1">
       <c r="B106" s="33">
         <v>453515</v>
       </c>
@@ -14924,7 +14939,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" ht="14.25" customHeight="1">
       <c r="B107" s="33">
         <v>12064</v>
       </c>
@@ -14968,7 +14983,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" ht="14.25" customHeight="1">
       <c r="B108" s="33">
         <v>12064</v>
       </c>
@@ -15010,7 +15025,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="109" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" ht="14.25" customHeight="1">
       <c r="B109" s="33">
         <v>12064</v>
       </c>
@@ -15052,7 +15067,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" ht="14.25" customHeight="1">
       <c r="B110" s="33">
         <v>12064</v>
       </c>
@@ -15094,7 +15109,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" ht="14.25" customHeight="1">
       <c r="B111" s="33">
         <v>12064</v>
       </c>
@@ -15138,7 +15153,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" ht="14.25" customHeight="1">
       <c r="B112" s="33">
         <v>12064</v>
       </c>
@@ -15182,7 +15197,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" ht="14.25" customHeight="1">
       <c r="B113" s="33">
         <v>12064</v>
       </c>
@@ -15226,7 +15241,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" ht="14.25" customHeight="1">
       <c r="B114" s="33">
         <v>12064</v>
       </c>
@@ -15270,7 +15285,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" ht="14.25" customHeight="1">
       <c r="B115" s="33">
         <v>12064</v>
       </c>
@@ -15314,7 +15329,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" ht="14.25" customHeight="1">
       <c r="B116" s="33">
         <v>12064</v>
       </c>
@@ -15356,7 +15371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" ht="14.25" customHeight="1">
       <c r="B117" s="33">
         <v>12064</v>
       </c>
@@ -15398,7 +15413,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" ht="14.25" customHeight="1">
       <c r="B118" s="33">
         <v>12064</v>
       </c>
@@ -15440,7 +15455,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" ht="14.25" customHeight="1">
       <c r="B119" s="33">
         <v>12064</v>
       </c>
@@ -15484,7 +15499,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" ht="14.25" customHeight="1">
       <c r="B120" s="33">
         <v>12064</v>
       </c>
@@ -15526,7 +15541,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" ht="14.25" customHeight="1">
       <c r="B121" s="33">
         <v>12064</v>
       </c>
@@ -15570,7 +15585,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" ht="14.25" customHeight="1">
       <c r="B122" s="33">
         <v>12064</v>
       </c>
@@ -15614,7 +15629,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" ht="14.25" customHeight="1">
       <c r="B123" s="33">
         <v>12064</v>
       </c>
@@ -15658,7 +15673,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" ht="14.25" customHeight="1">
       <c r="B124" s="33">
         <v>40132</v>
       </c>
@@ -15700,7 +15715,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" ht="14.25" customHeight="1">
       <c r="B125" s="33">
         <v>39534</v>
       </c>
@@ -15742,7 +15757,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" ht="14.25" customHeight="1">
       <c r="B126" s="33">
         <v>39534</v>
       </c>
@@ -15786,7 +15801,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" ht="14.25" customHeight="1">
       <c r="B127" s="33">
         <v>454012</v>
       </c>
@@ -15826,7 +15841,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="128" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" ht="14.25" customHeight="1">
       <c r="B128" s="33">
         <v>13002</v>
       </c>
@@ -15866,7 +15881,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" ht="14.25" customHeight="1">
       <c r="B129" s="33">
         <v>13002</v>
       </c>
@@ -15908,7 +15923,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" ht="14.25" customHeight="1">
       <c r="B130" s="33">
         <v>13002</v>
       </c>
@@ -15950,7 +15965,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" ht="14.25" customHeight="1">
       <c r="B131" s="33">
         <v>13002</v>
       </c>
@@ -15990,7 +16005,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" ht="14.25" customHeight="1">
       <c r="B132" s="33">
         <v>466460</v>
       </c>
@@ -16038,5 +16053,10 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>